--- a/inputs/tsi_seroconvertor_beehive.xlsx
+++ b/inputs/tsi_seroconvertor_beehive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
   <si>
     <t xml:space="preserve">scount</t>
   </si>
@@ -1248,6 +1248,9 @@
   </si>
   <si>
     <t xml:space="preserve">200911_20-11774_HIV09-01452_FL37_S24_L000_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gap_big_gag</t>
   </si>
   <si>
     <t xml:space="preserve">09-01467</t>
@@ -14927,7 +14930,7 @@
         <v>98.75</v>
       </c>
       <c r="N142" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O142" t="s">
         <v>35</v>
@@ -15359,16 +15362,20 @@
       </c>
       <c r="U147"/>
       <c r="V147" t="s">
-        <v>37</v>
-      </c>
-      <c r="W147"/>
+        <v>50</v>
+      </c>
+      <c r="W147" t="s">
+        <v>331</v>
+      </c>
       <c r="X147" t="n">
         <v>40.74</v>
       </c>
       <c r="Y147" t="s">
         <v>37</v>
       </c>
-      <c r="Z147"/>
+      <c r="Z147" t="s">
+        <v>412</v>
+      </c>
       <c r="AA147" t="s">
         <v>39</v>
       </c>
@@ -15384,7 +15391,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B148" t="n">
         <v>3</v>
@@ -15436,7 +15443,7 @@
         <v>148</v>
       </c>
       <c r="S148" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T148" t="s">
         <v>37</v>
@@ -15468,7 +15475,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B149" t="n">
         <v>4</v>
@@ -15520,7 +15527,7 @@
         <v>114</v>
       </c>
       <c r="S149" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T149" t="s">
         <v>37</v>
@@ -15552,7 +15559,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B150" t="n">
         <v>2</v>
@@ -15598,7 +15605,7 @@
         <v>271</v>
       </c>
       <c r="S150" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="T150" t="s">
         <v>37</v>
@@ -15615,7 +15622,7 @@
         <v>37</v>
       </c>
       <c r="Z150" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA150" t="s">
         <v>45</v>
@@ -15632,7 +15639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B151" t="n">
         <v>2</v>
@@ -15678,7 +15685,7 @@
         <v>294</v>
       </c>
       <c r="S151" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T151" t="s">
         <v>37</v>
@@ -15710,7 +15717,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B152" t="n">
         <v>3</v>
@@ -15762,7 +15769,7 @@
         <v>150</v>
       </c>
       <c r="S152" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T152" t="s">
         <v>37</v>
@@ -15794,7 +15801,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B153" t="n">
         <v>3</v>
@@ -15846,7 +15853,7 @@
         <v>156</v>
       </c>
       <c r="S153" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T153" t="s">
         <v>37</v>
@@ -15878,7 +15885,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B154" t="n">
         <v>4</v>
@@ -15930,7 +15937,7 @@
         <v>180</v>
       </c>
       <c r="S154" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T154" t="s">
         <v>37</v>
@@ -15962,7 +15969,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B155" t="n">
         <v>3</v>
@@ -16014,7 +16021,7 @@
         <v>136</v>
       </c>
       <c r="S155" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T155" t="s">
         <v>37</v>
@@ -16046,7 +16053,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B156" t="n">
         <v>2</v>
@@ -16083,7 +16090,7 @@
         <v>35</v>
       </c>
       <c r="P156" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q156" t="n">
         <v>193</v>
@@ -16092,7 +16099,7 @@
         <v>215</v>
       </c>
       <c r="S156" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T156" t="s">
         <v>37</v>
@@ -16109,7 +16116,7 @@
         <v>37</v>
       </c>
       <c r="Z156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA156" t="s">
         <v>45</v>
@@ -16126,7 +16133,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B157" t="n">
         <v>2</v>
@@ -16178,7 +16185,7 @@
         <v>144</v>
       </c>
       <c r="S157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T157" t="s">
         <v>37</v>
@@ -16210,7 +16217,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -16262,7 +16269,7 @@
         <v>259</v>
       </c>
       <c r="S158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T158" t="s">
         <v>37</v>
@@ -16294,7 +16301,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
@@ -16346,7 +16353,7 @@
         <v>140</v>
       </c>
       <c r="S159" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T159" t="s">
         <v>37</v>
@@ -16378,7 +16385,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -16424,7 +16431,7 @@
         <v>235</v>
       </c>
       <c r="S160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T160" t="s">
         <v>37</v>
@@ -16458,7 +16465,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B161" t="n">
         <v>3</v>
@@ -16510,7 +16517,7 @@
         <v>188</v>
       </c>
       <c r="S161" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="T161" t="s">
         <v>37</v>
@@ -16542,7 +16549,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -16570,7 +16577,7 @@
         <v>0.9</v>
       </c>
       <c r="K162" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L162" t="s">
         <v>34</v>
@@ -16594,7 +16601,7 @@
         <v>163</v>
       </c>
       <c r="S162" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T162" t="s">
         <v>37</v>
@@ -16626,7 +16633,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -16672,7 +16679,7 @@
         <v>201</v>
       </c>
       <c r="S163" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T163" t="s">
         <v>37</v>
@@ -16689,7 +16696,7 @@
         <v>37</v>
       </c>
       <c r="Z163" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA163" t="s">
         <v>45</v>
@@ -16706,7 +16713,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B164" t="n">
         <v>2</v>
@@ -16743,7 +16750,7 @@
         <v>35</v>
       </c>
       <c r="P164" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q164" t="n">
         <v>123</v>
@@ -16752,7 +16759,7 @@
         <v>135</v>
       </c>
       <c r="S164" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T164" t="s">
         <v>37</v>
@@ -16769,7 +16776,7 @@
         <v>37</v>
       </c>
       <c r="Z164" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA164" t="s">
         <v>45</v>
@@ -16786,7 +16793,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B165" t="n">
         <v>2</v>
@@ -16838,7 +16845,7 @@
         <v>130</v>
       </c>
       <c r="S165" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T165" t="s">
         <v>37</v>
@@ -16870,7 +16877,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B166" t="n">
         <v>2</v>
@@ -16916,7 +16923,7 @@
         <v>323</v>
       </c>
       <c r="S166" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T166" t="s">
         <v>37</v>
@@ -16948,7 +16955,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B167" t="n">
         <v>2</v>
@@ -16994,7 +17001,7 @@
         <v>228</v>
       </c>
       <c r="S167" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="T167" t="s">
         <v>50</v>
@@ -17013,7 +17020,7 @@
         <v>37</v>
       </c>
       <c r="Z167" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA167" t="s">
         <v>45</v>
@@ -17030,7 +17037,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B168" t="n">
         <v>3</v>
@@ -17058,7 +17065,7 @@
         <v>0.7</v>
       </c>
       <c r="K168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L168" t="s">
         <v>61</v>
@@ -17082,7 +17089,7 @@
         <v>152</v>
       </c>
       <c r="S168" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="T168" t="s">
         <v>37</v>
@@ -17114,7 +17121,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -17142,7 +17149,7 @@
         <v>0.9</v>
       </c>
       <c r="K169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L169" t="s">
         <v>61</v>
@@ -17166,7 +17173,7 @@
         <v>177</v>
       </c>
       <c r="S169" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="T169" t="s">
         <v>37</v>
@@ -17198,7 +17205,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B170" t="n">
         <v>2</v>
@@ -17244,7 +17251,7 @@
         <v>115</v>
       </c>
       <c r="S170" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T170" t="s">
         <v>50</v>
@@ -17263,7 +17270,7 @@
         <v>37</v>
       </c>
       <c r="Z170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA170" t="s">
         <v>45</v>
@@ -17280,7 +17287,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B171" t="n">
         <v>5</v>
@@ -17308,7 +17315,7 @@
         <v>0.8</v>
       </c>
       <c r="K171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L171" t="s">
         <v>61</v>
@@ -17332,7 +17339,7 @@
         <v>166</v>
       </c>
       <c r="S171" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="T171" t="s">
         <v>37</v>
@@ -17347,7 +17354,7 @@
         <v>37</v>
       </c>
       <c r="Z171" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA171" t="s">
         <v>39</v>
@@ -17364,7 +17371,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B172" t="n">
         <v>2</v>
@@ -17416,7 +17423,7 @@
         <v>195</v>
       </c>
       <c r="S172" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T172" t="s">
         <v>37</v>
@@ -17448,7 +17455,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B173" t="n">
         <v>2</v>
@@ -17491,7 +17498,7 @@
         <v>35</v>
       </c>
       <c r="P173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q173" t="n">
         <v>168</v>
@@ -17500,7 +17507,7 @@
         <v>187</v>
       </c>
       <c r="S173" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T173" t="s">
         <v>37</v>
@@ -17532,7 +17539,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B174" t="n">
         <v>2</v>
@@ -17578,7 +17585,7 @@
         <v>273</v>
       </c>
       <c r="S174" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T174" t="s">
         <v>37</v>
@@ -17610,7 +17617,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B175" t="n">
         <v>2</v>
@@ -17662,7 +17669,7 @@
         <v>132</v>
       </c>
       <c r="S175" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T175" t="s">
         <v>37</v>
@@ -17696,7 +17703,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B176" t="n">
         <v>2</v>
@@ -17708,7 +17715,7 @@
         <v>568</v>
       </c>
       <c r="E176" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
@@ -17742,7 +17749,7 @@
         <v>160</v>
       </c>
       <c r="S176" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T176" t="s">
         <v>37</v>
@@ -17757,7 +17764,7 @@
         <v>37</v>
       </c>
       <c r="Z176" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA176" t="s">
         <v>45</v>
@@ -17774,7 +17781,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B177" t="n">
         <v>2</v>
@@ -17820,7 +17827,7 @@
         <v>174</v>
       </c>
       <c r="S177" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T177" t="s">
         <v>37</v>
@@ -17852,7 +17859,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B178" t="n">
         <v>2</v>
@@ -17904,7 +17911,7 @@
         <v>210</v>
       </c>
       <c r="S178" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T178" t="s">
         <v>37</v>
@@ -17921,7 +17928,7 @@
         <v>37</v>
       </c>
       <c r="Z178" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA178" t="s">
         <v>39</v>
@@ -17938,7 +17945,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -17984,7 +17991,7 @@
         <v>273</v>
       </c>
       <c r="S179" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T179" t="s">
         <v>37</v>
@@ -18018,7 +18025,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -18046,7 +18053,7 @@
         <v>0.7</v>
       </c>
       <c r="K180" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L180" t="s">
         <v>61</v>
@@ -18070,7 +18077,7 @@
         <v>146</v>
       </c>
       <c r="S180" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T180" t="s">
         <v>37</v>
@@ -18102,7 +18109,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B181" t="n">
         <v>2</v>
@@ -18148,7 +18155,7 @@
         <v>217</v>
       </c>
       <c r="S181" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T181" t="s">
         <v>37</v>
@@ -18180,7 +18187,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B182" t="n">
         <v>4</v>
@@ -18208,7 +18215,7 @@
         <v>0.7</v>
       </c>
       <c r="K182" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L182" t="s">
         <v>61</v>
@@ -18232,7 +18239,7 @@
         <v>123</v>
       </c>
       <c r="S182" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T182" t="s">
         <v>37</v>
@@ -18264,7 +18271,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B183" t="n">
         <v>2</v>
@@ -18310,7 +18317,7 @@
         <v>176</v>
       </c>
       <c r="S183" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T183" t="s">
         <v>37</v>
@@ -18327,7 +18334,7 @@
         <v>37</v>
       </c>
       <c r="Z183" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AA183" t="s">
         <v>45</v>
@@ -18344,7 +18351,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B184" t="n">
         <v>2</v>
@@ -18396,7 +18403,7 @@
         <v>200</v>
       </c>
       <c r="S184" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T184" t="s">
         <v>37</v>
@@ -18428,7 +18435,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -18456,7 +18463,7 @@
         <v>0.6</v>
       </c>
       <c r="K185" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L185" t="s">
         <v>61</v>
@@ -18480,7 +18487,7 @@
         <v>105</v>
       </c>
       <c r="S185" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T185" t="s">
         <v>37</v>
@@ -18512,7 +18519,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B186" t="n">
         <v>3</v>
@@ -18540,7 +18547,7 @@
         <v>0.8</v>
       </c>
       <c r="K186" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L186"/>
       <c r="M186" t="n">
@@ -18562,7 +18569,7 @@
         <v>131</v>
       </c>
       <c r="S186" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T186" t="s">
         <v>37</v>
@@ -18596,7 +18603,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -18642,7 +18649,7 @@
         <v>232</v>
       </c>
       <c r="S187" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="T187" t="s">
         <v>50</v>
@@ -18659,7 +18666,7 @@
         <v>37</v>
       </c>
       <c r="Z187" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AA187" t="s">
         <v>45</v>
@@ -18676,7 +18683,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B188" t="n">
         <v>2</v>
@@ -18722,7 +18729,7 @@
         <v>295</v>
       </c>
       <c r="S188" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T188" t="s">
         <v>37</v>
@@ -18754,7 +18761,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B189" t="n">
         <v>5</v>
@@ -18782,7 +18789,7 @@
         <v>0.8</v>
       </c>
       <c r="K189" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L189" t="s">
         <v>61</v>
@@ -18806,7 +18813,7 @@
         <v>137</v>
       </c>
       <c r="S189" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T189" t="s">
         <v>37</v>
@@ -18838,7 +18845,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B190" t="n">
         <v>4</v>
@@ -18866,7 +18873,7 @@
         <v>1.5</v>
       </c>
       <c r="K190" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L190" t="s">
         <v>61</v>
@@ -18890,7 +18897,7 @@
         <v>268</v>
       </c>
       <c r="S190" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T190" t="s">
         <v>37</v>
@@ -18922,7 +18929,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
@@ -18974,7 +18981,7 @@
         <v>231</v>
       </c>
       <c r="S191" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T191" t="s">
         <v>37</v>
@@ -19006,7 +19013,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B192" t="n">
         <v>3</v>
@@ -19034,7 +19041,7 @@
         <v>0.7</v>
       </c>
       <c r="K192" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L192" t="s">
         <v>61</v>
@@ -19058,7 +19065,7 @@
         <v>146</v>
       </c>
       <c r="S192" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T192" t="s">
         <v>37</v>
@@ -19090,7 +19097,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B193" t="n">
         <v>2</v>
@@ -19136,7 +19143,7 @@
         <v>263</v>
       </c>
       <c r="S193" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="T193" t="s">
         <v>37</v>
@@ -19168,7 +19175,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B194" t="n">
         <v>5</v>
@@ -19196,7 +19203,7 @@
         <v>0.5</v>
       </c>
       <c r="K194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L194" t="s">
         <v>61</v>
@@ -19220,7 +19227,7 @@
         <v>133</v>
       </c>
       <c r="S194" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T194" t="s">
         <v>37</v>
@@ -19252,7 +19259,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B195" t="n">
         <v>2</v>
@@ -19298,7 +19305,7 @@
         <v>272</v>
       </c>
       <c r="S195" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T195" t="s">
         <v>37</v>
@@ -19332,7 +19339,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B196" t="n">
         <v>2</v>
@@ -19360,7 +19367,7 @@
         <v>0.9</v>
       </c>
       <c r="K196" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L196" t="s">
         <v>61</v>
@@ -19384,7 +19391,7 @@
         <v>191</v>
       </c>
       <c r="S196" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T196" t="s">
         <v>37</v>
@@ -19416,7 +19423,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B197" t="n">
         <v>6</v>
@@ -19444,7 +19451,7 @@
         <v>0.7</v>
       </c>
       <c r="K197" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L197" t="s">
         <v>61</v>
@@ -19468,7 +19475,7 @@
         <v>122</v>
       </c>
       <c r="S197" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T197" t="s">
         <v>37</v>
@@ -19500,7 +19507,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B198" t="n">
         <v>2</v>
@@ -19546,7 +19553,7 @@
         <v>222</v>
       </c>
       <c r="S198" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T198" t="s">
         <v>37</v>
@@ -19578,7 +19585,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
@@ -19624,7 +19631,7 @@
         <v>227</v>
       </c>
       <c r="S199" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T199" t="s">
         <v>37</v>
@@ -19656,7 +19663,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B200" t="n">
         <v>3</v>
@@ -19684,7 +19691,7 @@
         <v>0.6</v>
       </c>
       <c r="K200" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L200" t="s">
         <v>61</v>
@@ -19708,7 +19715,7 @@
         <v>162</v>
       </c>
       <c r="S200" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T200" t="s">
         <v>37</v>
@@ -19742,7 +19749,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -19770,7 +19777,7 @@
         <v>1.5</v>
       </c>
       <c r="K201" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L201" t="s">
         <v>61</v>
@@ -19794,7 +19801,7 @@
         <v>346</v>
       </c>
       <c r="S201" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T201" t="s">
         <v>37</v>
@@ -19826,7 +19833,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -19872,7 +19879,7 @@
         <v>206</v>
       </c>
       <c r="S202" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="T202" t="s">
         <v>50</v>
@@ -19891,7 +19898,7 @@
         <v>37</v>
       </c>
       <c r="Z202" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA202" t="s">
         <v>45</v>
@@ -19908,7 +19915,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B203" t="n">
         <v>3</v>
@@ -19936,7 +19943,7 @@
         <v>2.1</v>
       </c>
       <c r="K203" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L203" t="s">
         <v>61</v>
@@ -19960,7 +19967,7 @@
         <v>428</v>
       </c>
       <c r="S203" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T203" t="s">
         <v>37</v>
@@ -19992,7 +19999,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B204" t="n">
         <v>5</v>
@@ -20020,7 +20027,7 @@
         <v>0.7</v>
       </c>
       <c r="K204" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L204" t="s">
         <v>61</v>
@@ -20044,7 +20051,7 @@
         <v>146</v>
       </c>
       <c r="S204" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T204" t="s">
         <v>37</v>
@@ -20076,7 +20083,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -20122,7 +20129,7 @@
         <v>309</v>
       </c>
       <c r="S205" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T205" t="s">
         <v>37</v>
@@ -20154,7 +20161,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -20200,7 +20207,7 @@
         <v>296</v>
       </c>
       <c r="S206" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="T206" t="s">
         <v>37</v>
@@ -20232,7 +20239,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -20284,7 +20291,7 @@
         <v>172</v>
       </c>
       <c r="S207" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T207" t="s">
         <v>37</v>
@@ -20316,7 +20323,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -20362,7 +20369,7 @@
         <v>232</v>
       </c>
       <c r="S208" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T208" t="s">
         <v>37</v>
@@ -20379,7 +20386,7 @@
         <v>37</v>
       </c>
       <c r="Z208" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA208" t="s">
         <v>45</v>
@@ -20396,7 +20403,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -20448,7 +20455,7 @@
         <v>234</v>
       </c>
       <c r="S209" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T209" t="s">
         <v>37</v>
@@ -20482,7 +20489,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B210" t="n">
         <v>4</v>
@@ -20534,7 +20541,7 @@
         <v>271</v>
       </c>
       <c r="S210" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T210" t="s">
         <v>37</v>
@@ -20566,7 +20573,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B211" t="n">
         <v>4</v>
@@ -20594,7 +20601,7 @@
         <v>2.7</v>
       </c>
       <c r="K211" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L211" t="s">
         <v>61</v>
@@ -20618,7 +20625,7 @@
         <v>545</v>
       </c>
       <c r="S211" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T211" t="s">
         <v>50</v>
@@ -20637,7 +20644,7 @@
         <v>37</v>
       </c>
       <c r="Z211" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA211" t="s">
         <v>39</v>
@@ -20654,7 +20661,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -20700,7 +20707,7 @@
         <v>246</v>
       </c>
       <c r="S212" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="T212" t="s">
         <v>37</v>
@@ -20734,7 +20741,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -20762,7 +20769,7 @@
         <v>0.5</v>
       </c>
       <c r="K213" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L213" t="s">
         <v>61</v>
@@ -20786,7 +20793,7 @@
         <v>135</v>
       </c>
       <c r="S213" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T213" t="s">
         <v>37</v>
@@ -20803,7 +20810,7 @@
         <v>37</v>
       </c>
       <c r="Z213" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA213" t="s">
         <v>39</v>
@@ -20820,7 +20827,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B214" t="n">
         <v>4</v>
@@ -20848,7 +20855,7 @@
         <v>0.5</v>
       </c>
       <c r="K214" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L214" t="s">
         <v>61</v>
@@ -20872,7 +20879,7 @@
         <v>139</v>
       </c>
       <c r="S214" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T214" t="s">
         <v>37</v>
@@ -20904,7 +20911,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -20932,7 +20939,7 @@
         <v>0.3</v>
       </c>
       <c r="K215" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L215" t="s">
         <v>34</v>
@@ -20947,7 +20954,7 @@
         <v>35</v>
       </c>
       <c r="P215" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q215" t="n">
         <v>76</v>
@@ -20956,7 +20963,7 @@
         <v>92</v>
       </c>
       <c r="S215" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T215" t="s">
         <v>37</v>
@@ -20988,7 +20995,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B216" t="n">
         <v>3</v>
@@ -21016,7 +21023,7 @@
         <v>0.8</v>
       </c>
       <c r="K216" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L216" t="s">
         <v>61</v>
@@ -21040,7 +21047,7 @@
         <v>163</v>
       </c>
       <c r="S216" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T216" t="s">
         <v>37</v>
@@ -21057,7 +21064,7 @@
         <v>37</v>
       </c>
       <c r="Z216" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA216" t="s">
         <v>39</v>
@@ -21074,7 +21081,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -21126,7 +21133,7 @@
         <v>122</v>
       </c>
       <c r="S217" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T217" t="s">
         <v>37</v>
@@ -21158,7 +21165,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -21170,7 +21177,7 @@
         <v>14</v>
       </c>
       <c r="E218" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F218"/>
       <c r="G218" t="n">
@@ -21208,7 +21215,7 @@
         <v>203</v>
       </c>
       <c r="S218" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T218" t="s">
         <v>37</v>
@@ -21225,7 +21232,7 @@
         <v>37</v>
       </c>
       <c r="Z218" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AA218" t="s">
         <v>39</v>
@@ -21242,7 +21249,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B219" t="n">
         <v>5</v>
@@ -21270,7 +21277,7 @@
         <v>1.7</v>
       </c>
       <c r="K219" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L219" t="s">
         <v>61</v>
@@ -21294,7 +21301,7 @@
         <v>354</v>
       </c>
       <c r="S219" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T219" t="s">
         <v>37</v>
@@ -21328,7 +21335,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B220" t="n">
         <v>6</v>
@@ -21356,7 +21363,7 @@
         <v>1.9</v>
       </c>
       <c r="K220" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L220" t="s">
         <v>61</v>
@@ -21380,7 +21387,7 @@
         <v>381</v>
       </c>
       <c r="S220" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T220" t="s">
         <v>37</v>
@@ -21412,7 +21419,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B221" t="n">
         <v>4</v>
@@ -21440,7 +21447,7 @@
         <v>1.2</v>
       </c>
       <c r="K221" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L221" t="s">
         <v>61</v>
@@ -21464,7 +21471,7 @@
         <v>256</v>
       </c>
       <c r="S221" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T221" t="s">
         <v>37</v>
@@ -21496,7 +21503,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B222" t="n">
         <v>3</v>
@@ -21548,7 +21555,7 @@
         <v>146</v>
       </c>
       <c r="S222" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T222" t="s">
         <v>37</v>
@@ -21580,7 +21587,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -21608,7 +21615,7 @@
         <v>0.4</v>
       </c>
       <c r="K223" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L223" t="s">
         <v>61</v>
@@ -21632,7 +21639,7 @@
         <v>120</v>
       </c>
       <c r="S223" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T223" t="s">
         <v>37</v>
@@ -21666,7 +21673,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -21694,7 +21701,7 @@
         <v>0.6</v>
       </c>
       <c r="K224" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L224" t="s">
         <v>61</v>
@@ -21718,7 +21725,7 @@
         <v>149</v>
       </c>
       <c r="S224" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="T224" t="s">
         <v>37</v>
@@ -21750,7 +21757,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -21796,7 +21803,7 @@
         <v>254</v>
       </c>
       <c r="S225" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T225" t="s">
         <v>37</v>
@@ -21828,7 +21835,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -21874,7 +21881,7 @@
         <v>221</v>
       </c>
       <c r="S226" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T226" t="s">
         <v>37</v>
@@ -21906,7 +21913,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -21943,7 +21950,7 @@
         <v>35</v>
       </c>
       <c r="P227" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q227" t="n">
         <v>193</v>
@@ -21952,7 +21959,7 @@
         <v>214</v>
       </c>
       <c r="S227" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T227" t="s">
         <v>50</v>
@@ -21971,7 +21978,7 @@
         <v>37</v>
       </c>
       <c r="Z227" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA227" t="s">
         <v>45</v>
@@ -21988,7 +21995,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B228" t="n">
         <v>4</v>
@@ -22016,7 +22023,7 @@
         <v>1.2</v>
       </c>
       <c r="K228" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L228" t="s">
         <v>61</v>
@@ -22040,7 +22047,7 @@
         <v>239</v>
       </c>
       <c r="S228" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T228" t="s">
         <v>50</v>
@@ -22076,7 +22083,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B229" t="n">
         <v>3</v>
@@ -22104,7 +22111,7 @@
         <v>0.6</v>
       </c>
       <c r="K229" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L229" t="s">
         <v>61</v>
@@ -22119,7 +22126,7 @@
         <v>35</v>
       </c>
       <c r="P229" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q229" t="n">
         <v>91</v>
@@ -22128,7 +22135,7 @@
         <v>112</v>
       </c>
       <c r="S229" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T229" t="s">
         <v>37</v>
@@ -22162,7 +22169,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -22208,7 +22215,7 @@
         <v>224</v>
       </c>
       <c r="S230" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T230" t="s">
         <v>37</v>
@@ -22240,7 +22247,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -22286,7 +22293,7 @@
         <v>198</v>
       </c>
       <c r="S231" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T231" t="s">
         <v>37</v>
@@ -22318,7 +22325,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -22346,7 +22353,7 @@
         <v>1.4</v>
       </c>
       <c r="K232" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L232" t="s">
         <v>61</v>
@@ -22370,7 +22377,7 @@
         <v>278</v>
       </c>
       <c r="S232" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T232" t="s">
         <v>37</v>
@@ -22387,7 +22394,7 @@
         <v>37</v>
       </c>
       <c r="Z232" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA232" t="s">
         <v>39</v>
@@ -22404,7 +22411,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -22432,7 +22439,7 @@
         <v>0.6</v>
       </c>
       <c r="K233" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L233" t="s">
         <v>61</v>
@@ -22456,7 +22463,7 @@
         <v>154</v>
       </c>
       <c r="S233" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="T233" t="s">
         <v>37</v>
@@ -22473,7 +22480,7 @@
         <v>37</v>
       </c>
       <c r="Z233" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA233" t="s">
         <v>39</v>
@@ -22490,7 +22497,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -22536,7 +22543,7 @@
         <v>285</v>
       </c>
       <c r="S234" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T234" t="s">
         <v>37</v>
@@ -22568,7 +22575,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -22596,7 +22603,7 @@
         <v>1.5</v>
       </c>
       <c r="K235" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L235" t="s">
         <v>61</v>
@@ -22620,7 +22627,7 @@
         <v>262</v>
       </c>
       <c r="S235" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T235" t="s">
         <v>37</v>
@@ -22652,7 +22659,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B236" t="n">
         <v>4</v>
@@ -22680,7 +22687,7 @@
         <v>1.5</v>
       </c>
       <c r="K236" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L236" t="s">
         <v>61</v>
@@ -22704,7 +22711,7 @@
         <v>288</v>
       </c>
       <c r="S236" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T236" t="s">
         <v>37</v>
@@ -22738,7 +22745,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -22784,7 +22791,7 @@
         <v>248</v>
       </c>
       <c r="S237" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="T237" t="s">
         <v>50</v>
@@ -22803,7 +22810,7 @@
         <v>37</v>
       </c>
       <c r="Z237" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AA237" t="s">
         <v>45</v>
@@ -22820,7 +22827,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -22866,7 +22873,7 @@
         <v>169</v>
       </c>
       <c r="S238" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T238" t="s">
         <v>37</v>
@@ -22898,7 +22905,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -22944,7 +22951,7 @@
         <v>146</v>
       </c>
       <c r="S239" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T239" t="s">
         <v>37</v>
@@ -22976,7 +22983,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -23022,7 +23029,7 @@
         <v>248</v>
       </c>
       <c r="S240" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T240" t="s">
         <v>37</v>
@@ -23054,7 +23061,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -23100,7 +23107,7 @@
         <v>220</v>
       </c>
       <c r="S241" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T241" t="s">
         <v>50</v>
@@ -23119,7 +23126,7 @@
         <v>37</v>
       </c>
       <c r="Z241" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA241" t="s">
         <v>45</v>
@@ -23136,7 +23143,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -23182,7 +23189,7 @@
         <v>278</v>
       </c>
       <c r="S242" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="T242" t="s">
         <v>37</v>
@@ -23199,7 +23206,7 @@
         <v>37</v>
       </c>
       <c r="Z242" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA242" t="s">
         <v>45</v>
@@ -23216,7 +23223,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -23262,7 +23269,7 @@
         <v>217</v>
       </c>
       <c r="S243" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T243" t="s">
         <v>37</v>
@@ -23296,7 +23303,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B244" t="n">
         <v>4</v>
@@ -23324,7 +23331,7 @@
         <v>0.5</v>
       </c>
       <c r="K244" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L244" t="s">
         <v>61</v>
@@ -23348,7 +23355,7 @@
         <v>118</v>
       </c>
       <c r="S244" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T244" t="s">
         <v>37</v>
@@ -23380,7 +23387,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -23426,7 +23433,7 @@
         <v>259</v>
       </c>
       <c r="S245" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T245" t="s">
         <v>37</v>
@@ -23458,7 +23465,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B246" t="n">
         <v>4</v>
@@ -23510,7 +23517,7 @@
         <v>135</v>
       </c>
       <c r="S246" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T246" t="s">
         <v>37</v>
@@ -23542,7 +23549,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -23594,7 +23601,7 @@
         <v>170</v>
       </c>
       <c r="S247" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T247" t="s">
         <v>37</v>
@@ -23626,7 +23633,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -23672,7 +23679,7 @@
         <v>273</v>
       </c>
       <c r="S248" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T248" t="s">
         <v>37</v>
@@ -23704,7 +23711,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B249" t="n">
         <v>3</v>
@@ -23732,7 +23739,7 @@
         <v>0.6</v>
       </c>
       <c r="K249" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L249" t="s">
         <v>61</v>
@@ -23747,7 +23754,7 @@
         <v>35</v>
       </c>
       <c r="P249" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q249" t="n">
         <v>107</v>
@@ -23756,7 +23763,7 @@
         <v>117</v>
       </c>
       <c r="S249" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T249" t="s">
         <v>37</v>
@@ -23788,7 +23795,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -23834,7 +23841,7 @@
         <v>170</v>
       </c>
       <c r="S250" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T250" t="s">
         <v>50</v>
@@ -23853,7 +23860,7 @@
         <v>37</v>
       </c>
       <c r="Z250" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AA250" t="s">
         <v>45</v>
@@ -23870,7 +23877,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B251" t="n">
         <v>3</v>
@@ -23922,7 +23929,7 @@
         <v>127</v>
       </c>
       <c r="S251" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T251" t="s">
         <v>37</v>
@@ -23954,7 +23961,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B252" t="n">
         <v>3</v>
@@ -23982,7 +23989,7 @@
         <v>0.7</v>
       </c>
       <c r="K252" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L252" t="s">
         <v>61</v>
@@ -24006,7 +24013,7 @@
         <v>262</v>
       </c>
       <c r="S252" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T252" t="s">
         <v>37</v>
@@ -24038,7 +24045,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -24066,7 +24073,7 @@
         <v>1.1</v>
       </c>
       <c r="K253" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L253" t="s">
         <v>61</v>
@@ -24090,7 +24097,7 @@
         <v>320</v>
       </c>
       <c r="S253" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T253" t="s">
         <v>37</v>
@@ -24122,7 +24129,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -24168,7 +24175,7 @@
         <v>209</v>
       </c>
       <c r="S254" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T254" t="s">
         <v>37</v>
@@ -24202,7 +24209,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -24239,7 +24246,7 @@
         <v>35</v>
       </c>
       <c r="P255" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q255" t="n">
         <v>225</v>
@@ -24248,7 +24255,7 @@
         <v>261</v>
       </c>
       <c r="S255" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T255" t="s">
         <v>37</v>
@@ -24280,7 +24287,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B256" t="n">
         <v>3</v>
@@ -24308,7 +24315,7 @@
         <v>0.5</v>
       </c>
       <c r="K256" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L256" t="s">
         <v>61</v>
@@ -24323,7 +24330,7 @@
         <v>35</v>
       </c>
       <c r="P256" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q256" t="n">
         <v>153</v>
@@ -24332,7 +24339,7 @@
         <v>194</v>
       </c>
       <c r="S256" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T256" t="s">
         <v>37</v>
@@ -24349,7 +24356,7 @@
         <v>37</v>
       </c>
       <c r="Z256" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA256" t="s">
         <v>39</v>
@@ -24366,7 +24373,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -24394,7 +24401,7 @@
         <v>0.5</v>
       </c>
       <c r="K257" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L257" t="s">
         <v>34</v>
@@ -24418,7 +24425,7 @@
         <v>143</v>
       </c>
       <c r="S257" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="T257" t="s">
         <v>37</v>
@@ -24450,7 +24457,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B258" t="n">
         <v>5</v>
@@ -24478,7 +24485,7 @@
         <v>0.8</v>
       </c>
       <c r="K258" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L258" t="s">
         <v>61</v>
@@ -24502,7 +24509,7 @@
         <v>133</v>
       </c>
       <c r="S258" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T258" t="s">
         <v>37</v>
@@ -24534,7 +24541,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -24562,7 +24569,7 @@
         <v>1.4</v>
       </c>
       <c r="K259" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L259" t="s">
         <v>61</v>
@@ -24586,7 +24593,7 @@
         <v>297</v>
       </c>
       <c r="S259" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="T259" t="s">
         <v>37</v>
@@ -24618,7 +24625,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -24664,7 +24671,7 @@
         <v>291</v>
       </c>
       <c r="S260" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T260" t="s">
         <v>37</v>
@@ -24681,7 +24688,7 @@
         <v>37</v>
       </c>
       <c r="Z260" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AA260" t="s">
         <v>45</v>
@@ -24698,7 +24705,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -24744,7 +24751,7 @@
         <v>291</v>
       </c>
       <c r="S261" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T261" t="s">
         <v>37</v>
@@ -24776,7 +24783,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B262" t="n">
         <v>6</v>
@@ -24804,7 +24811,7 @@
         <v>1.3</v>
       </c>
       <c r="K262" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L262" t="s">
         <v>61</v>
@@ -24828,7 +24835,7 @@
         <v>254</v>
       </c>
       <c r="S262" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T262" t="s">
         <v>37</v>
@@ -24860,7 +24867,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -24906,7 +24913,7 @@
         <v>291</v>
       </c>
       <c r="S263" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T263" t="s">
         <v>37</v>
@@ -24938,7 +24945,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -24990,7 +24997,7 @@
         <v>187</v>
       </c>
       <c r="S264" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T264" t="s">
         <v>37</v>
@@ -25022,7 +25029,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -25050,7 +25057,7 @@
         <v>0.7</v>
       </c>
       <c r="K265" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L265" t="s">
         <v>61</v>
@@ -25074,7 +25081,7 @@
         <v>135</v>
       </c>
       <c r="S265" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="T265" t="s">
         <v>37</v>
@@ -25106,7 +25113,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B266" t="n">
         <v>3</v>
@@ -25134,7 +25141,7 @@
         <v>0.5</v>
       </c>
       <c r="K266" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L266" t="s">
         <v>34</v>
@@ -25158,7 +25165,7 @@
         <v>96</v>
       </c>
       <c r="S266" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T266" t="s">
         <v>37</v>
@@ -25190,7 +25197,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B267" t="n">
         <v>3</v>
@@ -25218,7 +25225,7 @@
         <v>0.6</v>
       </c>
       <c r="K267" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L267" t="s">
         <v>61</v>
@@ -25242,7 +25249,7 @@
         <v>123</v>
       </c>
       <c r="S267" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T267" t="s">
         <v>37</v>
@@ -25259,7 +25266,7 @@
         <v>37</v>
       </c>
       <c r="Z267" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AA267" t="s">
         <v>39</v>
@@ -25276,7 +25283,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -25322,7 +25329,7 @@
         <v>192</v>
       </c>
       <c r="S268" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T268" t="s">
         <v>37</v>
@@ -25337,7 +25344,7 @@
         <v>37</v>
       </c>
       <c r="Z268" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AA268" t="s">
         <v>45</v>
@@ -25354,7 +25361,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -25400,7 +25407,7 @@
         <v>300</v>
       </c>
       <c r="S269" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T269" t="s">
         <v>37</v>
@@ -25432,7 +25439,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B270" t="n">
         <v>4</v>
@@ -25460,7 +25467,7 @@
         <v>0.3</v>
       </c>
       <c r="K270" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L270" t="s">
         <v>61</v>
@@ -25484,7 +25491,7 @@
         <v>144</v>
       </c>
       <c r="S270" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T270" t="s">
         <v>37</v>
@@ -25518,7 +25525,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -25546,7 +25553,7 @@
         <v>0.6</v>
       </c>
       <c r="K271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L271" t="s">
         <v>61</v>
@@ -25570,7 +25577,7 @@
         <v>109</v>
       </c>
       <c r="S271" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="T271" t="s">
         <v>37</v>
@@ -25602,7 +25609,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -25648,7 +25655,7 @@
         <v>218</v>
       </c>
       <c r="S272" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T272" t="s">
         <v>37</v>
@@ -25665,7 +25672,7 @@
         <v>37</v>
       </c>
       <c r="Z272" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AA272" t="s">
         <v>45</v>
@@ -25682,7 +25689,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B273" t="n">
         <v>3</v>
@@ -25710,7 +25717,7 @@
         <v>0.7</v>
       </c>
       <c r="K273" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L273" t="s">
         <v>61</v>
@@ -25734,7 +25741,7 @@
         <v>117</v>
       </c>
       <c r="S273" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T273" t="s">
         <v>37</v>
@@ -25766,7 +25773,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B274" t="n">
         <v>5</v>
@@ -25794,7 +25801,7 @@
         <v>0.7</v>
       </c>
       <c r="K274" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L274" t="s">
         <v>61</v>
@@ -25818,7 +25825,7 @@
         <v>112</v>
       </c>
       <c r="S274" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="T274" t="s">
         <v>37</v>
@@ -25850,7 +25857,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B275" t="n">
         <v>4</v>
@@ -25878,7 +25885,7 @@
         <v>0.7</v>
       </c>
       <c r="K275" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L275" t="s">
         <v>61</v>
@@ -25902,7 +25909,7 @@
         <v>172</v>
       </c>
       <c r="S275" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T275" t="s">
         <v>37</v>
@@ -25919,7 +25926,7 @@
         <v>37</v>
       </c>
       <c r="Z275" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA275" t="s">
         <v>39</v>
@@ -25936,7 +25943,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B276" t="n">
         <v>3</v>
@@ -25964,7 +25971,7 @@
         <v>0.4</v>
       </c>
       <c r="K276" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L276" t="s">
         <v>61</v>
@@ -25988,7 +25995,7 @@
         <v>175</v>
       </c>
       <c r="S276" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T276" t="s">
         <v>37</v>
@@ -26020,7 +26027,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B277" t="n">
         <v>3</v>
@@ -26072,7 +26079,7 @@
         <v>147</v>
       </c>
       <c r="S277" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T277" t="s">
         <v>37</v>
@@ -26104,7 +26111,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B278" t="n">
         <v>3</v>
@@ -26132,7 +26139,7 @@
         <v>0.6</v>
       </c>
       <c r="K278" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L278" t="s">
         <v>61</v>
@@ -26156,7 +26163,7 @@
         <v>146</v>
       </c>
       <c r="S278" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="T278" t="s">
         <v>37</v>
@@ -26188,7 +26195,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -26234,7 +26241,7 @@
         <v>182</v>
       </c>
       <c r="S279" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T279" t="s">
         <v>50</v>
@@ -26253,7 +26260,7 @@
         <v>37</v>
       </c>
       <c r="Z279" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AA279" t="s">
         <v>45</v>
@@ -26270,7 +26277,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -26316,7 +26323,7 @@
         <v>273</v>
       </c>
       <c r="S280" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="T280" t="s">
         <v>37</v>
@@ -26333,7 +26340,7 @@
         <v>37</v>
       </c>
       <c r="Z280" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AA280" t="s">
         <v>45</v>
@@ -26350,7 +26357,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B281" t="n">
         <v>5</v>
@@ -26378,7 +26385,7 @@
         <v>0.6</v>
       </c>
       <c r="K281" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L281" t="s">
         <v>61</v>
@@ -26402,7 +26409,7 @@
         <v>134</v>
       </c>
       <c r="S281" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T281" t="s">
         <v>37</v>
@@ -26434,7 +26441,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B282" t="n">
         <v>4</v>
@@ -26486,7 +26493,7 @@
         <v>134</v>
       </c>
       <c r="S282" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T282" t="s">
         <v>37</v>
@@ -26518,7 +26525,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B283" t="n">
         <v>4</v>
@@ -26570,7 +26577,7 @@
         <v>138</v>
       </c>
       <c r="S283" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T283" t="s">
         <v>37</v>
@@ -26602,7 +26609,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -26654,7 +26661,7 @@
         <v>170</v>
       </c>
       <c r="S284" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T284" t="s">
         <v>37</v>
@@ -26686,7 +26693,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B285" t="n">
         <v>5</v>
@@ -26714,7 +26721,7 @@
         <v>0.7</v>
       </c>
       <c r="K285" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L285" t="s">
         <v>61</v>
@@ -26738,7 +26745,7 @@
         <v>127</v>
       </c>
       <c r="S285" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T285" t="s">
         <v>37</v>
@@ -26770,7 +26777,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B286" t="n">
         <v>3</v>
@@ -26798,7 +26805,7 @@
         <v>0.8</v>
       </c>
       <c r="K286" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L286" t="s">
         <v>61</v>
@@ -26822,7 +26829,7 @@
         <v>125</v>
       </c>
       <c r="S286" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T286" t="s">
         <v>37</v>
@@ -26854,7 +26861,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -26882,7 +26889,7 @@
         <v>0.7</v>
       </c>
       <c r="K287" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L287" t="s">
         <v>61</v>
@@ -26906,7 +26913,7 @@
         <v>123</v>
       </c>
       <c r="S287" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="T287" t="s">
         <v>37</v>
@@ -26938,7 +26945,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B288" t="n">
         <v>3</v>
@@ -26966,7 +26973,7 @@
         <v>0.7</v>
       </c>
       <c r="K288" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L288" t="s">
         <v>34</v>
@@ -26990,7 +26997,7 @@
         <v>129</v>
       </c>
       <c r="S288" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="T288" t="s">
         <v>37</v>
@@ -27022,7 +27029,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B289" t="n">
         <v>6</v>
@@ -27050,7 +27057,7 @@
         <v>0.7</v>
       </c>
       <c r="K289" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L289" t="s">
         <v>61</v>
@@ -27074,7 +27081,7 @@
         <v>151</v>
       </c>
       <c r="S289" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T289" t="s">
         <v>37</v>
@@ -27106,7 +27113,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B290" t="n">
         <v>5</v>
@@ -27158,7 +27165,7 @@
         <v>182</v>
       </c>
       <c r="S290" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T290" t="s">
         <v>37</v>
@@ -27190,7 +27197,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B291" t="n">
         <v>6</v>
@@ -27218,7 +27225,7 @@
         <v>0.8</v>
       </c>
       <c r="K291" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L291" t="s">
         <v>34</v>
@@ -27242,7 +27249,7 @@
         <v>159</v>
       </c>
       <c r="S291" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T291" t="s">
         <v>37</v>
@@ -27259,7 +27266,7 @@
         <v>37</v>
       </c>
       <c r="Z291" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA291" t="s">
         <v>39</v>
@@ -27276,7 +27283,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B292" t="n">
         <v>3</v>
@@ -27304,7 +27311,7 @@
         <v>0.8</v>
       </c>
       <c r="K292" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L292" t="s">
         <v>61</v>
@@ -27328,7 +27335,7 @@
         <v>179</v>
       </c>
       <c r="S292" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T292" t="s">
         <v>37</v>
@@ -27360,7 +27367,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -27388,7 +27395,7 @@
         <v>0.4</v>
       </c>
       <c r="K293" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L293" t="s">
         <v>61</v>
@@ -27412,7 +27419,7 @@
         <v>114</v>
       </c>
       <c r="S293" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T293" t="s">
         <v>37</v>
@@ -27444,7 +27451,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -27490,7 +27497,7 @@
         <v>180</v>
       </c>
       <c r="S294" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T294" t="s">
         <v>37</v>
@@ -27522,7 +27529,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B295" t="n">
         <v>4</v>
@@ -27550,7 +27557,7 @@
         <v>0.9</v>
       </c>
       <c r="K295" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L295" t="s">
         <v>61</v>
@@ -27565,7 +27572,7 @@
         <v>35</v>
       </c>
       <c r="P295" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q295" t="n">
         <v>146</v>
@@ -27574,7 +27581,7 @@
         <v>161</v>
       </c>
       <c r="S295" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T295" t="s">
         <v>37</v>
@@ -27606,7 +27613,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -27658,7 +27665,7 @@
         <v>187</v>
       </c>
       <c r="S296" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T296" t="s">
         <v>37</v>
@@ -27690,7 +27697,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -27718,7 +27725,7 @@
         <v>1</v>
       </c>
       <c r="K297" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L297" t="s">
         <v>34</v>
@@ -27742,7 +27749,7 @@
         <v>233</v>
       </c>
       <c r="S297" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T297" t="s">
         <v>37</v>
@@ -27774,7 +27781,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -27786,7 +27793,7 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F298"/>
       <c r="G298" t="n">
@@ -27802,7 +27809,7 @@
         <v>0.9</v>
       </c>
       <c r="K298" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L298" t="s">
         <v>61</v>
@@ -27817,7 +27824,7 @@
         <v>35</v>
       </c>
       <c r="P298" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Q298" t="n">
         <v>146</v>
@@ -27826,7 +27833,7 @@
         <v>167</v>
       </c>
       <c r="S298" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T298" t="s">
         <v>37</v>
@@ -27860,7 +27867,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -27888,7 +27895,7 @@
         <v>1</v>
       </c>
       <c r="K299" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L299" t="s">
         <v>34</v>
@@ -27912,7 +27919,7 @@
         <v>177</v>
       </c>
       <c r="S299" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T299" t="s">
         <v>37</v>
@@ -27944,7 +27951,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B300" t="n">
         <v>4</v>
@@ -27972,7 +27979,7 @@
         <v>0.5</v>
       </c>
       <c r="K300" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L300" t="s">
         <v>61</v>
@@ -27996,7 +28003,7 @@
         <v>106</v>
       </c>
       <c r="S300" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T300" t="s">
         <v>37</v>
@@ -28028,7 +28035,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B301" t="n">
         <v>4</v>
@@ -28056,7 +28063,7 @@
         <v>1.1</v>
       </c>
       <c r="K301" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L301" t="s">
         <v>61</v>
@@ -28080,7 +28087,7 @@
         <v>240</v>
       </c>
       <c r="S301" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T301" t="s">
         <v>37</v>
@@ -28112,7 +28119,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B302" t="n">
         <v>3</v>
@@ -28140,7 +28147,7 @@
         <v>0.5</v>
       </c>
       <c r="K302" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L302" t="s">
         <v>61</v>
@@ -28164,7 +28171,7 @@
         <v>143</v>
       </c>
       <c r="S302" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T302" t="s">
         <v>37</v>
@@ -28196,7 +28203,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B303" t="n">
         <v>3</v>
@@ -28224,7 +28231,7 @@
         <v>0.9</v>
       </c>
       <c r="K303" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L303" t="s">
         <v>61</v>
@@ -28239,7 +28246,7 @@
         <v>35</v>
       </c>
       <c r="P303" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q303" t="n">
         <v>141</v>
@@ -28248,7 +28255,7 @@
         <v>166</v>
       </c>
       <c r="S303" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="T303" t="s">
         <v>37</v>
@@ -28265,7 +28272,7 @@
         <v>37</v>
       </c>
       <c r="Z303" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AA303" t="s">
         <v>39</v>
@@ -28282,7 +28289,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B304" t="n">
         <v>4</v>
@@ -28310,7 +28317,7 @@
         <v>0.2</v>
       </c>
       <c r="K304" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L304" t="s">
         <v>61</v>
@@ -28334,7 +28341,7 @@
         <v>123</v>
       </c>
       <c r="S304" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="T304" t="s">
         <v>37</v>
@@ -28351,7 +28358,7 @@
         <v>37</v>
       </c>
       <c r="Z304" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AA304" t="s">
         <v>39</v>
@@ -28368,7 +28375,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -28405,7 +28412,7 @@
         <v>35</v>
       </c>
       <c r="P305" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q305" t="n">
         <v>205</v>
@@ -28414,7 +28421,7 @@
         <v>236</v>
       </c>
       <c r="S305" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="T305" t="s">
         <v>37</v>
@@ -28446,7 +28453,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -28492,7 +28499,7 @@
         <v>267</v>
       </c>
       <c r="S306" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T306" t="s">
         <v>37</v>
@@ -28524,7 +28531,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B307" t="n">
         <v>6</v>
@@ -28552,7 +28559,7 @@
         <v>0.8</v>
       </c>
       <c r="K307" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L307" t="s">
         <v>61</v>
@@ -28576,7 +28583,7 @@
         <v>150</v>
       </c>
       <c r="S307" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="T307" t="s">
         <v>37</v>
@@ -28608,7 +28615,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -28636,7 +28643,7 @@
         <v>0.7</v>
       </c>
       <c r="K308" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L308" t="s">
         <v>61</v>
@@ -28660,7 +28667,7 @@
         <v>159</v>
       </c>
       <c r="S308" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T308" t="s">
         <v>37</v>
@@ -28692,7 +28699,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B309" t="n">
         <v>4</v>
@@ -28720,7 +28727,7 @@
         <v>0.3</v>
       </c>
       <c r="K309" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L309" t="s">
         <v>61</v>
@@ -28744,7 +28751,7 @@
         <v>141</v>
       </c>
       <c r="S309" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T309" t="s">
         <v>37</v>
@@ -28761,7 +28768,7 @@
         <v>37</v>
       </c>
       <c r="Z309" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA309" t="s">
         <v>39</v>
@@ -28778,7 +28785,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -28824,7 +28831,7 @@
         <v>325</v>
       </c>
       <c r="S310" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T310" t="s">
         <v>37</v>
@@ -28856,7 +28863,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -28884,7 +28891,7 @@
         <v>0.5</v>
       </c>
       <c r="K311" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L311" t="s">
         <v>61</v>
@@ -28908,7 +28915,7 @@
         <v>120</v>
       </c>
       <c r="S311" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T311" t="s">
         <v>37</v>
@@ -28925,7 +28932,7 @@
         <v>37</v>
       </c>
       <c r="Z311" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA311" t="s">
         <v>39</v>
@@ -28942,7 +28949,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B312" t="n">
         <v>3</v>
@@ -28970,7 +28977,7 @@
         <v>0.2</v>
       </c>
       <c r="K312" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L312" t="s">
         <v>61</v>
@@ -28994,7 +29001,7 @@
         <v>124</v>
       </c>
       <c r="S312" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T312" t="s">
         <v>37</v>
@@ -29011,7 +29018,7 @@
         <v>50</v>
       </c>
       <c r="Z312" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AA312" t="s">
         <v>39</v>
@@ -29028,7 +29035,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -29056,7 +29063,7 @@
         <v>0.7</v>
       </c>
       <c r="K313" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L313" t="s">
         <v>34</v>
@@ -29080,7 +29087,7 @@
         <v>141</v>
       </c>
       <c r="S313" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T313" t="s">
         <v>37</v>
@@ -29112,7 +29119,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -29158,7 +29165,7 @@
         <v>409</v>
       </c>
       <c r="S314" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="T314" t="s">
         <v>50</v>
@@ -29194,7 +29201,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B315" t="n">
         <v>5</v>
@@ -29222,7 +29229,7 @@
         <v>0.2</v>
       </c>
       <c r="K315" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L315" t="s">
         <v>61</v>
@@ -29246,7 +29253,7 @@
         <v>147</v>
       </c>
       <c r="S315" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T315" t="s">
         <v>50</v>
@@ -29265,7 +29272,7 @@
         <v>37</v>
       </c>
       <c r="Z315" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AA315" t="s">
         <v>39</v>
@@ -29282,7 +29289,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -29310,7 +29317,7 @@
         <v>0.3</v>
       </c>
       <c r="K316" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L316" t="s">
         <v>34</v>
@@ -29334,7 +29341,7 @@
         <v>124</v>
       </c>
       <c r="S316" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="T316" t="s">
         <v>37</v>
@@ -29351,7 +29358,7 @@
         <v>37</v>
       </c>
       <c r="Z316" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA316" t="s">
         <v>39</v>
@@ -29368,7 +29375,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -29414,7 +29421,7 @@
         <v>285</v>
       </c>
       <c r="S317" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="T317" t="s">
         <v>37</v>
@@ -29446,7 +29453,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -29474,7 +29481,7 @@
         <v>0.9</v>
       </c>
       <c r="K318" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L318" t="s">
         <v>34</v>
@@ -29498,7 +29505,7 @@
         <v>197</v>
       </c>
       <c r="S318" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T318" t="s">
         <v>37</v>
@@ -29530,7 +29537,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B319" t="n">
         <v>3</v>
@@ -29558,7 +29565,7 @@
         <v>1.5</v>
       </c>
       <c r="K319" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L319" t="s">
         <v>61</v>
@@ -29582,7 +29589,7 @@
         <v>263</v>
       </c>
       <c r="S319" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="T319" t="s">
         <v>37</v>
@@ -29614,7 +29621,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B320" t="n">
         <v>4</v>
@@ -29642,7 +29649,7 @@
         <v>0.8</v>
       </c>
       <c r="K320" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L320" t="s">
         <v>61</v>
@@ -29666,7 +29673,7 @@
         <v>186</v>
       </c>
       <c r="S320" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T320" t="s">
         <v>37</v>
@@ -29698,7 +29705,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B321" t="n">
         <v>3</v>
@@ -29726,7 +29733,7 @@
         <v>1</v>
       </c>
       <c r="K321" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L321" t="s">
         <v>34</v>
@@ -29750,7 +29757,7 @@
         <v>209</v>
       </c>
       <c r="S321" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T321" t="s">
         <v>37</v>
@@ -29782,7 +29789,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -29810,7 +29817,7 @@
         <v>0.5</v>
       </c>
       <c r="K322" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L322" t="s">
         <v>34</v>
@@ -29834,7 +29841,7 @@
         <v>179</v>
       </c>
       <c r="S322" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="T322" t="s">
         <v>37</v>
@@ -29866,7 +29873,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B323" t="n">
         <v>3</v>
@@ -29912,7 +29919,7 @@
         <v>239</v>
       </c>
       <c r="S323" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T323" t="s">
         <v>50</v>
@@ -29931,7 +29938,7 @@
         <v>37</v>
       </c>
       <c r="Z323" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AA323" t="s">
         <v>45</v>
@@ -29948,7 +29955,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -29976,7 +29983,7 @@
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L324" t="s">
         <v>61</v>
@@ -30000,7 +30007,7 @@
         <v>163</v>
       </c>
       <c r="S324" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T324" t="s">
         <v>37</v>
@@ -30032,7 +30039,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B325" t="n">
         <v>4</v>
@@ -30060,7 +30067,7 @@
         <v>1</v>
       </c>
       <c r="K325" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L325" t="s">
         <v>61</v>
@@ -30084,7 +30091,7 @@
         <v>205</v>
       </c>
       <c r="S325" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="T325" t="s">
         <v>37</v>
@@ -30116,7 +30123,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B326" t="n">
         <v>3</v>
@@ -30144,7 +30151,7 @@
         <v>1.3</v>
       </c>
       <c r="K326" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L326" t="s">
         <v>61</v>
@@ -30168,7 +30175,7 @@
         <v>223</v>
       </c>
       <c r="S326" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="T326" t="s">
         <v>37</v>
@@ -30202,7 +30209,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B327" t="n">
         <v>3</v>
@@ -30230,7 +30237,7 @@
         <v>0.9</v>
       </c>
       <c r="K327" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L327" t="s">
         <v>61</v>
@@ -30254,7 +30261,7 @@
         <v>184</v>
       </c>
       <c r="S327" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="T327" t="s">
         <v>37</v>
@@ -30286,7 +30293,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B328" t="n">
         <v>3</v>
@@ -30314,7 +30321,7 @@
         <v>0.4</v>
       </c>
       <c r="K328" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L328" t="s">
         <v>61</v>
@@ -30338,7 +30345,7 @@
         <v>175</v>
       </c>
       <c r="S328" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T328" t="s">
         <v>37</v>
@@ -30355,7 +30362,7 @@
         <v>37</v>
       </c>
       <c r="Z328" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA328" t="s">
         <v>39</v>
@@ -30372,7 +30379,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -30400,7 +30407,7 @@
         <v>0.2</v>
       </c>
       <c r="K329" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L329" t="s">
         <v>34</v>
@@ -30424,7 +30431,7 @@
         <v>125</v>
       </c>
       <c r="S329" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T329" t="s">
         <v>50</v>
@@ -30443,7 +30450,7 @@
         <v>37</v>
       </c>
       <c r="Z329" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AA329" t="s">
         <v>39</v>
@@ -30460,7 +30467,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B330" t="n">
         <v>3</v>
@@ -30488,7 +30495,7 @@
         <v>0.6</v>
       </c>
       <c r="K330" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L330" t="s">
         <v>34</v>
@@ -30512,7 +30519,7 @@
         <v>128</v>
       </c>
       <c r="S330" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="T330" t="s">
         <v>37</v>
@@ -30544,7 +30551,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B331" t="n">
         <v>3</v>
@@ -30572,7 +30579,7 @@
         <v>0.8</v>
       </c>
       <c r="K331" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L331" t="s">
         <v>61</v>
@@ -30596,7 +30603,7 @@
         <v>176</v>
       </c>
       <c r="S331" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="T331" t="s">
         <v>37</v>
@@ -30628,7 +30635,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B332" t="n">
         <v>4</v>
@@ -30656,7 +30663,7 @@
         <v>0.9</v>
       </c>
       <c r="K332" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L332" t="s">
         <v>61</v>
@@ -30680,7 +30687,7 @@
         <v>180</v>
       </c>
       <c r="S332" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="T332" t="s">
         <v>37</v>
@@ -30712,7 +30719,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -30740,7 +30747,7 @@
         <v>0.7</v>
       </c>
       <c r="K333" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L333" t="s">
         <v>34</v>
@@ -30762,7 +30769,7 @@
         <v>129</v>
       </c>
       <c r="S333" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="T333" t="s">
         <v>37</v>
@@ -30794,7 +30801,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -30840,7 +30847,7 @@
         <v>289</v>
       </c>
       <c r="S334" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T334" t="s">
         <v>37</v>
@@ -30872,7 +30879,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -30900,7 +30907,7 @@
         <v>1.2</v>
       </c>
       <c r="K335" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L335" t="s">
         <v>34</v>
@@ -30924,7 +30931,7 @@
         <v>243</v>
       </c>
       <c r="S335" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="T335" t="s">
         <v>37</v>
@@ -30956,7 +30963,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -30984,7 +30991,7 @@
         <v>0.4</v>
       </c>
       <c r="K336" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L336" t="s">
         <v>34</v>
@@ -31008,7 +31015,7 @@
         <v>147</v>
       </c>
       <c r="S336" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="T336" t="s">
         <v>50</v>
@@ -31027,7 +31034,7 @@
         <v>37</v>
       </c>
       <c r="Z336" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AA336" t="s">
         <v>39</v>
@@ -31044,7 +31051,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B337" t="n">
         <v>5</v>
@@ -31072,7 +31079,7 @@
         <v>1.3</v>
       </c>
       <c r="K337" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L337" t="s">
         <v>61</v>
@@ -31096,7 +31103,7 @@
         <v>223</v>
       </c>
       <c r="S337" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="T337" t="s">
         <v>37</v>
@@ -31128,7 +31135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B338" t="n">
         <v>4</v>
@@ -31156,7 +31163,7 @@
         <v>0.9</v>
       </c>
       <c r="K338" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L338" t="s">
         <v>61</v>
@@ -31180,7 +31187,7 @@
         <v>139</v>
       </c>
       <c r="S338" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="T338" t="s">
         <v>37</v>
@@ -31212,7 +31219,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B339" t="n">
         <v>4</v>
@@ -31240,7 +31247,7 @@
         <v>0.8</v>
       </c>
       <c r="K339" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L339" t="s">
         <v>61</v>
@@ -31264,7 +31271,7 @@
         <v>145</v>
       </c>
       <c r="S339" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="T339" t="s">
         <v>37</v>
@@ -31298,7 +31305,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -31344,7 +31351,7 @@
         <v>225</v>
       </c>
       <c r="S340" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="T340" t="s">
         <v>37</v>
@@ -31376,7 +31383,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B341" t="n">
         <v>4</v>
@@ -31404,7 +31411,7 @@
         <v>0.7</v>
       </c>
       <c r="K341" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L341" t="s">
         <v>61</v>
@@ -31428,7 +31435,7 @@
         <v>138</v>
       </c>
       <c r="S341" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="T341" t="s">
         <v>37</v>
@@ -31445,7 +31452,7 @@
         <v>37</v>
       </c>
       <c r="Z341" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA341" t="s">
         <v>39</v>
@@ -31462,7 +31469,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B342" t="n">
         <v>4</v>
@@ -31490,7 +31497,7 @@
         <v>0.5</v>
       </c>
       <c r="K342" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L342" t="s">
         <v>34</v>
@@ -31514,7 +31521,7 @@
         <v>151</v>
       </c>
       <c r="S342" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="T342" t="s">
         <v>37</v>
@@ -31531,7 +31538,7 @@
         <v>37</v>
       </c>
       <c r="Z342" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AA342" t="s">
         <v>39</v>
@@ -31548,7 +31555,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B343" t="n">
         <v>5</v>
@@ -31576,7 +31583,7 @@
         <v>0.9</v>
       </c>
       <c r="K343" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L343" t="s">
         <v>34</v>
@@ -31600,7 +31607,7 @@
         <v>165</v>
       </c>
       <c r="S343" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T343" t="s">
         <v>37</v>
@@ -31632,7 +31639,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B344" t="n">
         <v>4</v>
@@ -31660,7 +31667,7 @@
         <v>0.8</v>
       </c>
       <c r="K344" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L344" t="s">
         <v>61</v>
@@ -31684,7 +31691,7 @@
         <v>188</v>
       </c>
       <c r="S344" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="T344" t="s">
         <v>37</v>
@@ -31716,7 +31723,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -31744,7 +31751,7 @@
         <v>0.7</v>
       </c>
       <c r="K345" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L345" t="s">
         <v>61</v>
@@ -31768,7 +31775,7 @@
         <v>203</v>
       </c>
       <c r="S345" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="T345" t="s">
         <v>37</v>
@@ -31785,7 +31792,7 @@
         <v>37</v>
       </c>
       <c r="Z345" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AA345" t="s">
         <v>39</v>
@@ -31802,7 +31809,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -31814,7 +31821,7 @@
         <v>377</v>
       </c>
       <c r="E346" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F346"/>
       <c r="G346" t="n">
@@ -31848,7 +31855,7 @@
         <v>159</v>
       </c>
       <c r="S346" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T346" t="s">
         <v>37</v>
@@ -31882,7 +31889,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -31910,7 +31917,7 @@
         <v>1</v>
       </c>
       <c r="K347" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L347" t="s">
         <v>34</v>
@@ -31934,7 +31941,7 @@
         <v>167</v>
       </c>
       <c r="S347" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="T347" t="s">
         <v>37</v>
@@ -31966,7 +31973,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -32012,7 +32019,7 @@
         <v>299</v>
       </c>
       <c r="S348" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="T348" t="s">
         <v>37</v>
@@ -32046,7 +32053,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -32074,7 +32081,7 @@
         <v>1</v>
       </c>
       <c r="K349" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L349" t="s">
         <v>61</v>
@@ -32098,7 +32105,7 @@
         <v>186</v>
       </c>
       <c r="S349" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="T349" t="s">
         <v>37</v>
@@ -32130,7 +32137,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -32158,7 +32165,7 @@
         <v>0.8</v>
       </c>
       <c r="K350" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L350" t="s">
         <v>61</v>
@@ -32182,7 +32189,7 @@
         <v>173</v>
       </c>
       <c r="S350" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="T350" t="s">
         <v>37</v>
@@ -32214,7 +32221,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -32242,7 +32249,7 @@
         <v>0.8</v>
       </c>
       <c r="K351" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L351" t="s">
         <v>61</v>
@@ -32266,7 +32273,7 @@
         <v>246</v>
       </c>
       <c r="S351" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T351" t="s">
         <v>37</v>
@@ -32298,7 +32305,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B352" t="n">
         <v>3</v>
@@ -32326,7 +32333,7 @@
         <v>0.8</v>
       </c>
       <c r="K352" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L352" t="s">
         <v>61</v>
@@ -32350,7 +32357,7 @@
         <v>163</v>
       </c>
       <c r="S352" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="T352" t="s">
         <v>37</v>
@@ -32382,7 +32389,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B353" t="n">
         <v>4</v>
@@ -32410,7 +32417,7 @@
         <v>1</v>
       </c>
       <c r="K353" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L353" t="s">
         <v>61</v>
@@ -32434,7 +32441,7 @@
         <v>196</v>
       </c>
       <c r="S353" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="T353" t="s">
         <v>37</v>
@@ -32466,7 +32473,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B354" t="n">
         <v>4</v>
@@ -32494,7 +32501,7 @@
         <v>1</v>
       </c>
       <c r="K354" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L354" t="s">
         <v>34</v>
@@ -32518,7 +32525,7 @@
         <v>165</v>
       </c>
       <c r="S354" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="T354" t="s">
         <v>37</v>
@@ -32535,7 +32542,7 @@
         <v>37</v>
       </c>
       <c r="Z354" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA354" t="s">
         <v>39</v>
@@ -32552,7 +32559,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B355" t="n">
         <v>5</v>
@@ -32580,7 +32587,7 @@
         <v>0.6</v>
       </c>
       <c r="K355" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L355" t="s">
         <v>34</v>
@@ -32604,7 +32611,7 @@
         <v>160</v>
       </c>
       <c r="S355" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="T355" t="s">
         <v>37</v>
@@ -32636,7 +32643,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -32673,7 +32680,7 @@
         <v>35</v>
       </c>
       <c r="P356" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q356" t="n">
         <v>149</v>
@@ -32682,7 +32689,7 @@
         <v>167</v>
       </c>
       <c r="S356" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="T356" t="s">
         <v>37</v>
@@ -32716,7 +32723,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -32744,7 +32751,7 @@
         <v>1.2</v>
       </c>
       <c r="K357" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L357" t="s">
         <v>61</v>
@@ -32768,7 +32775,7 @@
         <v>225</v>
       </c>
       <c r="S357" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="T357" t="s">
         <v>37</v>
@@ -32800,7 +32807,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B358" t="n">
         <v>5</v>
@@ -32828,7 +32835,7 @@
         <v>0.8</v>
       </c>
       <c r="K358" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L358" t="s">
         <v>61</v>
@@ -32852,7 +32859,7 @@
         <v>162</v>
       </c>
       <c r="S358" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="T358" t="s">
         <v>37</v>
@@ -32884,7 +32891,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -32912,7 +32919,7 @@
         <v>1.3</v>
       </c>
       <c r="K359" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L359" t="s">
         <v>61</v>
@@ -32936,7 +32943,7 @@
         <v>247</v>
       </c>
       <c r="S359" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T359" t="s">
         <v>37</v>
@@ -32968,7 +32975,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -33014,7 +33021,7 @@
         <v>227</v>
       </c>
       <c r="S360" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="T360" t="s">
         <v>37</v>
@@ -33046,7 +33053,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B361" t="n">
         <v>6</v>
@@ -33074,7 +33081,7 @@
         <v>0.7</v>
       </c>
       <c r="K361" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L361" t="s">
         <v>61</v>
@@ -33098,7 +33105,7 @@
         <v>146</v>
       </c>
       <c r="S361" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="T361" t="s">
         <v>37</v>
@@ -33130,7 +33137,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B362" t="n">
         <v>6</v>
@@ -33158,7 +33165,7 @@
         <v>1.1</v>
       </c>
       <c r="K362" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L362" t="s">
         <v>61</v>
@@ -33182,7 +33189,7 @@
         <v>225</v>
       </c>
       <c r="S362" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="T362" t="s">
         <v>37</v>
@@ -33214,7 +33221,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -33242,7 +33249,7 @@
         <v>1.1</v>
       </c>
       <c r="K363" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L363" t="s">
         <v>34</v>
@@ -33266,7 +33273,7 @@
         <v>176</v>
       </c>
       <c r="S363" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="T363" t="s">
         <v>37</v>
@@ -33298,7 +33305,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B364" t="n">
         <v>5</v>
@@ -33326,7 +33333,7 @@
         <v>1.3</v>
       </c>
       <c r="K364" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L364" t="s">
         <v>61</v>
@@ -33350,7 +33357,7 @@
         <v>223</v>
       </c>
       <c r="S364" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="T364" t="s">
         <v>37</v>
@@ -33367,7 +33374,7 @@
         <v>37</v>
       </c>
       <c r="Z364" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AA364" t="s">
         <v>39</v>
@@ -33384,7 +33391,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -33412,7 +33419,7 @@
         <v>0.8</v>
       </c>
       <c r="K365" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L365" t="s">
         <v>61</v>
@@ -33436,7 +33443,7 @@
         <v>265</v>
       </c>
       <c r="S365" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="T365" t="s">
         <v>37</v>
@@ -33468,7 +33475,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -33496,7 +33503,7 @@
         <v>0.9</v>
       </c>
       <c r="K366" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L366" t="s">
         <v>61</v>
@@ -33520,7 +33527,7 @@
         <v>228</v>
       </c>
       <c r="S366" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="T366" t="s">
         <v>37</v>
@@ -33552,7 +33559,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B367" t="n">
         <v>5</v>
@@ -33580,7 +33587,7 @@
         <v>0.9</v>
       </c>
       <c r="K367" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L367" t="s">
         <v>61</v>
@@ -33604,7 +33611,7 @@
         <v>172</v>
       </c>
       <c r="S367" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="T367" t="s">
         <v>37</v>
@@ -33636,7 +33643,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -33673,7 +33680,7 @@
         <v>35</v>
       </c>
       <c r="P368" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="Q368" t="n">
         <v>259</v>
@@ -33682,7 +33689,7 @@
         <v>295</v>
       </c>
       <c r="S368" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T368" t="s">
         <v>37</v>
@@ -33714,7 +33721,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -33742,7 +33749,7 @@
         <v>1</v>
       </c>
       <c r="K369" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L369"/>
       <c r="M369"/>
@@ -33762,7 +33769,7 @@
         <v>169</v>
       </c>
       <c r="S369" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="T369" t="s">
         <v>37</v>
@@ -33779,7 +33786,7 @@
         <v>37</v>
       </c>
       <c r="Z369" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AA369" t="s">
         <v>39</v>
@@ -33796,7 +33803,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -33842,7 +33849,7 @@
         <v>245</v>
       </c>
       <c r="S370" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="T370" t="s">
         <v>37</v>
@@ -33874,7 +33881,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -33886,7 +33893,7 @@
         <v>38</v>
       </c>
       <c r="E371" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F371"/>
       <c r="G371" t="n">
@@ -33902,7 +33909,7 @@
         <v>1.5</v>
       </c>
       <c r="K371" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L371"/>
       <c r="M371"/>
@@ -33913,7 +33920,7 @@
         <v>35</v>
       </c>
       <c r="P371" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q371" t="n">
         <v>208</v>
@@ -33922,7 +33929,7 @@
         <v>228</v>
       </c>
       <c r="S371" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="T371" t="s">
         <v>37</v>
@@ -33954,7 +33961,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B372" t="n">
         <v>4</v>
@@ -33982,7 +33989,7 @@
         <v>1.5</v>
       </c>
       <c r="K372" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L372" t="s">
         <v>61</v>
@@ -34006,7 +34013,7 @@
         <v>320</v>
       </c>
       <c r="S372" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="T372" t="s">
         <v>37</v>
@@ -34038,7 +34045,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -34066,7 +34073,7 @@
         <v>0.5</v>
       </c>
       <c r="K373" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L373" t="s">
         <v>61</v>
@@ -34090,7 +34097,7 @@
         <v>141</v>
       </c>
       <c r="S373" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T373" t="s">
         <v>37</v>
@@ -34122,7 +34129,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B374" t="n">
         <v>5</v>
@@ -34150,7 +34157,7 @@
         <v>1.8</v>
       </c>
       <c r="K374" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L374" t="s">
         <v>61</v>
@@ -34174,7 +34181,7 @@
         <v>304</v>
       </c>
       <c r="S374" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T374" t="s">
         <v>37</v>
@@ -34206,7 +34213,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B375" t="n">
         <v>3</v>
@@ -34234,7 +34241,7 @@
         <v>0.7</v>
       </c>
       <c r="K375" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L375" t="s">
         <v>34</v>
@@ -34258,7 +34265,7 @@
         <v>142</v>
       </c>
       <c r="S375" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T375" t="s">
         <v>37</v>
@@ -34290,7 +34297,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B376" t="n">
         <v>3</v>
@@ -34318,7 +34325,7 @@
         <v>0.2</v>
       </c>
       <c r="K376" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L376" t="s">
         <v>61</v>
@@ -34342,7 +34349,7 @@
         <v>172</v>
       </c>
       <c r="S376" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="T376" t="s">
         <v>37</v>
@@ -34374,7 +34381,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -34386,7 +34393,7 @@
         <v>2</v>
       </c>
       <c r="E377" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F377" t="n">
         <v>10000000</v>
@@ -34402,7 +34409,7 @@
         <v>0.9</v>
       </c>
       <c r="K377" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L377" t="s">
         <v>34</v>
@@ -34426,7 +34433,7 @@
         <v>150</v>
       </c>
       <c r="S377" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="T377" t="s">
         <v>37</v>
@@ -34458,7 +34465,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -34486,7 +34493,7 @@
         <v>1.1</v>
       </c>
       <c r="K378" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L378" t="s">
         <v>61</v>
@@ -34510,7 +34517,7 @@
         <v>207</v>
       </c>
       <c r="S378" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="T378" t="s">
         <v>37</v>
@@ -34542,7 +34549,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -34570,7 +34577,7 @@
         <v>0.8</v>
       </c>
       <c r="K379" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L379" t="s">
         <v>34</v>
@@ -34594,7 +34601,7 @@
         <v>144</v>
       </c>
       <c r="S379" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="T379" t="s">
         <v>37</v>
@@ -34611,7 +34618,7 @@
         <v>37</v>
       </c>
       <c r="Z379" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AA379" t="s">
         <v>39</v>
@@ -34628,7 +34635,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -34674,7 +34681,7 @@
         <v>277</v>
       </c>
       <c r="S380" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="T380" t="s">
         <v>37</v>
@@ -34706,7 +34713,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B381" t="n">
         <v>4</v>
@@ -34734,7 +34741,7 @@
         <v>0.8</v>
       </c>
       <c r="K381" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L381" t="s">
         <v>34</v>
@@ -34758,7 +34765,7 @@
         <v>168</v>
       </c>
       <c r="S381" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="T381" t="s">
         <v>37</v>
@@ -34790,7 +34797,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B382" t="n">
         <v>4</v>
@@ -34818,7 +34825,7 @@
         <v>1.3</v>
       </c>
       <c r="K382" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L382" t="s">
         <v>34</v>
@@ -34842,7 +34849,7 @@
         <v>242</v>
       </c>
       <c r="S382" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="T382" t="s">
         <v>37</v>
@@ -34876,7 +34883,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B383" t="n">
         <v>5</v>
@@ -34928,7 +34935,7 @@
         <v>154</v>
       </c>
       <c r="S383" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="T383" t="s">
         <v>37</v>
@@ -34960,7 +34967,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B384" t="n">
         <v>6</v>
@@ -35012,7 +35019,7 @@
         <v>168</v>
       </c>
       <c r="S384" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="T384" t="s">
         <v>37</v>
@@ -35029,7 +35036,7 @@
         <v>37</v>
       </c>
       <c r="Z384" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AA384" t="s">
         <v>39</v>
@@ -35046,7 +35053,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -35074,7 +35081,7 @@
         <v>0.9</v>
       </c>
       <c r="K385" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L385" t="s">
         <v>61</v>
@@ -35098,7 +35105,7 @@
         <v>258</v>
       </c>
       <c r="S385" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="T385" t="s">
         <v>37</v>
@@ -35130,7 +35137,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -35176,7 +35183,7 @@
         <v>256</v>
       </c>
       <c r="S386" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="T386" t="s">
         <v>37</v>
@@ -35208,7 +35215,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -35260,7 +35267,7 @@
         <v>141</v>
       </c>
       <c r="S387" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="T387" t="s">
         <v>37</v>
@@ -35292,7 +35299,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -35304,7 +35311,7 @@
         <v>8</v>
       </c>
       <c r="E388" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F388" t="n">
         <v>5550000</v>
@@ -35320,7 +35327,7 @@
         <v>1.2</v>
       </c>
       <c r="K388" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L388" t="s">
         <v>34</v>
@@ -35344,7 +35351,7 @@
         <v>223</v>
       </c>
       <c r="S388" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="T388" t="s">
         <v>37</v>
@@ -35376,7 +35383,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -35404,7 +35411,7 @@
         <v>0.7</v>
       </c>
       <c r="K389" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L389"/>
       <c r="M389"/>
@@ -35424,7 +35431,7 @@
         <v>170</v>
       </c>
       <c r="S389" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="T389" t="s">
         <v>37</v>
@@ -35441,7 +35448,7 @@
         <v>37</v>
       </c>
       <c r="Z389" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AA389" t="s">
         <v>39</v>
@@ -35458,7 +35465,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B390" t="n">
         <v>3</v>
@@ -35510,7 +35517,7 @@
         <v>135</v>
       </c>
       <c r="S390" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T390" t="s">
         <v>37</v>
@@ -35542,7 +35549,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -35554,7 +35561,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F391" t="n">
         <v>19108800</v>
@@ -35570,7 +35577,7 @@
         <v>1.1</v>
       </c>
       <c r="K391" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L391" t="s">
         <v>34</v>
@@ -35585,7 +35592,7 @@
         <v>35</v>
       </c>
       <c r="P391" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q391" t="n">
         <v>167</v>
@@ -35594,7 +35601,7 @@
         <v>202</v>
       </c>
       <c r="S391" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="T391" t="s">
         <v>37</v>
@@ -35626,7 +35633,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B392" t="n">
         <v>4</v>
@@ -35663,7 +35670,7 @@
         <v>99.1619184599215</v>
       </c>
       <c r="N392" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O392" t="s">
         <v>35</v>
@@ -35678,7 +35685,7 @@
         <v>145</v>
       </c>
       <c r="S392" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="T392" t="s">
         <v>37</v>
@@ -35710,7 +35717,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B393" t="n">
         <v>3</v>
@@ -35762,7 +35769,7 @@
         <v>163</v>
       </c>
       <c r="S393" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="T393" t="s">
         <v>37</v>
@@ -35779,7 +35786,7 @@
         <v>37</v>
       </c>
       <c r="Z393" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AA393" t="s">
         <v>39</v>
@@ -35796,7 +35803,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -35808,7 +35815,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F394" t="n">
         <v>1860000</v>
@@ -35824,7 +35831,7 @@
         <v>1.1</v>
       </c>
       <c r="K394" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L394" t="s">
         <v>34</v>
@@ -35839,7 +35846,7 @@
         <v>35</v>
       </c>
       <c r="P394" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q394" t="n">
         <v>177</v>
@@ -35848,7 +35855,7 @@
         <v>210</v>
       </c>
       <c r="S394" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="T394" t="s">
         <v>37</v>
@@ -35880,7 +35887,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -35892,7 +35899,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F395"/>
       <c r="G395" t="n">
@@ -35908,7 +35915,7 @@
         <v>1.1</v>
       </c>
       <c r="K395" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L395" t="s">
         <v>34</v>
@@ -35923,7 +35930,7 @@
         <v>35</v>
       </c>
       <c r="P395" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Q395" t="n">
         <v>157</v>
@@ -35932,7 +35939,7 @@
         <v>188</v>
       </c>
       <c r="S395" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="T395" t="s">
         <v>37</v>
@@ -35964,7 +35971,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -35992,7 +35999,7 @@
         <v>1</v>
       </c>
       <c r="K396" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L396" t="s">
         <v>34</v>
@@ -36016,7 +36023,7 @@
         <v>230</v>
       </c>
       <c r="S396" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="T396" t="s">
         <v>37</v>
@@ -36033,7 +36040,7 @@
         <v>37</v>
       </c>
       <c r="Z396" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AA396" t="s">
         <v>39</v>
@@ -36050,7 +36057,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -36062,7 +36069,7 @@
         <v>13</v>
       </c>
       <c r="E397" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F397"/>
       <c r="G397" t="n">
@@ -36078,7 +36085,7 @@
         <v>1</v>
       </c>
       <c r="K397" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L397" t="s">
         <v>34</v>
@@ -36093,7 +36100,7 @@
         <v>35</v>
       </c>
       <c r="P397" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q397" t="n">
         <v>152</v>
@@ -36102,7 +36109,7 @@
         <v>180</v>
       </c>
       <c r="S397" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="T397" t="s">
         <v>37</v>
@@ -36136,7 +36143,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -36164,7 +36171,7 @@
         <v>0.8</v>
       </c>
       <c r="K398" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L398"/>
       <c r="M398"/>
@@ -36184,7 +36191,7 @@
         <v>124</v>
       </c>
       <c r="S398" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="T398" t="s">
         <v>37</v>
@@ -36216,7 +36223,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -36244,7 +36251,7 @@
         <v>0.7</v>
       </c>
       <c r="K399" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L399"/>
       <c r="M399"/>
@@ -36264,7 +36271,7 @@
         <v>123</v>
       </c>
       <c r="S399" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="T399" t="s">
         <v>37</v>

--- a/inputs/tsi_seroconvertor_beehive.xlsx
+++ b/inputs/tsi_seroconvertor_beehive.xlsx
@@ -8334,7 +8334,7 @@
         <v>85</v>
       </c>
       <c r="N62" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O62" t="s">
         <v>35</v>
@@ -10732,7 +10732,7 @@
         <v>97</v>
       </c>
       <c r="N91" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O91" t="s">
         <v>35</v>
@@ -11302,7 +11302,7 @@
         <v>96.75</v>
       </c>
       <c r="N98" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O98" t="s">
         <v>35</v>

--- a/inputs/tsi_seroconvertor_beehive.xlsx
+++ b/inputs/tsi_seroconvertor_beehive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
   <si>
     <t xml:space="preserve">scount</t>
   </si>
@@ -1311,9 +1311,6 @@
   </si>
   <si>
     <t xml:space="preserve">20004_3_7_HIV09-02090_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uneven_gp41; uneven_pol</t>
   </si>
   <si>
     <t xml:space="preserve">09-02122</t>
@@ -12684,7 +12681,7 @@
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O115" t="s">
         <v>35</v>
@@ -12715,9 +12712,7 @@
       <c r="Y115" t="s">
         <v>37</v>
       </c>
-      <c r="Z115" t="s">
-        <v>264</v>
-      </c>
+      <c r="Z115"/>
       <c r="AA115" t="s">
         <v>45</v>
       </c>
@@ -13772,7 +13767,7 @@
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O128" t="s">
         <v>35</v>
@@ -13803,9 +13798,7 @@
       <c r="Y128" t="s">
         <v>37</v>
       </c>
-      <c r="Z128" t="s">
-        <v>264</v>
-      </c>
+      <c r="Z128"/>
       <c r="AA128" t="s">
         <v>45</v>
       </c>
@@ -16084,7 +16077,7 @@
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O156" t="s">
         <v>35</v>
@@ -16116,7 +16109,7 @@
         <v>37</v>
       </c>
       <c r="Z156" t="s">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="AA156" t="s">
         <v>45</v>
@@ -16133,7 +16126,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B157" t="n">
         <v>2</v>
@@ -16185,7 +16178,7 @@
         <v>144</v>
       </c>
       <c r="S157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T157" t="s">
         <v>37</v>
@@ -16217,7 +16210,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -16269,7 +16262,7 @@
         <v>259</v>
       </c>
       <c r="S158" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T158" t="s">
         <v>37</v>
@@ -16301,7 +16294,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
@@ -16353,7 +16346,7 @@
         <v>140</v>
       </c>
       <c r="S159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T159" t="s">
         <v>37</v>
@@ -16385,7 +16378,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -16431,7 +16424,7 @@
         <v>235</v>
       </c>
       <c r="S160" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T160" t="s">
         <v>37</v>
@@ -16465,7 +16458,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B161" t="n">
         <v>3</v>
@@ -16517,7 +16510,7 @@
         <v>188</v>
       </c>
       <c r="S161" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T161" t="s">
         <v>37</v>
@@ -16549,7 +16542,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -16577,7 +16570,7 @@
         <v>0.9</v>
       </c>
       <c r="K162" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L162" t="s">
         <v>34</v>
@@ -16601,7 +16594,7 @@
         <v>163</v>
       </c>
       <c r="S162" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T162" t="s">
         <v>37</v>
@@ -16633,7 +16626,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -16679,7 +16672,7 @@
         <v>201</v>
       </c>
       <c r="S163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T163" t="s">
         <v>37</v>
@@ -16696,7 +16689,7 @@
         <v>37</v>
       </c>
       <c r="Z163" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA163" t="s">
         <v>45</v>
@@ -16713,7 +16706,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B164" t="n">
         <v>2</v>
@@ -16759,7 +16752,7 @@
         <v>135</v>
       </c>
       <c r="S164" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T164" t="s">
         <v>37</v>
@@ -16776,7 +16769,7 @@
         <v>37</v>
       </c>
       <c r="Z164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AA164" t="s">
         <v>45</v>
@@ -16793,7 +16786,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B165" t="n">
         <v>2</v>
@@ -16845,7 +16838,7 @@
         <v>130</v>
       </c>
       <c r="S165" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T165" t="s">
         <v>37</v>
@@ -16877,7 +16870,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B166" t="n">
         <v>2</v>
@@ -16923,7 +16916,7 @@
         <v>323</v>
       </c>
       <c r="S166" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T166" t="s">
         <v>37</v>
@@ -16955,7 +16948,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B167" t="n">
         <v>2</v>
@@ -17001,7 +16994,7 @@
         <v>228</v>
       </c>
       <c r="S167" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T167" t="s">
         <v>50</v>
@@ -17020,7 +17013,7 @@
         <v>37</v>
       </c>
       <c r="Z167" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AA167" t="s">
         <v>45</v>
@@ -17037,7 +17030,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B168" t="n">
         <v>3</v>
@@ -17065,7 +17058,7 @@
         <v>0.7</v>
       </c>
       <c r="K168" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L168" t="s">
         <v>61</v>
@@ -17089,7 +17082,7 @@
         <v>152</v>
       </c>
       <c r="S168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="T168" t="s">
         <v>37</v>
@@ -17121,7 +17114,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -17149,7 +17142,7 @@
         <v>0.9</v>
       </c>
       <c r="K169" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L169" t="s">
         <v>61</v>
@@ -17173,7 +17166,7 @@
         <v>177</v>
       </c>
       <c r="S169" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T169" t="s">
         <v>37</v>
@@ -17205,7 +17198,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B170" t="n">
         <v>2</v>
@@ -17251,7 +17244,7 @@
         <v>115</v>
       </c>
       <c r="S170" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="T170" t="s">
         <v>50</v>
@@ -17270,7 +17263,7 @@
         <v>37</v>
       </c>
       <c r="Z170" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA170" t="s">
         <v>45</v>
@@ -17287,7 +17280,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B171" t="n">
         <v>5</v>
@@ -17315,7 +17308,7 @@
         <v>0.8</v>
       </c>
       <c r="K171" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L171" t="s">
         <v>61</v>
@@ -17339,7 +17332,7 @@
         <v>166</v>
       </c>
       <c r="S171" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T171" t="s">
         <v>37</v>
@@ -17354,7 +17347,7 @@
         <v>37</v>
       </c>
       <c r="Z171" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA171" t="s">
         <v>39</v>
@@ -17371,7 +17364,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B172" t="n">
         <v>2</v>
@@ -17423,7 +17416,7 @@
         <v>195</v>
       </c>
       <c r="S172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="T172" t="s">
         <v>37</v>
@@ -17455,7 +17448,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B173" t="n">
         <v>2</v>
@@ -17498,7 +17491,7 @@
         <v>35</v>
       </c>
       <c r="P173" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q173" t="n">
         <v>168</v>
@@ -17507,7 +17500,7 @@
         <v>187</v>
       </c>
       <c r="S173" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T173" t="s">
         <v>37</v>
@@ -17539,7 +17532,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B174" t="n">
         <v>2</v>
@@ -17570,7 +17563,7 @@
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O174" t="s">
         <v>35</v>
@@ -17585,7 +17578,7 @@
         <v>273</v>
       </c>
       <c r="S174" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T174" t="s">
         <v>37</v>
@@ -17617,7 +17610,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B175" t="n">
         <v>2</v>
@@ -17669,7 +17662,7 @@
         <v>132</v>
       </c>
       <c r="S175" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T175" t="s">
         <v>37</v>
@@ -17703,7 +17696,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B176" t="n">
         <v>2</v>
@@ -17715,7 +17708,7 @@
         <v>568</v>
       </c>
       <c r="E176" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="n">
@@ -17749,22 +17742,24 @@
         <v>160</v>
       </c>
       <c r="S176" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T176" t="s">
         <v>37</v>
       </c>
       <c r="U176"/>
       <c r="V176" t="s">
-        <v>37</v>
-      </c>
-      <c r="W176"/>
+        <v>50</v>
+      </c>
+      <c r="W176" t="s">
+        <v>331</v>
+      </c>
       <c r="X176"/>
       <c r="Y176" t="s">
         <v>37</v>
       </c>
       <c r="Z176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA176" t="s">
         <v>45</v>
@@ -17781,7 +17776,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B177" t="n">
         <v>2</v>
@@ -17827,7 +17822,7 @@
         <v>174</v>
       </c>
       <c r="S177" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T177" t="s">
         <v>37</v>
@@ -17859,7 +17854,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B178" t="n">
         <v>2</v>
@@ -17911,7 +17906,7 @@
         <v>210</v>
       </c>
       <c r="S178" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T178" t="s">
         <v>37</v>
@@ -17928,7 +17923,7 @@
         <v>37</v>
       </c>
       <c r="Z178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AA178" t="s">
         <v>39</v>
@@ -17945,7 +17940,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -17991,7 +17986,7 @@
         <v>273</v>
       </c>
       <c r="S179" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T179" t="s">
         <v>37</v>
@@ -18025,7 +18020,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -18053,7 +18048,7 @@
         <v>0.7</v>
       </c>
       <c r="K180" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L180" t="s">
         <v>61</v>
@@ -18077,7 +18072,7 @@
         <v>146</v>
       </c>
       <c r="S180" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T180" t="s">
         <v>37</v>
@@ -18109,7 +18104,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B181" t="n">
         <v>2</v>
@@ -18155,7 +18150,7 @@
         <v>217</v>
       </c>
       <c r="S181" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T181" t="s">
         <v>37</v>
@@ -18187,7 +18182,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B182" t="n">
         <v>4</v>
@@ -18215,7 +18210,7 @@
         <v>0.7</v>
       </c>
       <c r="K182" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L182" t="s">
         <v>61</v>
@@ -18239,7 +18234,7 @@
         <v>123</v>
       </c>
       <c r="S182" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T182" t="s">
         <v>37</v>
@@ -18271,7 +18266,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B183" t="n">
         <v>2</v>
@@ -18317,7 +18312,7 @@
         <v>176</v>
       </c>
       <c r="S183" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T183" t="s">
         <v>37</v>
@@ -18334,7 +18329,7 @@
         <v>37</v>
       </c>
       <c r="Z183" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AA183" t="s">
         <v>45</v>
@@ -18351,7 +18346,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B184" t="n">
         <v>2</v>
@@ -18403,7 +18398,7 @@
         <v>200</v>
       </c>
       <c r="S184" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T184" t="s">
         <v>37</v>
@@ -18435,7 +18430,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -18463,7 +18458,7 @@
         <v>0.6</v>
       </c>
       <c r="K185" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L185" t="s">
         <v>61</v>
@@ -18487,7 +18482,7 @@
         <v>105</v>
       </c>
       <c r="S185" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T185" t="s">
         <v>37</v>
@@ -18519,7 +18514,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B186" t="n">
         <v>3</v>
@@ -18547,7 +18542,7 @@
         <v>0.8</v>
       </c>
       <c r="K186" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L186"/>
       <c r="M186" t="n">
@@ -18569,7 +18564,7 @@
         <v>131</v>
       </c>
       <c r="S186" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T186" t="s">
         <v>37</v>
@@ -18603,7 +18598,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -18649,7 +18644,7 @@
         <v>232</v>
       </c>
       <c r="S187" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="T187" t="s">
         <v>50</v>
@@ -18666,7 +18661,7 @@
         <v>37</v>
       </c>
       <c r="Z187" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AA187" t="s">
         <v>45</v>
@@ -18683,7 +18678,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B188" t="n">
         <v>2</v>
@@ -18729,7 +18724,7 @@
         <v>295</v>
       </c>
       <c r="S188" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T188" t="s">
         <v>37</v>
@@ -18761,7 +18756,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B189" t="n">
         <v>5</v>
@@ -18789,7 +18784,7 @@
         <v>0.8</v>
       </c>
       <c r="K189" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L189" t="s">
         <v>61</v>
@@ -18813,7 +18808,7 @@
         <v>137</v>
       </c>
       <c r="S189" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="T189" t="s">
         <v>37</v>
@@ -18845,7 +18840,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B190" t="n">
         <v>4</v>
@@ -18873,7 +18868,7 @@
         <v>1.5</v>
       </c>
       <c r="K190" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L190" t="s">
         <v>61</v>
@@ -18897,7 +18892,7 @@
         <v>268</v>
       </c>
       <c r="S190" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T190" t="s">
         <v>37</v>
@@ -18929,7 +18924,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
@@ -18981,7 +18976,7 @@
         <v>231</v>
       </c>
       <c r="S191" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T191" t="s">
         <v>37</v>
@@ -19013,7 +19008,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B192" t="n">
         <v>3</v>
@@ -19041,7 +19036,7 @@
         <v>0.7</v>
       </c>
       <c r="K192" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L192" t="s">
         <v>61</v>
@@ -19065,7 +19060,7 @@
         <v>146</v>
       </c>
       <c r="S192" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T192" t="s">
         <v>37</v>
@@ -19097,7 +19092,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B193" t="n">
         <v>2</v>
@@ -19143,7 +19138,7 @@
         <v>263</v>
       </c>
       <c r="S193" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T193" t="s">
         <v>37</v>
@@ -19175,7 +19170,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B194" t="n">
         <v>5</v>
@@ -19203,7 +19198,7 @@
         <v>0.5</v>
       </c>
       <c r="K194" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L194" t="s">
         <v>61</v>
@@ -19227,7 +19222,7 @@
         <v>133</v>
       </c>
       <c r="S194" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T194" t="s">
         <v>37</v>
@@ -19259,7 +19254,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B195" t="n">
         <v>2</v>
@@ -19305,7 +19300,7 @@
         <v>272</v>
       </c>
       <c r="S195" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T195" t="s">
         <v>37</v>
@@ -19339,7 +19334,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B196" t="n">
         <v>2</v>
@@ -19367,7 +19362,7 @@
         <v>0.9</v>
       </c>
       <c r="K196" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L196" t="s">
         <v>61</v>
@@ -19391,7 +19386,7 @@
         <v>191</v>
       </c>
       <c r="S196" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T196" t="s">
         <v>37</v>
@@ -19423,7 +19418,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B197" t="n">
         <v>6</v>
@@ -19451,7 +19446,7 @@
         <v>0.7</v>
       </c>
       <c r="K197" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L197" t="s">
         <v>61</v>
@@ -19475,7 +19470,7 @@
         <v>122</v>
       </c>
       <c r="S197" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T197" t="s">
         <v>37</v>
@@ -19507,7 +19502,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B198" t="n">
         <v>2</v>
@@ -19553,7 +19548,7 @@
         <v>222</v>
       </c>
       <c r="S198" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T198" t="s">
         <v>37</v>
@@ -19585,7 +19580,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
@@ -19631,7 +19626,7 @@
         <v>227</v>
       </c>
       <c r="S199" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T199" t="s">
         <v>37</v>
@@ -19663,7 +19658,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B200" t="n">
         <v>3</v>
@@ -19691,7 +19686,7 @@
         <v>0.6</v>
       </c>
       <c r="K200" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L200" t="s">
         <v>61</v>
@@ -19715,7 +19710,7 @@
         <v>162</v>
       </c>
       <c r="S200" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T200" t="s">
         <v>37</v>
@@ -19749,7 +19744,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -19777,7 +19772,7 @@
         <v>1.5</v>
       </c>
       <c r="K201" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L201" t="s">
         <v>61</v>
@@ -19801,7 +19796,7 @@
         <v>346</v>
       </c>
       <c r="S201" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T201" t="s">
         <v>37</v>
@@ -19833,7 +19828,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -19879,7 +19874,7 @@
         <v>206</v>
       </c>
       <c r="S202" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T202" t="s">
         <v>50</v>
@@ -19898,7 +19893,7 @@
         <v>37</v>
       </c>
       <c r="Z202" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA202" t="s">
         <v>45</v>
@@ -19915,7 +19910,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B203" t="n">
         <v>3</v>
@@ -19943,7 +19938,7 @@
         <v>2.1</v>
       </c>
       <c r="K203" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L203" t="s">
         <v>61</v>
@@ -19967,7 +19962,7 @@
         <v>428</v>
       </c>
       <c r="S203" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T203" t="s">
         <v>37</v>
@@ -19999,7 +19994,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B204" t="n">
         <v>5</v>
@@ -20027,7 +20022,7 @@
         <v>0.7</v>
       </c>
       <c r="K204" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L204" t="s">
         <v>61</v>
@@ -20051,7 +20046,7 @@
         <v>146</v>
       </c>
       <c r="S204" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T204" t="s">
         <v>37</v>
@@ -20083,7 +20078,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -20129,7 +20124,7 @@
         <v>309</v>
       </c>
       <c r="S205" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T205" t="s">
         <v>37</v>
@@ -20161,7 +20156,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -20207,7 +20202,7 @@
         <v>296</v>
       </c>
       <c r="S206" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T206" t="s">
         <v>37</v>
@@ -20239,7 +20234,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -20291,7 +20286,7 @@
         <v>172</v>
       </c>
       <c r="S207" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T207" t="s">
         <v>37</v>
@@ -20323,7 +20318,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -20369,7 +20364,7 @@
         <v>232</v>
       </c>
       <c r="S208" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T208" t="s">
         <v>37</v>
@@ -20386,7 +20381,7 @@
         <v>37</v>
       </c>
       <c r="Z208" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AA208" t="s">
         <v>45</v>
@@ -20403,7 +20398,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -20455,7 +20450,7 @@
         <v>234</v>
       </c>
       <c r="S209" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T209" t="s">
         <v>37</v>
@@ -20489,7 +20484,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B210" t="n">
         <v>4</v>
@@ -20541,7 +20536,7 @@
         <v>271</v>
       </c>
       <c r="S210" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T210" t="s">
         <v>37</v>
@@ -20573,7 +20568,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B211" t="n">
         <v>4</v>
@@ -20601,7 +20596,7 @@
         <v>2.7</v>
       </c>
       <c r="K211" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L211" t="s">
         <v>61</v>
@@ -20625,7 +20620,7 @@
         <v>545</v>
       </c>
       <c r="S211" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T211" t="s">
         <v>50</v>
@@ -20644,7 +20639,7 @@
         <v>37</v>
       </c>
       <c r="Z211" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA211" t="s">
         <v>39</v>
@@ -20661,7 +20656,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -20707,7 +20702,7 @@
         <v>246</v>
       </c>
       <c r="S212" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T212" t="s">
         <v>37</v>
@@ -20741,7 +20736,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -20769,7 +20764,7 @@
         <v>0.5</v>
       </c>
       <c r="K213" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L213" t="s">
         <v>61</v>
@@ -20793,7 +20788,7 @@
         <v>135</v>
       </c>
       <c r="S213" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T213" t="s">
         <v>37</v>
@@ -20810,7 +20805,7 @@
         <v>37</v>
       </c>
       <c r="Z213" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AA213" t="s">
         <v>39</v>
@@ -20827,7 +20822,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B214" t="n">
         <v>4</v>
@@ -20855,7 +20850,7 @@
         <v>0.5</v>
       </c>
       <c r="K214" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L214" t="s">
         <v>61</v>
@@ -20879,7 +20874,7 @@
         <v>139</v>
       </c>
       <c r="S214" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T214" t="s">
         <v>37</v>
@@ -20911,7 +20906,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -20939,7 +20934,7 @@
         <v>0.3</v>
       </c>
       <c r="K215" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L215" t="s">
         <v>34</v>
@@ -20954,7 +20949,7 @@
         <v>35</v>
       </c>
       <c r="P215" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q215" t="n">
         <v>76</v>
@@ -20963,7 +20958,7 @@
         <v>92</v>
       </c>
       <c r="S215" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="T215" t="s">
         <v>37</v>
@@ -20995,7 +20990,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B216" t="n">
         <v>3</v>
@@ -21023,7 +21018,7 @@
         <v>0.8</v>
       </c>
       <c r="K216" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L216" t="s">
         <v>61</v>
@@ -21047,7 +21042,7 @@
         <v>163</v>
       </c>
       <c r="S216" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T216" t="s">
         <v>37</v>
@@ -21064,7 +21059,7 @@
         <v>37</v>
       </c>
       <c r="Z216" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA216" t="s">
         <v>39</v>
@@ -21081,7 +21076,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -21133,7 +21128,7 @@
         <v>122</v>
       </c>
       <c r="S217" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T217" t="s">
         <v>37</v>
@@ -21165,7 +21160,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -21177,7 +21172,7 @@
         <v>14</v>
       </c>
       <c r="E218" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F218"/>
       <c r="G218" t="n">
@@ -21215,7 +21210,7 @@
         <v>203</v>
       </c>
       <c r="S218" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="T218" t="s">
         <v>37</v>
@@ -21232,7 +21227,7 @@
         <v>37</v>
       </c>
       <c r="Z218" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA218" t="s">
         <v>39</v>
@@ -21249,7 +21244,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B219" t="n">
         <v>5</v>
@@ -21277,7 +21272,7 @@
         <v>1.7</v>
       </c>
       <c r="K219" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L219" t="s">
         <v>61</v>
@@ -21301,7 +21296,7 @@
         <v>354</v>
       </c>
       <c r="S219" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="T219" t="s">
         <v>37</v>
@@ -21335,7 +21330,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B220" t="n">
         <v>6</v>
@@ -21363,7 +21358,7 @@
         <v>1.9</v>
       </c>
       <c r="K220" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L220" t="s">
         <v>61</v>
@@ -21387,7 +21382,7 @@
         <v>381</v>
       </c>
       <c r="S220" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T220" t="s">
         <v>37</v>
@@ -21419,7 +21414,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B221" t="n">
         <v>4</v>
@@ -21447,7 +21442,7 @@
         <v>1.2</v>
       </c>
       <c r="K221" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L221" t="s">
         <v>61</v>
@@ -21471,7 +21466,7 @@
         <v>256</v>
       </c>
       <c r="S221" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T221" t="s">
         <v>37</v>
@@ -21503,7 +21498,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B222" t="n">
         <v>3</v>
@@ -21555,7 +21550,7 @@
         <v>146</v>
       </c>
       <c r="S222" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="T222" t="s">
         <v>37</v>
@@ -21587,7 +21582,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -21615,7 +21610,7 @@
         <v>0.4</v>
       </c>
       <c r="K223" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L223" t="s">
         <v>61</v>
@@ -21624,7 +21619,7 @@
         <v>98</v>
       </c>
       <c r="N223" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O223" t="s">
         <v>35</v>
@@ -21639,7 +21634,7 @@
         <v>120</v>
       </c>
       <c r="S223" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T223" t="s">
         <v>37</v>
@@ -21673,7 +21668,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -21701,7 +21696,7 @@
         <v>0.6</v>
       </c>
       <c r="K224" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L224" t="s">
         <v>61</v>
@@ -21725,7 +21720,7 @@
         <v>149</v>
       </c>
       <c r="S224" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T224" t="s">
         <v>37</v>
@@ -21757,7 +21752,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -21803,7 +21798,7 @@
         <v>254</v>
       </c>
       <c r="S225" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T225" t="s">
         <v>37</v>
@@ -21835,7 +21830,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -21881,7 +21876,7 @@
         <v>221</v>
       </c>
       <c r="S226" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T226" t="s">
         <v>37</v>
@@ -21913,7 +21908,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -21950,7 +21945,7 @@
         <v>35</v>
       </c>
       <c r="P227" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q227" t="n">
         <v>193</v>
@@ -21959,7 +21954,7 @@
         <v>214</v>
       </c>
       <c r="S227" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T227" t="s">
         <v>50</v>
@@ -21978,7 +21973,7 @@
         <v>37</v>
       </c>
       <c r="Z227" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA227" t="s">
         <v>45</v>
@@ -21995,7 +21990,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B228" t="n">
         <v>4</v>
@@ -22023,7 +22018,7 @@
         <v>1.2</v>
       </c>
       <c r="K228" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L228" t="s">
         <v>61</v>
@@ -22047,7 +22042,7 @@
         <v>239</v>
       </c>
       <c r="S228" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T228" t="s">
         <v>50</v>
@@ -22083,7 +22078,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B229" t="n">
         <v>3</v>
@@ -22111,7 +22106,7 @@
         <v>0.6</v>
       </c>
       <c r="K229" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L229" t="s">
         <v>61</v>
@@ -22126,7 +22121,7 @@
         <v>35</v>
       </c>
       <c r="P229" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q229" t="n">
         <v>91</v>
@@ -22135,7 +22130,7 @@
         <v>112</v>
       </c>
       <c r="S229" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T229" t="s">
         <v>37</v>
@@ -22169,7 +22164,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -22215,7 +22210,7 @@
         <v>224</v>
       </c>
       <c r="S230" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T230" t="s">
         <v>37</v>
@@ -22247,7 +22242,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -22293,7 +22288,7 @@
         <v>198</v>
       </c>
       <c r="S231" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T231" t="s">
         <v>37</v>
@@ -22325,7 +22320,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -22353,7 +22348,7 @@
         <v>1.4</v>
       </c>
       <c r="K232" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L232" t="s">
         <v>61</v>
@@ -22377,7 +22372,7 @@
         <v>278</v>
       </c>
       <c r="S232" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T232" t="s">
         <v>37</v>
@@ -22394,7 +22389,7 @@
         <v>37</v>
       </c>
       <c r="Z232" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA232" t="s">
         <v>39</v>
@@ -22411,7 +22406,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -22439,7 +22434,7 @@
         <v>0.6</v>
       </c>
       <c r="K233" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L233" t="s">
         <v>61</v>
@@ -22463,7 +22458,7 @@
         <v>154</v>
       </c>
       <c r="S233" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T233" t="s">
         <v>37</v>
@@ -22480,7 +22475,7 @@
         <v>37</v>
       </c>
       <c r="Z233" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA233" t="s">
         <v>39</v>
@@ -22497,7 +22492,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -22543,7 +22538,7 @@
         <v>285</v>
       </c>
       <c r="S234" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T234" t="s">
         <v>37</v>
@@ -22575,7 +22570,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -22603,7 +22598,7 @@
         <v>1.5</v>
       </c>
       <c r="K235" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L235" t="s">
         <v>61</v>
@@ -22627,7 +22622,7 @@
         <v>262</v>
       </c>
       <c r="S235" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T235" t="s">
         <v>37</v>
@@ -22659,7 +22654,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B236" t="n">
         <v>4</v>
@@ -22687,7 +22682,7 @@
         <v>1.5</v>
       </c>
       <c r="K236" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L236" t="s">
         <v>61</v>
@@ -22711,7 +22706,7 @@
         <v>288</v>
       </c>
       <c r="S236" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T236" t="s">
         <v>37</v>
@@ -22745,7 +22740,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -22791,7 +22786,7 @@
         <v>248</v>
       </c>
       <c r="S237" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T237" t="s">
         <v>50</v>
@@ -22810,7 +22805,7 @@
         <v>37</v>
       </c>
       <c r="Z237" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA237" t="s">
         <v>45</v>
@@ -22827,7 +22822,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -22873,7 +22868,7 @@
         <v>169</v>
       </c>
       <c r="S238" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T238" t="s">
         <v>37</v>
@@ -22905,7 +22900,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -22936,7 +22931,7 @@
       <c r="L239"/>
       <c r="M239"/>
       <c r="N239" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O239" t="s">
         <v>35</v>
@@ -22951,7 +22946,7 @@
         <v>146</v>
       </c>
       <c r="S239" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T239" t="s">
         <v>37</v>
@@ -22983,7 +22978,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -23029,7 +23024,7 @@
         <v>248</v>
       </c>
       <c r="S240" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T240" t="s">
         <v>37</v>
@@ -23061,7 +23056,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -23107,7 +23102,7 @@
         <v>220</v>
       </c>
       <c r="S241" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T241" t="s">
         <v>50</v>
@@ -23126,7 +23121,7 @@
         <v>37</v>
       </c>
       <c r="Z241" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA241" t="s">
         <v>45</v>
@@ -23143,7 +23138,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -23189,7 +23184,7 @@
         <v>278</v>
       </c>
       <c r="S242" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T242" t="s">
         <v>37</v>
@@ -23206,7 +23201,7 @@
         <v>37</v>
       </c>
       <c r="Z242" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA242" t="s">
         <v>45</v>
@@ -23223,7 +23218,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -23269,7 +23264,7 @@
         <v>217</v>
       </c>
       <c r="S243" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T243" t="s">
         <v>37</v>
@@ -23303,7 +23298,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B244" t="n">
         <v>4</v>
@@ -23331,7 +23326,7 @@
         <v>0.5</v>
       </c>
       <c r="K244" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L244" t="s">
         <v>61</v>
@@ -23355,7 +23350,7 @@
         <v>118</v>
       </c>
       <c r="S244" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T244" t="s">
         <v>37</v>
@@ -23387,7 +23382,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -23433,7 +23428,7 @@
         <v>259</v>
       </c>
       <c r="S245" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T245" t="s">
         <v>37</v>
@@ -23465,7 +23460,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B246" t="n">
         <v>4</v>
@@ -23517,7 +23512,7 @@
         <v>135</v>
       </c>
       <c r="S246" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T246" t="s">
         <v>37</v>
@@ -23549,7 +23544,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -23601,7 +23596,7 @@
         <v>170</v>
       </c>
       <c r="S247" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T247" t="s">
         <v>37</v>
@@ -23633,7 +23628,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -23679,7 +23674,7 @@
         <v>273</v>
       </c>
       <c r="S248" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T248" t="s">
         <v>37</v>
@@ -23711,7 +23706,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B249" t="n">
         <v>3</v>
@@ -23739,7 +23734,7 @@
         <v>0.6</v>
       </c>
       <c r="K249" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L249" t="s">
         <v>61</v>
@@ -23754,7 +23749,7 @@
         <v>35</v>
       </c>
       <c r="P249" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q249" t="n">
         <v>107</v>
@@ -23763,7 +23758,7 @@
         <v>117</v>
       </c>
       <c r="S249" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T249" t="s">
         <v>37</v>
@@ -23795,7 +23790,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -23841,7 +23836,7 @@
         <v>170</v>
       </c>
       <c r="S250" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T250" t="s">
         <v>50</v>
@@ -23860,7 +23855,7 @@
         <v>37</v>
       </c>
       <c r="Z250" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AA250" t="s">
         <v>45</v>
@@ -23877,7 +23872,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B251" t="n">
         <v>3</v>
@@ -23929,7 +23924,7 @@
         <v>127</v>
       </c>
       <c r="S251" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T251" t="s">
         <v>37</v>
@@ -23961,7 +23956,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B252" t="n">
         <v>3</v>
@@ -23989,7 +23984,7 @@
         <v>0.7</v>
       </c>
       <c r="K252" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L252" t="s">
         <v>61</v>
@@ -24013,7 +24008,7 @@
         <v>262</v>
       </c>
       <c r="S252" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T252" t="s">
         <v>37</v>
@@ -24045,7 +24040,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -24073,7 +24068,7 @@
         <v>1.1</v>
       </c>
       <c r="K253" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L253" t="s">
         <v>61</v>
@@ -24097,7 +24092,7 @@
         <v>320</v>
       </c>
       <c r="S253" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="T253" t="s">
         <v>37</v>
@@ -24129,7 +24124,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -24175,7 +24170,7 @@
         <v>209</v>
       </c>
       <c r="S254" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T254" t="s">
         <v>37</v>
@@ -24209,7 +24204,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -24246,7 +24241,7 @@
         <v>35</v>
       </c>
       <c r="P255" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q255" t="n">
         <v>225</v>
@@ -24255,7 +24250,7 @@
         <v>261</v>
       </c>
       <c r="S255" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T255" t="s">
         <v>37</v>
@@ -24287,7 +24282,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B256" t="n">
         <v>3</v>
@@ -24315,7 +24310,7 @@
         <v>0.5</v>
       </c>
       <c r="K256" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L256" t="s">
         <v>61</v>
@@ -24330,7 +24325,7 @@
         <v>35</v>
       </c>
       <c r="P256" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q256" t="n">
         <v>153</v>
@@ -24339,7 +24334,7 @@
         <v>194</v>
       </c>
       <c r="S256" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T256" t="s">
         <v>37</v>
@@ -24356,7 +24351,7 @@
         <v>37</v>
       </c>
       <c r="Z256" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA256" t="s">
         <v>39</v>
@@ -24373,7 +24368,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -24401,7 +24396,7 @@
         <v>0.5</v>
       </c>
       <c r="K257" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L257" t="s">
         <v>34</v>
@@ -24425,7 +24420,7 @@
         <v>143</v>
       </c>
       <c r="S257" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="T257" t="s">
         <v>37</v>
@@ -24457,7 +24452,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B258" t="n">
         <v>5</v>
@@ -24485,7 +24480,7 @@
         <v>0.8</v>
       </c>
       <c r="K258" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L258" t="s">
         <v>61</v>
@@ -24509,7 +24504,7 @@
         <v>133</v>
       </c>
       <c r="S258" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T258" t="s">
         <v>37</v>
@@ -24541,7 +24536,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -24569,7 +24564,7 @@
         <v>1.4</v>
       </c>
       <c r="K259" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L259" t="s">
         <v>61</v>
@@ -24593,7 +24588,7 @@
         <v>297</v>
       </c>
       <c r="S259" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T259" t="s">
         <v>37</v>
@@ -24625,7 +24620,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -24671,7 +24666,7 @@
         <v>291</v>
       </c>
       <c r="S260" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T260" t="s">
         <v>37</v>
@@ -24688,7 +24683,7 @@
         <v>37</v>
       </c>
       <c r="Z260" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AA260" t="s">
         <v>45</v>
@@ -24705,7 +24700,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -24751,7 +24746,7 @@
         <v>291</v>
       </c>
       <c r="S261" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T261" t="s">
         <v>37</v>
@@ -24783,7 +24778,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B262" t="n">
         <v>6</v>
@@ -24811,7 +24806,7 @@
         <v>1.3</v>
       </c>
       <c r="K262" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L262" t="s">
         <v>61</v>
@@ -24835,7 +24830,7 @@
         <v>254</v>
       </c>
       <c r="S262" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T262" t="s">
         <v>37</v>
@@ -24867,7 +24862,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -24913,7 +24908,7 @@
         <v>291</v>
       </c>
       <c r="S263" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T263" t="s">
         <v>37</v>
@@ -24945,7 +24940,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -24997,7 +24992,7 @@
         <v>187</v>
       </c>
       <c r="S264" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="T264" t="s">
         <v>37</v>
@@ -25029,7 +25024,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -25057,7 +25052,7 @@
         <v>0.7</v>
       </c>
       <c r="K265" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L265" t="s">
         <v>61</v>
@@ -25081,7 +25076,7 @@
         <v>135</v>
       </c>
       <c r="S265" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T265" t="s">
         <v>37</v>
@@ -25113,7 +25108,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B266" t="n">
         <v>3</v>
@@ -25141,7 +25136,7 @@
         <v>0.5</v>
       </c>
       <c r="K266" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L266" t="s">
         <v>34</v>
@@ -25165,7 +25160,7 @@
         <v>96</v>
       </c>
       <c r="S266" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T266" t="s">
         <v>37</v>
@@ -25197,7 +25192,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B267" t="n">
         <v>3</v>
@@ -25225,7 +25220,7 @@
         <v>0.6</v>
       </c>
       <c r="K267" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L267" t="s">
         <v>61</v>
@@ -25249,7 +25244,7 @@
         <v>123</v>
       </c>
       <c r="S267" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T267" t="s">
         <v>37</v>
@@ -25266,7 +25261,7 @@
         <v>37</v>
       </c>
       <c r="Z267" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AA267" t="s">
         <v>39</v>
@@ -25283,7 +25278,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -25329,22 +25324,24 @@
         <v>192</v>
       </c>
       <c r="S268" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T268" t="s">
         <v>37</v>
       </c>
       <c r="U268"/>
       <c r="V268" t="s">
-        <v>37</v>
-      </c>
-      <c r="W268"/>
+        <v>50</v>
+      </c>
+      <c r="W268" t="s">
+        <v>331</v>
+      </c>
       <c r="X268"/>
       <c r="Y268" t="s">
         <v>37</v>
       </c>
       <c r="Z268" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AA268" t="s">
         <v>45</v>
@@ -25361,7 +25358,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -25407,7 +25404,7 @@
         <v>300</v>
       </c>
       <c r="S269" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T269" t="s">
         <v>37</v>
@@ -25439,7 +25436,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B270" t="n">
         <v>4</v>
@@ -25467,7 +25464,7 @@
         <v>0.3</v>
       </c>
       <c r="K270" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L270" t="s">
         <v>61</v>
@@ -25476,7 +25473,7 @@
         <v>101.679294964802</v>
       </c>
       <c r="N270" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O270" t="s">
         <v>35</v>
@@ -25491,7 +25488,7 @@
         <v>144</v>
       </c>
       <c r="S270" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T270" t="s">
         <v>37</v>
@@ -25507,9 +25504,7 @@
       <c r="Y270" t="s">
         <v>37</v>
       </c>
-      <c r="Z270" t="s">
-        <v>264</v>
-      </c>
+      <c r="Z270"/>
       <c r="AA270" t="s">
         <v>39</v>
       </c>
@@ -25525,7 +25520,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -25553,7 +25548,7 @@
         <v>0.6</v>
       </c>
       <c r="K271" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L271" t="s">
         <v>61</v>
@@ -25577,7 +25572,7 @@
         <v>109</v>
       </c>
       <c r="S271" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T271" t="s">
         <v>37</v>
@@ -25609,7 +25604,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -25655,12 +25650,14 @@
         <v>218</v>
       </c>
       <c r="S272" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T272" t="s">
-        <v>37</v>
-      </c>
-      <c r="U272"/>
+        <v>50</v>
+      </c>
+      <c r="U272" t="s">
+        <v>85</v>
+      </c>
       <c r="V272" t="s">
         <v>37</v>
       </c>
@@ -25672,7 +25669,7 @@
         <v>37</v>
       </c>
       <c r="Z272" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AA272" t="s">
         <v>45</v>
@@ -25689,7 +25686,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B273" t="n">
         <v>3</v>
@@ -25717,7 +25714,7 @@
         <v>0.7</v>
       </c>
       <c r="K273" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L273" t="s">
         <v>61</v>
@@ -25741,7 +25738,7 @@
         <v>117</v>
       </c>
       <c r="S273" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T273" t="s">
         <v>37</v>
@@ -25773,7 +25770,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B274" t="n">
         <v>5</v>
@@ -25801,7 +25798,7 @@
         <v>0.7</v>
       </c>
       <c r="K274" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L274" t="s">
         <v>61</v>
@@ -25825,7 +25822,7 @@
         <v>112</v>
       </c>
       <c r="S274" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T274" t="s">
         <v>37</v>
@@ -25857,7 +25854,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B275" t="n">
         <v>4</v>
@@ -25885,7 +25882,7 @@
         <v>0.7</v>
       </c>
       <c r="K275" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L275" t="s">
         <v>61</v>
@@ -25909,7 +25906,7 @@
         <v>172</v>
       </c>
       <c r="S275" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T275" t="s">
         <v>37</v>
@@ -25926,7 +25923,7 @@
         <v>37</v>
       </c>
       <c r="Z275" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA275" t="s">
         <v>39</v>
@@ -25943,7 +25940,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B276" t="n">
         <v>3</v>
@@ -25971,7 +25968,7 @@
         <v>0.4</v>
       </c>
       <c r="K276" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L276" t="s">
         <v>61</v>
@@ -25995,7 +25992,7 @@
         <v>175</v>
       </c>
       <c r="S276" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T276" t="s">
         <v>37</v>
@@ -26027,7 +26024,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B277" t="n">
         <v>3</v>
@@ -26079,7 +26076,7 @@
         <v>147</v>
       </c>
       <c r="S277" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T277" t="s">
         <v>37</v>
@@ -26111,7 +26108,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B278" t="n">
         <v>3</v>
@@ -26139,7 +26136,7 @@
         <v>0.6</v>
       </c>
       <c r="K278" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L278" t="s">
         <v>61</v>
@@ -26163,7 +26160,7 @@
         <v>146</v>
       </c>
       <c r="S278" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="T278" t="s">
         <v>37</v>
@@ -26195,7 +26192,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -26241,7 +26238,7 @@
         <v>182</v>
       </c>
       <c r="S279" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T279" t="s">
         <v>50</v>
@@ -26260,7 +26257,7 @@
         <v>37</v>
       </c>
       <c r="Z279" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA279" t="s">
         <v>45</v>
@@ -26277,7 +26274,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -26323,7 +26320,7 @@
         <v>273</v>
       </c>
       <c r="S280" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T280" t="s">
         <v>37</v>
@@ -26340,7 +26337,7 @@
         <v>37</v>
       </c>
       <c r="Z280" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AA280" t="s">
         <v>45</v>
@@ -26357,7 +26354,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B281" t="n">
         <v>5</v>
@@ -26385,7 +26382,7 @@
         <v>0.6</v>
       </c>
       <c r="K281" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L281" t="s">
         <v>61</v>
@@ -26409,7 +26406,7 @@
         <v>134</v>
       </c>
       <c r="S281" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T281" t="s">
         <v>37</v>
@@ -26441,7 +26438,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B282" t="n">
         <v>4</v>
@@ -26493,7 +26490,7 @@
         <v>134</v>
       </c>
       <c r="S282" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="T282" t="s">
         <v>37</v>
@@ -26525,7 +26522,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B283" t="n">
         <v>4</v>
@@ -26577,7 +26574,7 @@
         <v>138</v>
       </c>
       <c r="S283" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T283" t="s">
         <v>37</v>
@@ -26609,7 +26606,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -26661,7 +26658,7 @@
         <v>170</v>
       </c>
       <c r="S284" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T284" t="s">
         <v>37</v>
@@ -26693,7 +26690,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B285" t="n">
         <v>5</v>
@@ -26721,7 +26718,7 @@
         <v>0.7</v>
       </c>
       <c r="K285" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L285" t="s">
         <v>61</v>
@@ -26745,7 +26742,7 @@
         <v>127</v>
       </c>
       <c r="S285" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T285" t="s">
         <v>37</v>
@@ -26777,7 +26774,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B286" t="n">
         <v>3</v>
@@ -26805,7 +26802,7 @@
         <v>0.8</v>
       </c>
       <c r="K286" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L286" t="s">
         <v>61</v>
@@ -26829,7 +26826,7 @@
         <v>125</v>
       </c>
       <c r="S286" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T286" t="s">
         <v>37</v>
@@ -26861,7 +26858,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -26889,7 +26886,7 @@
         <v>0.7</v>
       </c>
       <c r="K287" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L287" t="s">
         <v>61</v>
@@ -26913,7 +26910,7 @@
         <v>123</v>
       </c>
       <c r="S287" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="T287" t="s">
         <v>37</v>
@@ -26945,7 +26942,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B288" t="n">
         <v>3</v>
@@ -26973,7 +26970,7 @@
         <v>0.7</v>
       </c>
       <c r="K288" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L288" t="s">
         <v>34</v>
@@ -26997,7 +26994,7 @@
         <v>129</v>
       </c>
       <c r="S288" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T288" t="s">
         <v>37</v>
@@ -27029,7 +27026,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B289" t="n">
         <v>6</v>
@@ -27057,7 +27054,7 @@
         <v>0.7</v>
       </c>
       <c r="K289" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L289" t="s">
         <v>61</v>
@@ -27081,7 +27078,7 @@
         <v>151</v>
       </c>
       <c r="S289" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="T289" t="s">
         <v>37</v>
@@ -27113,7 +27110,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B290" t="n">
         <v>5</v>
@@ -27165,7 +27162,7 @@
         <v>182</v>
       </c>
       <c r="S290" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T290" t="s">
         <v>37</v>
@@ -27197,7 +27194,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B291" t="n">
         <v>6</v>
@@ -27225,7 +27222,7 @@
         <v>0.8</v>
       </c>
       <c r="K291" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L291" t="s">
         <v>34</v>
@@ -27249,7 +27246,7 @@
         <v>159</v>
       </c>
       <c r="S291" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T291" t="s">
         <v>37</v>
@@ -27266,7 +27263,7 @@
         <v>37</v>
       </c>
       <c r="Z291" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA291" t="s">
         <v>39</v>
@@ -27283,7 +27280,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B292" t="n">
         <v>3</v>
@@ -27311,7 +27308,7 @@
         <v>0.8</v>
       </c>
       <c r="K292" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L292" t="s">
         <v>61</v>
@@ -27335,7 +27332,7 @@
         <v>179</v>
       </c>
       <c r="S292" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="T292" t="s">
         <v>37</v>
@@ -27367,7 +27364,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -27395,7 +27392,7 @@
         <v>0.4</v>
       </c>
       <c r="K293" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L293" t="s">
         <v>61</v>
@@ -27419,7 +27416,7 @@
         <v>114</v>
       </c>
       <c r="S293" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T293" t="s">
         <v>37</v>
@@ -27451,7 +27448,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -27497,7 +27494,7 @@
         <v>180</v>
       </c>
       <c r="S294" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T294" t="s">
         <v>37</v>
@@ -27529,7 +27526,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B295" t="n">
         <v>4</v>
@@ -27557,7 +27554,7 @@
         <v>0.9</v>
       </c>
       <c r="K295" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L295" t="s">
         <v>61</v>
@@ -27572,7 +27569,7 @@
         <v>35</v>
       </c>
       <c r="P295" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q295" t="n">
         <v>146</v>
@@ -27581,7 +27578,7 @@
         <v>161</v>
       </c>
       <c r="S295" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="T295" t="s">
         <v>37</v>
@@ -27613,7 +27610,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -27665,7 +27662,7 @@
         <v>187</v>
       </c>
       <c r="S296" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T296" t="s">
         <v>37</v>
@@ -27697,7 +27694,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -27725,7 +27722,7 @@
         <v>1</v>
       </c>
       <c r="K297" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L297" t="s">
         <v>34</v>
@@ -27749,7 +27746,7 @@
         <v>233</v>
       </c>
       <c r="S297" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T297" t="s">
         <v>37</v>
@@ -27781,7 +27778,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -27793,7 +27790,7 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F298"/>
       <c r="G298" t="n">
@@ -27809,7 +27806,7 @@
         <v>0.9</v>
       </c>
       <c r="K298" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L298" t="s">
         <v>61</v>
@@ -27824,7 +27821,7 @@
         <v>35</v>
       </c>
       <c r="P298" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q298" t="n">
         <v>146</v>
@@ -27833,7 +27830,7 @@
         <v>167</v>
       </c>
       <c r="S298" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T298" t="s">
         <v>37</v>
@@ -27867,7 +27864,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -27895,7 +27892,7 @@
         <v>1</v>
       </c>
       <c r="K299" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L299" t="s">
         <v>34</v>
@@ -27919,7 +27916,7 @@
         <v>177</v>
       </c>
       <c r="S299" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T299" t="s">
         <v>37</v>
@@ -27951,7 +27948,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B300" t="n">
         <v>4</v>
@@ -27979,7 +27976,7 @@
         <v>0.5</v>
       </c>
       <c r="K300" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L300" t="s">
         <v>61</v>
@@ -28003,7 +28000,7 @@
         <v>106</v>
       </c>
       <c r="S300" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="T300" t="s">
         <v>37</v>
@@ -28035,7 +28032,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B301" t="n">
         <v>4</v>
@@ -28063,7 +28060,7 @@
         <v>1.1</v>
       </c>
       <c r="K301" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L301" t="s">
         <v>61</v>
@@ -28087,7 +28084,7 @@
         <v>240</v>
       </c>
       <c r="S301" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="T301" t="s">
         <v>37</v>
@@ -28119,7 +28116,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B302" t="n">
         <v>3</v>
@@ -28147,7 +28144,7 @@
         <v>0.5</v>
       </c>
       <c r="K302" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L302" t="s">
         <v>61</v>
@@ -28171,7 +28168,7 @@
         <v>143</v>
       </c>
       <c r="S302" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T302" t="s">
         <v>37</v>
@@ -28203,7 +28200,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B303" t="n">
         <v>3</v>
@@ -28231,7 +28228,7 @@
         <v>0.9</v>
       </c>
       <c r="K303" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L303" t="s">
         <v>61</v>
@@ -28246,7 +28243,7 @@
         <v>35</v>
       </c>
       <c r="P303" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q303" t="n">
         <v>141</v>
@@ -28255,7 +28252,7 @@
         <v>166</v>
       </c>
       <c r="S303" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="T303" t="s">
         <v>37</v>
@@ -28272,7 +28269,7 @@
         <v>37</v>
       </c>
       <c r="Z303" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AA303" t="s">
         <v>39</v>
@@ -28289,7 +28286,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B304" t="n">
         <v>4</v>
@@ -28317,7 +28314,7 @@
         <v>0.2</v>
       </c>
       <c r="K304" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L304" t="s">
         <v>61</v>
@@ -28341,7 +28338,7 @@
         <v>123</v>
       </c>
       <c r="S304" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T304" t="s">
         <v>37</v>
@@ -28358,7 +28355,7 @@
         <v>37</v>
       </c>
       <c r="Z304" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AA304" t="s">
         <v>39</v>
@@ -28375,7 +28372,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -28412,7 +28409,7 @@
         <v>35</v>
       </c>
       <c r="P305" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q305" t="n">
         <v>205</v>
@@ -28421,7 +28418,7 @@
         <v>236</v>
       </c>
       <c r="S305" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T305" t="s">
         <v>37</v>
@@ -28453,7 +28450,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -28499,7 +28496,7 @@
         <v>267</v>
       </c>
       <c r="S306" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="T306" t="s">
         <v>37</v>
@@ -28531,7 +28528,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B307" t="n">
         <v>6</v>
@@ -28559,7 +28556,7 @@
         <v>0.8</v>
       </c>
       <c r="K307" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L307" t="s">
         <v>61</v>
@@ -28583,7 +28580,7 @@
         <v>150</v>
       </c>
       <c r="S307" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="T307" t="s">
         <v>37</v>
@@ -28615,7 +28612,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -28643,7 +28640,7 @@
         <v>0.7</v>
       </c>
       <c r="K308" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L308" t="s">
         <v>61</v>
@@ -28667,7 +28664,7 @@
         <v>159</v>
       </c>
       <c r="S308" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="T308" t="s">
         <v>37</v>
@@ -28699,7 +28696,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B309" t="n">
         <v>4</v>
@@ -28727,7 +28724,7 @@
         <v>0.3</v>
       </c>
       <c r="K309" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L309" t="s">
         <v>61</v>
@@ -28751,7 +28748,7 @@
         <v>141</v>
       </c>
       <c r="S309" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="T309" t="s">
         <v>37</v>
@@ -28768,7 +28765,7 @@
         <v>37</v>
       </c>
       <c r="Z309" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AA309" t="s">
         <v>39</v>
@@ -28785,7 +28782,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -28831,7 +28828,7 @@
         <v>325</v>
       </c>
       <c r="S310" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="T310" t="s">
         <v>37</v>
@@ -28863,7 +28860,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -28891,7 +28888,7 @@
         <v>0.5</v>
       </c>
       <c r="K311" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L311" t="s">
         <v>61</v>
@@ -28900,7 +28897,7 @@
         <v>97.9086083175501</v>
       </c>
       <c r="N311" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O311" t="s">
         <v>35</v>
@@ -28915,7 +28912,7 @@
         <v>120</v>
       </c>
       <c r="S311" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T311" t="s">
         <v>37</v>
@@ -28932,7 +28929,7 @@
         <v>37</v>
       </c>
       <c r="Z311" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AA311" t="s">
         <v>39</v>
@@ -28949,7 +28946,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B312" t="n">
         <v>3</v>
@@ -28977,7 +28974,7 @@
         <v>0.2</v>
       </c>
       <c r="K312" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L312" t="s">
         <v>61</v>
@@ -29001,7 +28998,7 @@
         <v>124</v>
       </c>
       <c r="S312" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T312" t="s">
         <v>37</v>
@@ -29018,7 +29015,7 @@
         <v>50</v>
       </c>
       <c r="Z312" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AA312" t="s">
         <v>39</v>
@@ -29035,7 +29032,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -29063,7 +29060,7 @@
         <v>0.7</v>
       </c>
       <c r="K313" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L313" t="s">
         <v>34</v>
@@ -29087,7 +29084,7 @@
         <v>141</v>
       </c>
       <c r="S313" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="T313" t="s">
         <v>37</v>
@@ -29119,7 +29116,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -29165,7 +29162,7 @@
         <v>409</v>
       </c>
       <c r="S314" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T314" t="s">
         <v>50</v>
@@ -29201,7 +29198,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B315" t="n">
         <v>5</v>
@@ -29229,7 +29226,7 @@
         <v>0.2</v>
       </c>
       <c r="K315" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L315" t="s">
         <v>61</v>
@@ -29253,7 +29250,7 @@
         <v>147</v>
       </c>
       <c r="S315" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="T315" t="s">
         <v>50</v>
@@ -29272,7 +29269,7 @@
         <v>37</v>
       </c>
       <c r="Z315" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AA315" t="s">
         <v>39</v>
@@ -29289,7 +29286,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -29317,7 +29314,7 @@
         <v>0.3</v>
       </c>
       <c r="K316" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L316" t="s">
         <v>34</v>
@@ -29341,7 +29338,7 @@
         <v>124</v>
       </c>
       <c r="S316" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T316" t="s">
         <v>37</v>
@@ -29358,7 +29355,7 @@
         <v>37</v>
       </c>
       <c r="Z316" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AA316" t="s">
         <v>39</v>
@@ -29375,7 +29372,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -29421,7 +29418,7 @@
         <v>285</v>
       </c>
       <c r="S317" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="T317" t="s">
         <v>37</v>
@@ -29453,7 +29450,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -29481,7 +29478,7 @@
         <v>0.9</v>
       </c>
       <c r="K318" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L318" t="s">
         <v>34</v>
@@ -29505,7 +29502,7 @@
         <v>197</v>
       </c>
       <c r="S318" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T318" t="s">
         <v>37</v>
@@ -29537,7 +29534,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B319" t="n">
         <v>3</v>
@@ -29565,7 +29562,7 @@
         <v>1.5</v>
       </c>
       <c r="K319" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L319" t="s">
         <v>61</v>
@@ -29589,7 +29586,7 @@
         <v>263</v>
       </c>
       <c r="S319" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T319" t="s">
         <v>37</v>
@@ -29621,7 +29618,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B320" t="n">
         <v>4</v>
@@ -29649,7 +29646,7 @@
         <v>0.8</v>
       </c>
       <c r="K320" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L320" t="s">
         <v>61</v>
@@ -29673,7 +29670,7 @@
         <v>186</v>
       </c>
       <c r="S320" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T320" t="s">
         <v>37</v>
@@ -29705,7 +29702,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B321" t="n">
         <v>3</v>
@@ -29733,7 +29730,7 @@
         <v>1</v>
       </c>
       <c r="K321" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L321" t="s">
         <v>34</v>
@@ -29757,7 +29754,7 @@
         <v>209</v>
       </c>
       <c r="S321" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T321" t="s">
         <v>37</v>
@@ -29789,7 +29786,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -29817,7 +29814,7 @@
         <v>0.5</v>
       </c>
       <c r="K322" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L322" t="s">
         <v>34</v>
@@ -29841,7 +29838,7 @@
         <v>179</v>
       </c>
       <c r="S322" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="T322" t="s">
         <v>37</v>
@@ -29873,7 +29870,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B323" t="n">
         <v>3</v>
@@ -29919,7 +29916,7 @@
         <v>239</v>
       </c>
       <c r="S323" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="T323" t="s">
         <v>50</v>
@@ -29938,7 +29935,7 @@
         <v>37</v>
       </c>
       <c r="Z323" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA323" t="s">
         <v>45</v>
@@ -29955,7 +29952,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -29983,7 +29980,7 @@
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L324" t="s">
         <v>61</v>
@@ -30007,7 +30004,7 @@
         <v>163</v>
       </c>
       <c r="S324" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T324" t="s">
         <v>37</v>
@@ -30039,7 +30036,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B325" t="n">
         <v>4</v>
@@ -30067,7 +30064,7 @@
         <v>1</v>
       </c>
       <c r="K325" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L325" t="s">
         <v>61</v>
@@ -30091,7 +30088,7 @@
         <v>205</v>
       </c>
       <c r="S325" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="T325" t="s">
         <v>37</v>
@@ -30123,7 +30120,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B326" t="n">
         <v>3</v>
@@ -30151,7 +30148,7 @@
         <v>1.3</v>
       </c>
       <c r="K326" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L326" t="s">
         <v>61</v>
@@ -30175,7 +30172,7 @@
         <v>223</v>
       </c>
       <c r="S326" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="T326" t="s">
         <v>37</v>
@@ -30209,7 +30206,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B327" t="n">
         <v>3</v>
@@ -30237,7 +30234,7 @@
         <v>0.9</v>
       </c>
       <c r="K327" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L327" t="s">
         <v>61</v>
@@ -30261,7 +30258,7 @@
         <v>184</v>
       </c>
       <c r="S327" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="T327" t="s">
         <v>37</v>
@@ -30293,7 +30290,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B328" t="n">
         <v>3</v>
@@ -30321,7 +30318,7 @@
         <v>0.4</v>
       </c>
       <c r="K328" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L328" t="s">
         <v>61</v>
@@ -30345,7 +30342,7 @@
         <v>175</v>
       </c>
       <c r="S328" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T328" t="s">
         <v>37</v>
@@ -30379,7 +30376,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -30407,7 +30404,7 @@
         <v>0.2</v>
       </c>
       <c r="K329" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L329" t="s">
         <v>34</v>
@@ -30431,7 +30428,7 @@
         <v>125</v>
       </c>
       <c r="S329" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="T329" t="s">
         <v>50</v>
@@ -30450,7 +30447,7 @@
         <v>37</v>
       </c>
       <c r="Z329" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA329" t="s">
         <v>39</v>
@@ -30467,7 +30464,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B330" t="n">
         <v>3</v>
@@ -30495,7 +30492,7 @@
         <v>0.6</v>
       </c>
       <c r="K330" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L330" t="s">
         <v>34</v>
@@ -30519,7 +30516,7 @@
         <v>128</v>
       </c>
       <c r="S330" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="T330" t="s">
         <v>37</v>
@@ -30551,7 +30548,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B331" t="n">
         <v>3</v>
@@ -30579,7 +30576,7 @@
         <v>0.8</v>
       </c>
       <c r="K331" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L331" t="s">
         <v>61</v>
@@ -30603,7 +30600,7 @@
         <v>176</v>
       </c>
       <c r="S331" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T331" t="s">
         <v>37</v>
@@ -30635,7 +30632,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B332" t="n">
         <v>4</v>
@@ -30663,7 +30660,7 @@
         <v>0.9</v>
       </c>
       <c r="K332" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L332" t="s">
         <v>61</v>
@@ -30687,7 +30684,7 @@
         <v>180</v>
       </c>
       <c r="S332" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="T332" t="s">
         <v>37</v>
@@ -30719,7 +30716,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -30747,7 +30744,7 @@
         <v>0.7</v>
       </c>
       <c r="K333" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L333" t="s">
         <v>34</v>
@@ -30769,7 +30766,7 @@
         <v>129</v>
       </c>
       <c r="S333" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="T333" t="s">
         <v>37</v>
@@ -30801,7 +30798,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -30847,7 +30844,7 @@
         <v>289</v>
       </c>
       <c r="S334" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="T334" t="s">
         <v>37</v>
@@ -30879,7 +30876,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -30907,7 +30904,7 @@
         <v>1.2</v>
       </c>
       <c r="K335" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L335" t="s">
         <v>34</v>
@@ -30931,7 +30928,7 @@
         <v>243</v>
       </c>
       <c r="S335" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T335" t="s">
         <v>37</v>
@@ -30963,7 +30960,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -30991,7 +30988,7 @@
         <v>0.4</v>
       </c>
       <c r="K336" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L336" t="s">
         <v>34</v>
@@ -31015,7 +31012,7 @@
         <v>147</v>
       </c>
       <c r="S336" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="T336" t="s">
         <v>50</v>
@@ -31034,7 +31031,7 @@
         <v>37</v>
       </c>
       <c r="Z336" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AA336" t="s">
         <v>39</v>
@@ -31051,7 +31048,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B337" t="n">
         <v>5</v>
@@ -31079,7 +31076,7 @@
         <v>1.3</v>
       </c>
       <c r="K337" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L337" t="s">
         <v>61</v>
@@ -31103,7 +31100,7 @@
         <v>223</v>
       </c>
       <c r="S337" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="T337" t="s">
         <v>37</v>
@@ -31135,7 +31132,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B338" t="n">
         <v>4</v>
@@ -31163,7 +31160,7 @@
         <v>0.9</v>
       </c>
       <c r="K338" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L338" t="s">
         <v>61</v>
@@ -31187,7 +31184,7 @@
         <v>139</v>
       </c>
       <c r="S338" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="T338" t="s">
         <v>37</v>
@@ -31219,7 +31216,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B339" t="n">
         <v>4</v>
@@ -31247,7 +31244,7 @@
         <v>0.8</v>
       </c>
       <c r="K339" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L339" t="s">
         <v>61</v>
@@ -31271,7 +31268,7 @@
         <v>145</v>
       </c>
       <c r="S339" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="T339" t="s">
         <v>37</v>
@@ -31305,7 +31302,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -31351,7 +31348,7 @@
         <v>225</v>
       </c>
       <c r="S340" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="T340" t="s">
         <v>37</v>
@@ -31383,7 +31380,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B341" t="n">
         <v>4</v>
@@ -31411,7 +31408,7 @@
         <v>0.7</v>
       </c>
       <c r="K341" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L341" t="s">
         <v>61</v>
@@ -31435,7 +31432,7 @@
         <v>138</v>
       </c>
       <c r="S341" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T341" t="s">
         <v>37</v>
@@ -31452,7 +31449,7 @@
         <v>37</v>
       </c>
       <c r="Z341" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AA341" t="s">
         <v>39</v>
@@ -31469,7 +31466,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B342" t="n">
         <v>4</v>
@@ -31497,7 +31494,7 @@
         <v>0.5</v>
       </c>
       <c r="K342" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L342" t="s">
         <v>34</v>
@@ -31521,7 +31518,7 @@
         <v>151</v>
       </c>
       <c r="S342" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="T342" t="s">
         <v>37</v>
@@ -31538,7 +31535,7 @@
         <v>37</v>
       </c>
       <c r="Z342" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AA342" t="s">
         <v>39</v>
@@ -31555,7 +31552,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B343" t="n">
         <v>5</v>
@@ -31583,7 +31580,7 @@
         <v>0.9</v>
       </c>
       <c r="K343" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L343" t="s">
         <v>34</v>
@@ -31607,7 +31604,7 @@
         <v>165</v>
       </c>
       <c r="S343" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="T343" t="s">
         <v>37</v>
@@ -31639,7 +31636,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B344" t="n">
         <v>4</v>
@@ -31667,7 +31664,7 @@
         <v>0.8</v>
       </c>
       <c r="K344" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L344" t="s">
         <v>61</v>
@@ -31691,7 +31688,7 @@
         <v>188</v>
       </c>
       <c r="S344" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="T344" t="s">
         <v>37</v>
@@ -31723,7 +31720,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -31751,7 +31748,7 @@
         <v>0.7</v>
       </c>
       <c r="K345" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L345" t="s">
         <v>61</v>
@@ -31775,7 +31772,7 @@
         <v>203</v>
       </c>
       <c r="S345" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="T345" t="s">
         <v>37</v>
@@ -31792,7 +31789,7 @@
         <v>37</v>
       </c>
       <c r="Z345" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AA345" t="s">
         <v>39</v>
@@ -31809,7 +31806,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -31821,7 +31818,7 @@
         <v>377</v>
       </c>
       <c r="E346" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F346"/>
       <c r="G346" t="n">
@@ -31855,7 +31852,7 @@
         <v>159</v>
       </c>
       <c r="S346" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="T346" t="s">
         <v>37</v>
@@ -31889,7 +31886,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -31917,7 +31914,7 @@
         <v>1</v>
       </c>
       <c r="K347" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L347" t="s">
         <v>34</v>
@@ -31941,7 +31938,7 @@
         <v>167</v>
       </c>
       <c r="S347" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T347" t="s">
         <v>37</v>
@@ -31973,7 +31970,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -32019,7 +32016,7 @@
         <v>299</v>
       </c>
       <c r="S348" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T348" t="s">
         <v>37</v>
@@ -32053,7 +32050,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -32081,7 +32078,7 @@
         <v>1</v>
       </c>
       <c r="K349" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L349" t="s">
         <v>61</v>
@@ -32105,7 +32102,7 @@
         <v>186</v>
       </c>
       <c r="S349" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="T349" t="s">
         <v>37</v>
@@ -32137,7 +32134,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -32165,7 +32162,7 @@
         <v>0.8</v>
       </c>
       <c r="K350" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L350" t="s">
         <v>61</v>
@@ -32189,7 +32186,7 @@
         <v>173</v>
       </c>
       <c r="S350" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="T350" t="s">
         <v>37</v>
@@ -32221,7 +32218,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -32249,7 +32246,7 @@
         <v>0.8</v>
       </c>
       <c r="K351" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L351" t="s">
         <v>61</v>
@@ -32273,7 +32270,7 @@
         <v>246</v>
       </c>
       <c r="S351" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T351" t="s">
         <v>37</v>
@@ -32305,7 +32302,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B352" t="n">
         <v>3</v>
@@ -32333,7 +32330,7 @@
         <v>0.8</v>
       </c>
       <c r="K352" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L352" t="s">
         <v>61</v>
@@ -32357,7 +32354,7 @@
         <v>163</v>
       </c>
       <c r="S352" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="T352" t="s">
         <v>37</v>
@@ -32389,7 +32386,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B353" t="n">
         <v>4</v>
@@ -32417,7 +32414,7 @@
         <v>1</v>
       </c>
       <c r="K353" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L353" t="s">
         <v>61</v>
@@ -32441,7 +32438,7 @@
         <v>196</v>
       </c>
       <c r="S353" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="T353" t="s">
         <v>37</v>
@@ -32473,7 +32470,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B354" t="n">
         <v>4</v>
@@ -32501,7 +32498,7 @@
         <v>1</v>
       </c>
       <c r="K354" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L354" t="s">
         <v>34</v>
@@ -32525,7 +32522,7 @@
         <v>165</v>
       </c>
       <c r="S354" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="T354" t="s">
         <v>37</v>
@@ -32542,7 +32539,7 @@
         <v>37</v>
       </c>
       <c r="Z354" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA354" t="s">
         <v>39</v>
@@ -32559,7 +32556,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B355" t="n">
         <v>5</v>
@@ -32587,7 +32584,7 @@
         <v>0.6</v>
       </c>
       <c r="K355" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L355" t="s">
         <v>34</v>
@@ -32611,7 +32608,7 @@
         <v>160</v>
       </c>
       <c r="S355" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="T355" t="s">
         <v>37</v>
@@ -32643,7 +32640,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -32680,7 +32677,7 @@
         <v>35</v>
       </c>
       <c r="P356" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q356" t="n">
         <v>149</v>
@@ -32689,7 +32686,7 @@
         <v>167</v>
       </c>
       <c r="S356" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="T356" t="s">
         <v>37</v>
@@ -32723,7 +32720,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -32751,7 +32748,7 @@
         <v>1.2</v>
       </c>
       <c r="K357" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L357" t="s">
         <v>61</v>
@@ -32775,7 +32772,7 @@
         <v>225</v>
       </c>
       <c r="S357" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="T357" t="s">
         <v>37</v>
@@ -32807,7 +32804,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B358" t="n">
         <v>5</v>
@@ -32835,7 +32832,7 @@
         <v>0.8</v>
       </c>
       <c r="K358" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L358" t="s">
         <v>61</v>
@@ -32859,7 +32856,7 @@
         <v>162</v>
       </c>
       <c r="S358" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="T358" t="s">
         <v>37</v>
@@ -32891,7 +32888,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -32919,7 +32916,7 @@
         <v>1.3</v>
       </c>
       <c r="K359" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L359" t="s">
         <v>61</v>
@@ -32943,7 +32940,7 @@
         <v>247</v>
       </c>
       <c r="S359" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="T359" t="s">
         <v>37</v>
@@ -32975,7 +32972,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -33021,7 +33018,7 @@
         <v>227</v>
       </c>
       <c r="S360" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="T360" t="s">
         <v>37</v>
@@ -33053,7 +33050,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B361" t="n">
         <v>6</v>
@@ -33081,7 +33078,7 @@
         <v>0.7</v>
       </c>
       <c r="K361" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L361" t="s">
         <v>61</v>
@@ -33105,7 +33102,7 @@
         <v>146</v>
       </c>
       <c r="S361" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="T361" t="s">
         <v>37</v>
@@ -33137,7 +33134,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B362" t="n">
         <v>6</v>
@@ -33165,7 +33162,7 @@
         <v>1.1</v>
       </c>
       <c r="K362" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L362" t="s">
         <v>61</v>
@@ -33189,7 +33186,7 @@
         <v>225</v>
       </c>
       <c r="S362" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="T362" t="s">
         <v>37</v>
@@ -33221,7 +33218,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -33249,7 +33246,7 @@
         <v>1.1</v>
       </c>
       <c r="K363" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L363" t="s">
         <v>34</v>
@@ -33273,7 +33270,7 @@
         <v>176</v>
       </c>
       <c r="S363" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T363" t="s">
         <v>37</v>
@@ -33305,7 +33302,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B364" t="n">
         <v>5</v>
@@ -33333,7 +33330,7 @@
         <v>1.3</v>
       </c>
       <c r="K364" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L364" t="s">
         <v>61</v>
@@ -33357,7 +33354,7 @@
         <v>223</v>
       </c>
       <c r="S364" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="T364" t="s">
         <v>37</v>
@@ -33374,7 +33371,7 @@
         <v>37</v>
       </c>
       <c r="Z364" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AA364" t="s">
         <v>39</v>
@@ -33391,7 +33388,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -33419,7 +33416,7 @@
         <v>0.8</v>
       </c>
       <c r="K365" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L365" t="s">
         <v>61</v>
@@ -33443,7 +33440,7 @@
         <v>265</v>
       </c>
       <c r="S365" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T365" t="s">
         <v>37</v>
@@ -33475,7 +33472,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -33503,7 +33500,7 @@
         <v>0.9</v>
       </c>
       <c r="K366" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L366" t="s">
         <v>61</v>
@@ -33527,7 +33524,7 @@
         <v>228</v>
       </c>
       <c r="S366" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T366" t="s">
         <v>37</v>
@@ -33559,7 +33556,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B367" t="n">
         <v>5</v>
@@ -33587,7 +33584,7 @@
         <v>0.9</v>
       </c>
       <c r="K367" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L367" t="s">
         <v>61</v>
@@ -33611,7 +33608,7 @@
         <v>172</v>
       </c>
       <c r="S367" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="T367" t="s">
         <v>37</v>
@@ -33643,7 +33640,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -33680,7 +33677,7 @@
         <v>35</v>
       </c>
       <c r="P368" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q368" t="n">
         <v>259</v>
@@ -33689,7 +33686,7 @@
         <v>295</v>
       </c>
       <c r="S368" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T368" t="s">
         <v>37</v>
@@ -33721,7 +33718,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -33749,7 +33746,7 @@
         <v>1</v>
       </c>
       <c r="K369" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L369"/>
       <c r="M369"/>
@@ -33769,7 +33766,7 @@
         <v>169</v>
       </c>
       <c r="S369" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T369" t="s">
         <v>37</v>
@@ -33786,7 +33783,7 @@
         <v>37</v>
       </c>
       <c r="Z369" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AA369" t="s">
         <v>39</v>
@@ -33803,7 +33800,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -33849,7 +33846,7 @@
         <v>245</v>
       </c>
       <c r="S370" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="T370" t="s">
         <v>37</v>
@@ -33881,7 +33878,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -33893,7 +33890,7 @@
         <v>38</v>
       </c>
       <c r="E371" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F371"/>
       <c r="G371" t="n">
@@ -33909,7 +33906,7 @@
         <v>1.5</v>
       </c>
       <c r="K371" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L371"/>
       <c r="M371"/>
@@ -33920,7 +33917,7 @@
         <v>35</v>
       </c>
       <c r="P371" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="Q371" t="n">
         <v>208</v>
@@ -33929,7 +33926,7 @@
         <v>228</v>
       </c>
       <c r="S371" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="T371" t="s">
         <v>37</v>
@@ -33961,7 +33958,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B372" t="n">
         <v>4</v>
@@ -33989,7 +33986,7 @@
         <v>1.5</v>
       </c>
       <c r="K372" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L372" t="s">
         <v>61</v>
@@ -34013,7 +34010,7 @@
         <v>320</v>
       </c>
       <c r="S372" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="T372" t="s">
         <v>37</v>
@@ -34045,7 +34042,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -34073,7 +34070,7 @@
         <v>0.5</v>
       </c>
       <c r="K373" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L373" t="s">
         <v>61</v>
@@ -34097,7 +34094,7 @@
         <v>141</v>
       </c>
       <c r="S373" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="T373" t="s">
         <v>37</v>
@@ -34129,7 +34126,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B374" t="n">
         <v>5</v>
@@ -34157,7 +34154,7 @@
         <v>1.8</v>
       </c>
       <c r="K374" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L374" t="s">
         <v>61</v>
@@ -34181,7 +34178,7 @@
         <v>304</v>
       </c>
       <c r="S374" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="T374" t="s">
         <v>37</v>
@@ -34213,7 +34210,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B375" t="n">
         <v>3</v>
@@ -34241,7 +34238,7 @@
         <v>0.7</v>
       </c>
       <c r="K375" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L375" t="s">
         <v>34</v>
@@ -34265,7 +34262,7 @@
         <v>142</v>
       </c>
       <c r="S375" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="T375" t="s">
         <v>37</v>
@@ -34297,7 +34294,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B376" t="n">
         <v>3</v>
@@ -34325,7 +34322,7 @@
         <v>0.2</v>
       </c>
       <c r="K376" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L376" t="s">
         <v>61</v>
@@ -34349,7 +34346,7 @@
         <v>172</v>
       </c>
       <c r="S376" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="T376" t="s">
         <v>37</v>
@@ -34381,7 +34378,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -34393,7 +34390,7 @@
         <v>2</v>
       </c>
       <c r="E377" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F377" t="n">
         <v>10000000</v>
@@ -34409,7 +34406,7 @@
         <v>0.9</v>
       </c>
       <c r="K377" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L377" t="s">
         <v>34</v>
@@ -34433,7 +34430,7 @@
         <v>150</v>
       </c>
       <c r="S377" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="T377" t="s">
         <v>37</v>
@@ -34465,7 +34462,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -34493,7 +34490,7 @@
         <v>1.1</v>
       </c>
       <c r="K378" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L378" t="s">
         <v>61</v>
@@ -34517,7 +34514,7 @@
         <v>207</v>
       </c>
       <c r="S378" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="T378" t="s">
         <v>37</v>
@@ -34549,7 +34546,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -34577,7 +34574,7 @@
         <v>0.8</v>
       </c>
       <c r="K379" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L379" t="s">
         <v>34</v>
@@ -34601,7 +34598,7 @@
         <v>144</v>
       </c>
       <c r="S379" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="T379" t="s">
         <v>37</v>
@@ -34618,7 +34615,7 @@
         <v>37</v>
       </c>
       <c r="Z379" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AA379" t="s">
         <v>39</v>
@@ -34635,7 +34632,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -34681,7 +34678,7 @@
         <v>277</v>
       </c>
       <c r="S380" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="T380" t="s">
         <v>37</v>
@@ -34713,7 +34710,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B381" t="n">
         <v>4</v>
@@ -34741,7 +34738,7 @@
         <v>0.8</v>
       </c>
       <c r="K381" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L381" t="s">
         <v>34</v>
@@ -34765,7 +34762,7 @@
         <v>168</v>
       </c>
       <c r="S381" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="T381" t="s">
         <v>37</v>
@@ -34797,7 +34794,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B382" t="n">
         <v>4</v>
@@ -34825,7 +34822,7 @@
         <v>1.3</v>
       </c>
       <c r="K382" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L382" t="s">
         <v>34</v>
@@ -34849,7 +34846,7 @@
         <v>242</v>
       </c>
       <c r="S382" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="T382" t="s">
         <v>37</v>
@@ -34883,7 +34880,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B383" t="n">
         <v>5</v>
@@ -34935,7 +34932,7 @@
         <v>154</v>
       </c>
       <c r="S383" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T383" t="s">
         <v>37</v>
@@ -34967,7 +34964,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B384" t="n">
         <v>6</v>
@@ -35019,7 +35016,7 @@
         <v>168</v>
       </c>
       <c r="S384" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="T384" t="s">
         <v>37</v>
@@ -35036,7 +35033,7 @@
         <v>37</v>
       </c>
       <c r="Z384" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AA384" t="s">
         <v>39</v>
@@ -35053,7 +35050,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -35081,7 +35078,7 @@
         <v>0.9</v>
       </c>
       <c r="K385" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L385" t="s">
         <v>61</v>
@@ -35105,7 +35102,7 @@
         <v>258</v>
       </c>
       <c r="S385" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="T385" t="s">
         <v>37</v>
@@ -35137,7 +35134,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -35183,7 +35180,7 @@
         <v>256</v>
       </c>
       <c r="S386" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="T386" t="s">
         <v>37</v>
@@ -35215,7 +35212,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -35267,7 +35264,7 @@
         <v>141</v>
       </c>
       <c r="S387" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="T387" t="s">
         <v>37</v>
@@ -35299,7 +35296,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -35311,7 +35308,7 @@
         <v>8</v>
       </c>
       <c r="E388" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F388" t="n">
         <v>5550000</v>
@@ -35327,7 +35324,7 @@
         <v>1.2</v>
       </c>
       <c r="K388" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L388" t="s">
         <v>34</v>
@@ -35351,7 +35348,7 @@
         <v>223</v>
       </c>
       <c r="S388" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T388" t="s">
         <v>37</v>
@@ -35383,7 +35380,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -35411,7 +35408,7 @@
         <v>0.7</v>
       </c>
       <c r="K389" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L389"/>
       <c r="M389"/>
@@ -35431,7 +35428,7 @@
         <v>170</v>
       </c>
       <c r="S389" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T389" t="s">
         <v>37</v>
@@ -35448,7 +35445,7 @@
         <v>37</v>
       </c>
       <c r="Z389" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AA389" t="s">
         <v>39</v>
@@ -35465,7 +35462,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B390" t="n">
         <v>3</v>
@@ -35517,7 +35514,7 @@
         <v>135</v>
       </c>
       <c r="S390" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T390" t="s">
         <v>37</v>
@@ -35549,7 +35546,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -35561,7 +35558,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F391" t="n">
         <v>19108800</v>
@@ -35577,7 +35574,7 @@
         <v>1.1</v>
       </c>
       <c r="K391" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L391" t="s">
         <v>34</v>
@@ -35592,7 +35589,7 @@
         <v>35</v>
       </c>
       <c r="P391" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q391" t="n">
         <v>167</v>
@@ -35601,7 +35598,7 @@
         <v>202</v>
       </c>
       <c r="S391" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="T391" t="s">
         <v>37</v>
@@ -35633,7 +35630,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B392" t="n">
         <v>4</v>
@@ -35685,7 +35682,7 @@
         <v>145</v>
       </c>
       <c r="S392" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="T392" t="s">
         <v>37</v>
@@ -35717,7 +35714,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B393" t="n">
         <v>3</v>
@@ -35769,7 +35766,7 @@
         <v>163</v>
       </c>
       <c r="S393" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T393" t="s">
         <v>37</v>
@@ -35786,7 +35783,7 @@
         <v>37</v>
       </c>
       <c r="Z393" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AA393" t="s">
         <v>39</v>
@@ -35803,7 +35800,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -35815,7 +35812,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F394" t="n">
         <v>1860000</v>
@@ -35831,7 +35828,7 @@
         <v>1.1</v>
       </c>
       <c r="K394" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L394" t="s">
         <v>34</v>
@@ -35846,7 +35843,7 @@
         <v>35</v>
       </c>
       <c r="P394" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q394" t="n">
         <v>177</v>
@@ -35855,7 +35852,7 @@
         <v>210</v>
       </c>
       <c r="S394" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="T394" t="s">
         <v>37</v>
@@ -35887,7 +35884,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -35899,7 +35896,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F395"/>
       <c r="G395" t="n">
@@ -35915,7 +35912,7 @@
         <v>1.1</v>
       </c>
       <c r="K395" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L395" t="s">
         <v>34</v>
@@ -35930,7 +35927,7 @@
         <v>35</v>
       </c>
       <c r="P395" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q395" t="n">
         <v>157</v>
@@ -35939,7 +35936,7 @@
         <v>188</v>
       </c>
       <c r="S395" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="T395" t="s">
         <v>37</v>
@@ -35971,7 +35968,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -35999,7 +35996,7 @@
         <v>1</v>
       </c>
       <c r="K396" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L396" t="s">
         <v>34</v>
@@ -36023,7 +36020,7 @@
         <v>230</v>
       </c>
       <c r="S396" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="T396" t="s">
         <v>37</v>
@@ -36040,7 +36037,7 @@
         <v>37</v>
       </c>
       <c r="Z396" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA396" t="s">
         <v>39</v>
@@ -36057,7 +36054,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -36069,7 +36066,7 @@
         <v>13</v>
       </c>
       <c r="E397" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F397"/>
       <c r="G397" t="n">
@@ -36085,7 +36082,7 @@
         <v>1</v>
       </c>
       <c r="K397" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L397" t="s">
         <v>34</v>
@@ -36100,7 +36097,7 @@
         <v>35</v>
       </c>
       <c r="P397" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q397" t="n">
         <v>152</v>
@@ -36109,7 +36106,7 @@
         <v>180</v>
       </c>
       <c r="S397" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T397" t="s">
         <v>37</v>
@@ -36143,7 +36140,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -36171,7 +36168,7 @@
         <v>0.8</v>
       </c>
       <c r="K398" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L398"/>
       <c r="M398"/>
@@ -36191,7 +36188,7 @@
         <v>124</v>
       </c>
       <c r="S398" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T398" t="s">
         <v>37</v>
@@ -36223,7 +36220,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -36251,7 +36248,7 @@
         <v>0.7</v>
       </c>
       <c r="K399" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L399"/>
       <c r="M399"/>
@@ -36271,7 +36268,7 @@
         <v>123</v>
       </c>
       <c r="S399" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="T399" t="s">
         <v>37</v>

--- a/inputs/tsi_seroconvertor_beehive.xlsx
+++ b/inputs/tsi_seroconvertor_beehive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
   <si>
     <t xml:space="preserve">scount</t>
   </si>
@@ -1785,6 +1785,9 @@
   </si>
   <si>
     <t xml:space="preserve">200814_20-09750_HIV10-01398_FL31_S24_L000_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gap_big_gp120; uneven_pol</t>
   </si>
   <si>
     <t xml:space="preserve">10-01411</t>
@@ -10729,7 +10732,7 @@
         <v>97</v>
       </c>
       <c r="N91" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O91" t="s">
         <v>35</v>
@@ -10760,7 +10763,9 @@
       <c r="Y91" t="s">
         <v>37</v>
       </c>
-      <c r="Z91"/>
+      <c r="Z91" t="s">
+        <v>264</v>
+      </c>
       <c r="AA91" t="s">
         <v>39</v>
       </c>
@@ -12681,7 +12686,7 @@
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O115" t="s">
         <v>35</v>
@@ -12712,7 +12717,9 @@
       <c r="Y115" t="s">
         <v>37</v>
       </c>
-      <c r="Z115"/>
+      <c r="Z115" t="s">
+        <v>264</v>
+      </c>
       <c r="AA115" t="s">
         <v>45</v>
       </c>
@@ -21619,7 +21626,7 @@
         <v>98</v>
       </c>
       <c r="N223" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O223" t="s">
         <v>35</v>
@@ -21651,7 +21658,7 @@
         <v>37</v>
       </c>
       <c r="Z223" t="s">
-        <v>173</v>
+        <v>591</v>
       </c>
       <c r="AA223" t="s">
         <v>39</v>
@@ -21668,7 +21675,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -21720,7 +21727,7 @@
         <v>149</v>
       </c>
       <c r="S224" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="T224" t="s">
         <v>37</v>
@@ -21752,7 +21759,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -21798,7 +21805,7 @@
         <v>254</v>
       </c>
       <c r="S225" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T225" t="s">
         <v>37</v>
@@ -21830,7 +21837,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -21876,7 +21883,7 @@
         <v>221</v>
       </c>
       <c r="S226" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T226" t="s">
         <v>37</v>
@@ -21908,7 +21915,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -21945,7 +21952,7 @@
         <v>35</v>
       </c>
       <c r="P227" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q227" t="n">
         <v>193</v>
@@ -21954,7 +21961,7 @@
         <v>214</v>
       </c>
       <c r="S227" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T227" t="s">
         <v>50</v>
@@ -21973,7 +21980,7 @@
         <v>37</v>
       </c>
       <c r="Z227" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA227" t="s">
         <v>45</v>
@@ -21990,7 +21997,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B228" t="n">
         <v>4</v>
@@ -22042,7 +22049,7 @@
         <v>239</v>
       </c>
       <c r="S228" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T228" t="s">
         <v>50</v>
@@ -22078,7 +22085,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B229" t="n">
         <v>3</v>
@@ -22130,7 +22137,7 @@
         <v>112</v>
       </c>
       <c r="S229" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T229" t="s">
         <v>37</v>
@@ -22164,7 +22171,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -22210,7 +22217,7 @@
         <v>224</v>
       </c>
       <c r="S230" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T230" t="s">
         <v>37</v>
@@ -22242,7 +22249,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -22288,7 +22295,7 @@
         <v>198</v>
       </c>
       <c r="S231" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T231" t="s">
         <v>37</v>
@@ -22320,7 +22327,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -22372,7 +22379,7 @@
         <v>278</v>
       </c>
       <c r="S232" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T232" t="s">
         <v>37</v>
@@ -22406,7 +22413,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -22458,7 +22465,7 @@
         <v>154</v>
       </c>
       <c r="S233" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="T233" t="s">
         <v>37</v>
@@ -22475,7 +22482,7 @@
         <v>37</v>
       </c>
       <c r="Z233" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA233" t="s">
         <v>39</v>
@@ -22492,7 +22499,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -22538,7 +22545,7 @@
         <v>285</v>
       </c>
       <c r="S234" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T234" t="s">
         <v>37</v>
@@ -22570,7 +22577,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -22598,7 +22605,7 @@
         <v>1.5</v>
       </c>
       <c r="K235" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L235" t="s">
         <v>61</v>
@@ -22622,7 +22629,7 @@
         <v>262</v>
       </c>
       <c r="S235" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T235" t="s">
         <v>37</v>
@@ -22654,7 +22661,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B236" t="n">
         <v>4</v>
@@ -22706,7 +22713,7 @@
         <v>288</v>
       </c>
       <c r="S236" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T236" t="s">
         <v>37</v>
@@ -22740,7 +22747,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -22786,7 +22793,7 @@
         <v>248</v>
       </c>
       <c r="S237" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="T237" t="s">
         <v>50</v>
@@ -22805,7 +22812,7 @@
         <v>37</v>
       </c>
       <c r="Z237" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AA237" t="s">
         <v>45</v>
@@ -22822,7 +22829,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -22868,7 +22875,7 @@
         <v>169</v>
       </c>
       <c r="S238" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T238" t="s">
         <v>37</v>
@@ -22900,7 +22907,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -22931,7 +22938,7 @@
       <c r="L239"/>
       <c r="M239"/>
       <c r="N239" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O239" t="s">
         <v>35</v>
@@ -22946,7 +22953,7 @@
         <v>146</v>
       </c>
       <c r="S239" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T239" t="s">
         <v>37</v>
@@ -22962,7 +22969,9 @@
       <c r="Y239" t="s">
         <v>37</v>
       </c>
-      <c r="Z239"/>
+      <c r="Z239" t="s">
+        <v>264</v>
+      </c>
       <c r="AA239" t="s">
         <v>45</v>
       </c>
@@ -22978,7 +22987,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -23024,7 +23033,7 @@
         <v>248</v>
       </c>
       <c r="S240" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T240" t="s">
         <v>37</v>
@@ -23056,7 +23065,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -23102,7 +23111,7 @@
         <v>220</v>
       </c>
       <c r="S241" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T241" t="s">
         <v>50</v>
@@ -23121,7 +23130,7 @@
         <v>37</v>
       </c>
       <c r="Z241" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA241" t="s">
         <v>45</v>
@@ -23138,7 +23147,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -23184,7 +23193,7 @@
         <v>278</v>
       </c>
       <c r="S242" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="T242" t="s">
         <v>37</v>
@@ -23218,7 +23227,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -23264,7 +23273,7 @@
         <v>217</v>
       </c>
       <c r="S243" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T243" t="s">
         <v>37</v>
@@ -23298,7 +23307,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B244" t="n">
         <v>4</v>
@@ -23326,7 +23335,7 @@
         <v>0.5</v>
       </c>
       <c r="K244" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L244" t="s">
         <v>61</v>
@@ -23350,7 +23359,7 @@
         <v>118</v>
       </c>
       <c r="S244" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T244" t="s">
         <v>37</v>
@@ -23382,7 +23391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -23428,7 +23437,7 @@
         <v>259</v>
       </c>
       <c r="S245" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T245" t="s">
         <v>37</v>
@@ -23460,7 +23469,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B246" t="n">
         <v>4</v>
@@ -23512,7 +23521,7 @@
         <v>135</v>
       </c>
       <c r="S246" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T246" t="s">
         <v>37</v>
@@ -23544,7 +23553,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -23596,7 +23605,7 @@
         <v>170</v>
       </c>
       <c r="S247" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T247" t="s">
         <v>37</v>
@@ -23628,7 +23637,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -23674,7 +23683,7 @@
         <v>273</v>
       </c>
       <c r="S248" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T248" t="s">
         <v>37</v>
@@ -23706,7 +23715,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B249" t="n">
         <v>3</v>
@@ -23734,7 +23743,7 @@
         <v>0.6</v>
       </c>
       <c r="K249" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L249" t="s">
         <v>61</v>
@@ -23749,7 +23758,7 @@
         <v>35</v>
       </c>
       <c r="P249" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q249" t="n">
         <v>107</v>
@@ -23758,7 +23767,7 @@
         <v>117</v>
       </c>
       <c r="S249" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T249" t="s">
         <v>37</v>
@@ -23790,7 +23799,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -23836,7 +23845,7 @@
         <v>170</v>
       </c>
       <c r="S250" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T250" t="s">
         <v>50</v>
@@ -23855,7 +23864,7 @@
         <v>37</v>
       </c>
       <c r="Z250" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AA250" t="s">
         <v>45</v>
@@ -23872,7 +23881,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B251" t="n">
         <v>3</v>
@@ -23924,7 +23933,7 @@
         <v>127</v>
       </c>
       <c r="S251" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T251" t="s">
         <v>37</v>
@@ -23956,7 +23965,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B252" t="n">
         <v>3</v>
@@ -23984,7 +23993,7 @@
         <v>0.7</v>
       </c>
       <c r="K252" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L252" t="s">
         <v>61</v>
@@ -24008,7 +24017,7 @@
         <v>262</v>
       </c>
       <c r="S252" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T252" t="s">
         <v>37</v>
@@ -24040,7 +24049,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -24068,7 +24077,7 @@
         <v>1.1</v>
       </c>
       <c r="K253" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L253" t="s">
         <v>61</v>
@@ -24092,7 +24101,7 @@
         <v>320</v>
       </c>
       <c r="S253" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T253" t="s">
         <v>37</v>
@@ -24124,7 +24133,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -24170,7 +24179,7 @@
         <v>209</v>
       </c>
       <c r="S254" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T254" t="s">
         <v>37</v>
@@ -24204,7 +24213,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -24241,7 +24250,7 @@
         <v>35</v>
       </c>
       <c r="P255" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q255" t="n">
         <v>225</v>
@@ -24250,7 +24259,7 @@
         <v>261</v>
       </c>
       <c r="S255" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T255" t="s">
         <v>37</v>
@@ -24282,7 +24291,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B256" t="n">
         <v>3</v>
@@ -24325,7 +24334,7 @@
         <v>35</v>
       </c>
       <c r="P256" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q256" t="n">
         <v>153</v>
@@ -24334,7 +24343,7 @@
         <v>194</v>
       </c>
       <c r="S256" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T256" t="s">
         <v>37</v>
@@ -24351,7 +24360,7 @@
         <v>37</v>
       </c>
       <c r="Z256" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA256" t="s">
         <v>39</v>
@@ -24368,7 +24377,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -24396,7 +24405,7 @@
         <v>0.5</v>
       </c>
       <c r="K257" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L257" t="s">
         <v>34</v>
@@ -24420,7 +24429,7 @@
         <v>143</v>
       </c>
       <c r="S257" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="T257" t="s">
         <v>37</v>
@@ -24452,7 +24461,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B258" t="n">
         <v>5</v>
@@ -24480,7 +24489,7 @@
         <v>0.8</v>
       </c>
       <c r="K258" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L258" t="s">
         <v>61</v>
@@ -24504,7 +24513,7 @@
         <v>133</v>
       </c>
       <c r="S258" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T258" t="s">
         <v>37</v>
@@ -24536,7 +24545,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -24564,7 +24573,7 @@
         <v>1.4</v>
       </c>
       <c r="K259" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L259" t="s">
         <v>61</v>
@@ -24588,7 +24597,7 @@
         <v>297</v>
       </c>
       <c r="S259" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="T259" t="s">
         <v>37</v>
@@ -24620,7 +24629,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -24666,7 +24675,7 @@
         <v>291</v>
       </c>
       <c r="S260" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T260" t="s">
         <v>37</v>
@@ -24683,7 +24692,7 @@
         <v>37</v>
       </c>
       <c r="Z260" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AA260" t="s">
         <v>45</v>
@@ -24700,7 +24709,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -24746,7 +24755,7 @@
         <v>291</v>
       </c>
       <c r="S261" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T261" t="s">
         <v>37</v>
@@ -24778,7 +24787,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B262" t="n">
         <v>6</v>
@@ -24806,7 +24815,7 @@
         <v>1.3</v>
       </c>
       <c r="K262" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L262" t="s">
         <v>61</v>
@@ -24830,7 +24839,7 @@
         <v>254</v>
       </c>
       <c r="S262" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T262" t="s">
         <v>37</v>
@@ -24862,7 +24871,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -24908,7 +24917,7 @@
         <v>291</v>
       </c>
       <c r="S263" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T263" t="s">
         <v>37</v>
@@ -24940,7 +24949,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -24992,7 +25001,7 @@
         <v>187</v>
       </c>
       <c r="S264" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T264" t="s">
         <v>37</v>
@@ -25024,7 +25033,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -25052,7 +25061,7 @@
         <v>0.7</v>
       </c>
       <c r="K265" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L265" t="s">
         <v>61</v>
@@ -25076,7 +25085,7 @@
         <v>135</v>
       </c>
       <c r="S265" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="T265" t="s">
         <v>37</v>
@@ -25108,7 +25117,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B266" t="n">
         <v>3</v>
@@ -25136,7 +25145,7 @@
         <v>0.5</v>
       </c>
       <c r="K266" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L266" t="s">
         <v>34</v>
@@ -25160,7 +25169,7 @@
         <v>96</v>
       </c>
       <c r="S266" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="T266" t="s">
         <v>37</v>
@@ -25192,7 +25201,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B267" t="n">
         <v>3</v>
@@ -25220,7 +25229,7 @@
         <v>0.6</v>
       </c>
       <c r="K267" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L267" t="s">
         <v>61</v>
@@ -25244,7 +25253,7 @@
         <v>123</v>
       </c>
       <c r="S267" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T267" t="s">
         <v>37</v>
@@ -25261,7 +25270,7 @@
         <v>37</v>
       </c>
       <c r="Z267" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AA267" t="s">
         <v>39</v>
@@ -25278,7 +25287,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -25324,7 +25333,7 @@
         <v>192</v>
       </c>
       <c r="S268" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T268" t="s">
         <v>37</v>
@@ -25341,7 +25350,7 @@
         <v>37</v>
       </c>
       <c r="Z268" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AA268" t="s">
         <v>45</v>
@@ -25358,7 +25367,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -25404,7 +25413,7 @@
         <v>300</v>
       </c>
       <c r="S269" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T269" t="s">
         <v>37</v>
@@ -25436,7 +25445,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B270" t="n">
         <v>4</v>
@@ -25464,7 +25473,7 @@
         <v>0.3</v>
       </c>
       <c r="K270" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L270" t="s">
         <v>61</v>
@@ -25488,7 +25497,7 @@
         <v>144</v>
       </c>
       <c r="S270" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T270" t="s">
         <v>37</v>
@@ -25520,7 +25529,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -25548,7 +25557,7 @@
         <v>0.6</v>
       </c>
       <c r="K271" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L271" t="s">
         <v>61</v>
@@ -25572,7 +25581,7 @@
         <v>109</v>
       </c>
       <c r="S271" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="T271" t="s">
         <v>37</v>
@@ -25604,7 +25613,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -25650,7 +25659,7 @@
         <v>218</v>
       </c>
       <c r="S272" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T272" t="s">
         <v>50</v>
@@ -25669,7 +25678,7 @@
         <v>37</v>
       </c>
       <c r="Z272" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AA272" t="s">
         <v>45</v>
@@ -25686,7 +25695,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B273" t="n">
         <v>3</v>
@@ -25714,7 +25723,7 @@
         <v>0.7</v>
       </c>
       <c r="K273" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L273" t="s">
         <v>61</v>
@@ -25738,7 +25747,7 @@
         <v>117</v>
       </c>
       <c r="S273" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T273" t="s">
         <v>37</v>
@@ -25770,7 +25779,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B274" t="n">
         <v>5</v>
@@ -25798,7 +25807,7 @@
         <v>0.7</v>
       </c>
       <c r="K274" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L274" t="s">
         <v>61</v>
@@ -25822,7 +25831,7 @@
         <v>112</v>
       </c>
       <c r="S274" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="T274" t="s">
         <v>37</v>
@@ -25854,7 +25863,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B275" t="n">
         <v>4</v>
@@ -25906,7 +25915,7 @@
         <v>172</v>
       </c>
       <c r="S275" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T275" t="s">
         <v>37</v>
@@ -25940,7 +25949,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B276" t="n">
         <v>3</v>
@@ -25992,7 +26001,7 @@
         <v>175</v>
       </c>
       <c r="S276" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T276" t="s">
         <v>37</v>
@@ -26024,7 +26033,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B277" t="n">
         <v>3</v>
@@ -26076,7 +26085,7 @@
         <v>147</v>
       </c>
       <c r="S277" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T277" t="s">
         <v>37</v>
@@ -26108,7 +26117,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B278" t="n">
         <v>3</v>
@@ -26160,7 +26169,7 @@
         <v>146</v>
       </c>
       <c r="S278" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="T278" t="s">
         <v>37</v>
@@ -26192,7 +26201,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -26238,7 +26247,7 @@
         <v>182</v>
       </c>
       <c r="S279" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T279" t="s">
         <v>50</v>
@@ -26257,7 +26266,7 @@
         <v>37</v>
       </c>
       <c r="Z279" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AA279" t="s">
         <v>45</v>
@@ -26274,7 +26283,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -26320,7 +26329,7 @@
         <v>273</v>
       </c>
       <c r="S280" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="T280" t="s">
         <v>37</v>
@@ -26337,7 +26346,7 @@
         <v>37</v>
       </c>
       <c r="Z280" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AA280" t="s">
         <v>45</v>
@@ -26354,7 +26363,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B281" t="n">
         <v>5</v>
@@ -26406,7 +26415,7 @@
         <v>134</v>
       </c>
       <c r="S281" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T281" t="s">
         <v>37</v>
@@ -26438,7 +26447,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B282" t="n">
         <v>4</v>
@@ -26490,7 +26499,7 @@
         <v>134</v>
       </c>
       <c r="S282" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T282" t="s">
         <v>37</v>
@@ -26522,7 +26531,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B283" t="n">
         <v>4</v>
@@ -26574,7 +26583,7 @@
         <v>138</v>
       </c>
       <c r="S283" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T283" t="s">
         <v>37</v>
@@ -26606,7 +26615,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -26658,7 +26667,7 @@
         <v>170</v>
       </c>
       <c r="S284" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T284" t="s">
         <v>37</v>
@@ -26690,7 +26699,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B285" t="n">
         <v>5</v>
@@ -26718,7 +26727,7 @@
         <v>0.7</v>
       </c>
       <c r="K285" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L285" t="s">
         <v>61</v>
@@ -26742,7 +26751,7 @@
         <v>127</v>
       </c>
       <c r="S285" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T285" t="s">
         <v>37</v>
@@ -26774,7 +26783,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B286" t="n">
         <v>3</v>
@@ -26802,7 +26811,7 @@
         <v>0.8</v>
       </c>
       <c r="K286" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L286" t="s">
         <v>61</v>
@@ -26826,7 +26835,7 @@
         <v>125</v>
       </c>
       <c r="S286" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T286" t="s">
         <v>37</v>
@@ -26858,7 +26867,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -26886,7 +26895,7 @@
         <v>0.7</v>
       </c>
       <c r="K287" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L287" t="s">
         <v>61</v>
@@ -26910,7 +26919,7 @@
         <v>123</v>
       </c>
       <c r="S287" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="T287" t="s">
         <v>37</v>
@@ -26942,7 +26951,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B288" t="n">
         <v>3</v>
@@ -26970,7 +26979,7 @@
         <v>0.7</v>
       </c>
       <c r="K288" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L288" t="s">
         <v>34</v>
@@ -26994,7 +27003,7 @@
         <v>129</v>
       </c>
       <c r="S288" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="T288" t="s">
         <v>37</v>
@@ -27026,7 +27035,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B289" t="n">
         <v>6</v>
@@ -27054,7 +27063,7 @@
         <v>0.7</v>
       </c>
       <c r="K289" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L289" t="s">
         <v>61</v>
@@ -27078,7 +27087,7 @@
         <v>151</v>
       </c>
       <c r="S289" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T289" t="s">
         <v>37</v>
@@ -27110,7 +27119,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B290" t="n">
         <v>5</v>
@@ -27162,7 +27171,7 @@
         <v>182</v>
       </c>
       <c r="S290" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T290" t="s">
         <v>37</v>
@@ -27194,7 +27203,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B291" t="n">
         <v>6</v>
@@ -27222,7 +27231,7 @@
         <v>0.8</v>
       </c>
       <c r="K291" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L291" t="s">
         <v>34</v>
@@ -27246,7 +27255,7 @@
         <v>159</v>
       </c>
       <c r="S291" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T291" t="s">
         <v>37</v>
@@ -27280,7 +27289,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B292" t="n">
         <v>3</v>
@@ -27308,7 +27317,7 @@
         <v>0.8</v>
       </c>
       <c r="K292" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L292" t="s">
         <v>61</v>
@@ -27332,7 +27341,7 @@
         <v>179</v>
       </c>
       <c r="S292" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T292" t="s">
         <v>37</v>
@@ -27364,7 +27373,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -27392,7 +27401,7 @@
         <v>0.4</v>
       </c>
       <c r="K293" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L293" t="s">
         <v>61</v>
@@ -27416,7 +27425,7 @@
         <v>114</v>
       </c>
       <c r="S293" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T293" t="s">
         <v>37</v>
@@ -27448,7 +27457,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -27494,7 +27503,7 @@
         <v>180</v>
       </c>
       <c r="S294" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T294" t="s">
         <v>37</v>
@@ -27526,7 +27535,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B295" t="n">
         <v>4</v>
@@ -27554,7 +27563,7 @@
         <v>0.9</v>
       </c>
       <c r="K295" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L295" t="s">
         <v>61</v>
@@ -27569,7 +27578,7 @@
         <v>35</v>
       </c>
       <c r="P295" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q295" t="n">
         <v>146</v>
@@ -27578,7 +27587,7 @@
         <v>161</v>
       </c>
       <c r="S295" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T295" t="s">
         <v>37</v>
@@ -27610,7 +27619,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -27662,7 +27671,7 @@
         <v>187</v>
       </c>
       <c r="S296" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T296" t="s">
         <v>37</v>
@@ -27694,7 +27703,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -27722,7 +27731,7 @@
         <v>1</v>
       </c>
       <c r="K297" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L297" t="s">
         <v>34</v>
@@ -27746,7 +27755,7 @@
         <v>233</v>
       </c>
       <c r="S297" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T297" t="s">
         <v>37</v>
@@ -27778,7 +27787,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -27790,7 +27799,7 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F298"/>
       <c r="G298" t="n">
@@ -27806,7 +27815,7 @@
         <v>0.9</v>
       </c>
       <c r="K298" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L298" t="s">
         <v>61</v>
@@ -27821,7 +27830,7 @@
         <v>35</v>
       </c>
       <c r="P298" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Q298" t="n">
         <v>146</v>
@@ -27830,7 +27839,7 @@
         <v>167</v>
       </c>
       <c r="S298" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T298" t="s">
         <v>37</v>
@@ -27864,7 +27873,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -27892,7 +27901,7 @@
         <v>1</v>
       </c>
       <c r="K299" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L299" t="s">
         <v>34</v>
@@ -27916,7 +27925,7 @@
         <v>177</v>
       </c>
       <c r="S299" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T299" t="s">
         <v>37</v>
@@ -27948,7 +27957,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B300" t="n">
         <v>4</v>
@@ -28000,7 +28009,7 @@
         <v>106</v>
       </c>
       <c r="S300" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T300" t="s">
         <v>37</v>
@@ -28032,7 +28041,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B301" t="n">
         <v>4</v>
@@ -28060,7 +28069,7 @@
         <v>1.1</v>
       </c>
       <c r="K301" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L301" t="s">
         <v>61</v>
@@ -28084,7 +28093,7 @@
         <v>240</v>
       </c>
       <c r="S301" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T301" t="s">
         <v>37</v>
@@ -28116,7 +28125,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B302" t="n">
         <v>3</v>
@@ -28168,7 +28177,7 @@
         <v>143</v>
       </c>
       <c r="S302" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T302" t="s">
         <v>37</v>
@@ -28200,7 +28209,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B303" t="n">
         <v>3</v>
@@ -28228,7 +28237,7 @@
         <v>0.9</v>
       </c>
       <c r="K303" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L303" t="s">
         <v>61</v>
@@ -28243,7 +28252,7 @@
         <v>35</v>
       </c>
       <c r="P303" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q303" t="n">
         <v>141</v>
@@ -28252,7 +28261,7 @@
         <v>166</v>
       </c>
       <c r="S303" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="T303" t="s">
         <v>37</v>
@@ -28269,7 +28278,7 @@
         <v>37</v>
       </c>
       <c r="Z303" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AA303" t="s">
         <v>39</v>
@@ -28286,7 +28295,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B304" t="n">
         <v>4</v>
@@ -28314,7 +28323,7 @@
         <v>0.2</v>
       </c>
       <c r="K304" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L304" t="s">
         <v>61</v>
@@ -28338,7 +28347,7 @@
         <v>123</v>
       </c>
       <c r="S304" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="T304" t="s">
         <v>37</v>
@@ -28355,7 +28364,7 @@
         <v>37</v>
       </c>
       <c r="Z304" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AA304" t="s">
         <v>39</v>
@@ -28372,7 +28381,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -28409,7 +28418,7 @@
         <v>35</v>
       </c>
       <c r="P305" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q305" t="n">
         <v>205</v>
@@ -28418,7 +28427,7 @@
         <v>236</v>
       </c>
       <c r="S305" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="T305" t="s">
         <v>37</v>
@@ -28450,7 +28459,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -28496,7 +28505,7 @@
         <v>267</v>
       </c>
       <c r="S306" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T306" t="s">
         <v>37</v>
@@ -28528,7 +28537,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B307" t="n">
         <v>6</v>
@@ -28556,7 +28565,7 @@
         <v>0.8</v>
       </c>
       <c r="K307" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L307" t="s">
         <v>61</v>
@@ -28580,7 +28589,7 @@
         <v>150</v>
       </c>
       <c r="S307" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="T307" t="s">
         <v>37</v>
@@ -28612,7 +28621,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -28640,7 +28649,7 @@
         <v>0.7</v>
       </c>
       <c r="K308" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L308" t="s">
         <v>61</v>
@@ -28664,7 +28673,7 @@
         <v>159</v>
       </c>
       <c r="S308" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T308" t="s">
         <v>37</v>
@@ -28696,7 +28705,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B309" t="n">
         <v>4</v>
@@ -28724,7 +28733,7 @@
         <v>0.3</v>
       </c>
       <c r="K309" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L309" t="s">
         <v>61</v>
@@ -28748,7 +28757,7 @@
         <v>141</v>
       </c>
       <c r="S309" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T309" t="s">
         <v>37</v>
@@ -28765,7 +28774,7 @@
         <v>37</v>
       </c>
       <c r="Z309" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA309" t="s">
         <v>39</v>
@@ -28782,7 +28791,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -28828,7 +28837,7 @@
         <v>325</v>
       </c>
       <c r="S310" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T310" t="s">
         <v>37</v>
@@ -28860,7 +28869,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -28888,7 +28897,7 @@
         <v>0.5</v>
       </c>
       <c r="K311" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L311" t="s">
         <v>61</v>
@@ -28912,7 +28921,7 @@
         <v>120</v>
       </c>
       <c r="S311" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T311" t="s">
         <v>37</v>
@@ -28929,7 +28938,7 @@
         <v>37</v>
       </c>
       <c r="Z311" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA311" t="s">
         <v>39</v>
@@ -28946,7 +28955,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B312" t="n">
         <v>3</v>
@@ -28974,7 +28983,7 @@
         <v>0.2</v>
       </c>
       <c r="K312" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L312" t="s">
         <v>61</v>
@@ -28998,7 +29007,7 @@
         <v>124</v>
       </c>
       <c r="S312" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T312" t="s">
         <v>37</v>
@@ -29015,7 +29024,7 @@
         <v>50</v>
       </c>
       <c r="Z312" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AA312" t="s">
         <v>39</v>
@@ -29032,7 +29041,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -29060,7 +29069,7 @@
         <v>0.7</v>
       </c>
       <c r="K313" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L313" t="s">
         <v>34</v>
@@ -29084,7 +29093,7 @@
         <v>141</v>
       </c>
       <c r="S313" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T313" t="s">
         <v>37</v>
@@ -29116,7 +29125,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -29162,7 +29171,7 @@
         <v>409</v>
       </c>
       <c r="S314" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="T314" t="s">
         <v>50</v>
@@ -29198,7 +29207,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B315" t="n">
         <v>5</v>
@@ -29226,7 +29235,7 @@
         <v>0.2</v>
       </c>
       <c r="K315" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L315" t="s">
         <v>61</v>
@@ -29250,7 +29259,7 @@
         <v>147</v>
       </c>
       <c r="S315" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T315" t="s">
         <v>50</v>
@@ -29269,7 +29278,7 @@
         <v>37</v>
       </c>
       <c r="Z315" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AA315" t="s">
         <v>39</v>
@@ -29286,7 +29295,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -29314,7 +29323,7 @@
         <v>0.3</v>
       </c>
       <c r="K316" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L316" t="s">
         <v>34</v>
@@ -29338,7 +29347,7 @@
         <v>124</v>
       </c>
       <c r="S316" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="T316" t="s">
         <v>37</v>
@@ -29355,7 +29364,7 @@
         <v>37</v>
       </c>
       <c r="Z316" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA316" t="s">
         <v>39</v>
@@ -29372,7 +29381,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -29418,7 +29427,7 @@
         <v>285</v>
       </c>
       <c r="S317" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="T317" t="s">
         <v>37</v>
@@ -29450,7 +29459,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -29478,7 +29487,7 @@
         <v>0.9</v>
       </c>
       <c r="K318" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L318" t="s">
         <v>34</v>
@@ -29502,7 +29511,7 @@
         <v>197</v>
       </c>
       <c r="S318" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="T318" t="s">
         <v>37</v>
@@ -29534,7 +29543,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B319" t="n">
         <v>3</v>
@@ -29562,7 +29571,7 @@
         <v>1.5</v>
       </c>
       <c r="K319" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L319" t="s">
         <v>61</v>
@@ -29586,7 +29595,7 @@
         <v>263</v>
       </c>
       <c r="S319" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="T319" t="s">
         <v>37</v>
@@ -29618,7 +29627,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B320" t="n">
         <v>4</v>
@@ -29646,7 +29655,7 @@
         <v>0.8</v>
       </c>
       <c r="K320" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L320" t="s">
         <v>61</v>
@@ -29670,7 +29679,7 @@
         <v>186</v>
       </c>
       <c r="S320" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T320" t="s">
         <v>37</v>
@@ -29702,7 +29711,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B321" t="n">
         <v>3</v>
@@ -29730,7 +29739,7 @@
         <v>1</v>
       </c>
       <c r="K321" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L321" t="s">
         <v>34</v>
@@ -29754,7 +29763,7 @@
         <v>209</v>
       </c>
       <c r="S321" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T321" t="s">
         <v>37</v>
@@ -29786,7 +29795,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -29814,7 +29823,7 @@
         <v>0.5</v>
       </c>
       <c r="K322" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L322" t="s">
         <v>34</v>
@@ -29838,7 +29847,7 @@
         <v>179</v>
       </c>
       <c r="S322" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="T322" t="s">
         <v>37</v>
@@ -29870,7 +29879,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B323" t="n">
         <v>3</v>
@@ -29916,7 +29925,7 @@
         <v>239</v>
       </c>
       <c r="S323" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T323" t="s">
         <v>50</v>
@@ -29935,7 +29944,7 @@
         <v>37</v>
       </c>
       <c r="Z323" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AA323" t="s">
         <v>45</v>
@@ -29952,7 +29961,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -29980,7 +29989,7 @@
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L324" t="s">
         <v>61</v>
@@ -30004,7 +30013,7 @@
         <v>163</v>
       </c>
       <c r="S324" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T324" t="s">
         <v>37</v>
@@ -30036,7 +30045,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B325" t="n">
         <v>4</v>
@@ -30064,7 +30073,7 @@
         <v>1</v>
       </c>
       <c r="K325" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L325" t="s">
         <v>61</v>
@@ -30088,7 +30097,7 @@
         <v>205</v>
       </c>
       <c r="S325" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="T325" t="s">
         <v>37</v>
@@ -30120,7 +30129,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B326" t="n">
         <v>3</v>
@@ -30148,7 +30157,7 @@
         <v>1.3</v>
       </c>
       <c r="K326" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L326" t="s">
         <v>61</v>
@@ -30172,7 +30181,7 @@
         <v>223</v>
       </c>
       <c r="S326" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="T326" t="s">
         <v>37</v>
@@ -30206,7 +30215,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B327" t="n">
         <v>3</v>
@@ -30234,7 +30243,7 @@
         <v>0.9</v>
       </c>
       <c r="K327" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L327" t="s">
         <v>61</v>
@@ -30258,7 +30267,7 @@
         <v>184</v>
       </c>
       <c r="S327" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="T327" t="s">
         <v>37</v>
@@ -30290,7 +30299,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B328" t="n">
         <v>3</v>
@@ -30318,7 +30327,7 @@
         <v>0.4</v>
       </c>
       <c r="K328" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L328" t="s">
         <v>61</v>
@@ -30342,7 +30351,7 @@
         <v>175</v>
       </c>
       <c r="S328" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T328" t="s">
         <v>37</v>
@@ -30376,7 +30385,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -30404,7 +30413,7 @@
         <v>0.2</v>
       </c>
       <c r="K329" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L329" t="s">
         <v>34</v>
@@ -30428,7 +30437,7 @@
         <v>125</v>
       </c>
       <c r="S329" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T329" t="s">
         <v>50</v>
@@ -30447,7 +30456,7 @@
         <v>37</v>
       </c>
       <c r="Z329" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AA329" t="s">
         <v>39</v>
@@ -30464,7 +30473,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B330" t="n">
         <v>3</v>
@@ -30492,7 +30501,7 @@
         <v>0.6</v>
       </c>
       <c r="K330" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L330" t="s">
         <v>34</v>
@@ -30516,7 +30525,7 @@
         <v>128</v>
       </c>
       <c r="S330" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="T330" t="s">
         <v>37</v>
@@ -30548,7 +30557,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B331" t="n">
         <v>3</v>
@@ -30576,7 +30585,7 @@
         <v>0.8</v>
       </c>
       <c r="K331" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L331" t="s">
         <v>61</v>
@@ -30600,7 +30609,7 @@
         <v>176</v>
       </c>
       <c r="S331" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="T331" t="s">
         <v>37</v>
@@ -30632,7 +30641,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B332" t="n">
         <v>4</v>
@@ -30660,7 +30669,7 @@
         <v>0.9</v>
       </c>
       <c r="K332" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L332" t="s">
         <v>61</v>
@@ -30684,7 +30693,7 @@
         <v>180</v>
       </c>
       <c r="S332" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="T332" t="s">
         <v>37</v>
@@ -30716,7 +30725,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -30744,7 +30753,7 @@
         <v>0.7</v>
       </c>
       <c r="K333" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L333" t="s">
         <v>34</v>
@@ -30766,7 +30775,7 @@
         <v>129</v>
       </c>
       <c r="S333" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="T333" t="s">
         <v>37</v>
@@ -30798,7 +30807,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -30844,7 +30853,7 @@
         <v>289</v>
       </c>
       <c r="S334" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T334" t="s">
         <v>37</v>
@@ -30876,7 +30885,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -30904,7 +30913,7 @@
         <v>1.2</v>
       </c>
       <c r="K335" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L335" t="s">
         <v>34</v>
@@ -30928,7 +30937,7 @@
         <v>243</v>
       </c>
       <c r="S335" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="T335" t="s">
         <v>37</v>
@@ -30960,7 +30969,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -30988,7 +30997,7 @@
         <v>0.4</v>
       </c>
       <c r="K336" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L336" t="s">
         <v>34</v>
@@ -31012,7 +31021,7 @@
         <v>147</v>
       </c>
       <c r="S336" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="T336" t="s">
         <v>50</v>
@@ -31031,7 +31040,7 @@
         <v>37</v>
       </c>
       <c r="Z336" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AA336" t="s">
         <v>39</v>
@@ -31048,7 +31057,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B337" t="n">
         <v>5</v>
@@ -31076,7 +31085,7 @@
         <v>1.3</v>
       </c>
       <c r="K337" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L337" t="s">
         <v>61</v>
@@ -31100,7 +31109,7 @@
         <v>223</v>
       </c>
       <c r="S337" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="T337" t="s">
         <v>37</v>
@@ -31132,7 +31141,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B338" t="n">
         <v>4</v>
@@ -31160,7 +31169,7 @@
         <v>0.9</v>
       </c>
       <c r="K338" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L338" t="s">
         <v>61</v>
@@ -31184,7 +31193,7 @@
         <v>139</v>
       </c>
       <c r="S338" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="T338" t="s">
         <v>37</v>
@@ -31216,7 +31225,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B339" t="n">
         <v>4</v>
@@ -31244,7 +31253,7 @@
         <v>0.8</v>
       </c>
       <c r="K339" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L339" t="s">
         <v>61</v>
@@ -31268,7 +31277,7 @@
         <v>145</v>
       </c>
       <c r="S339" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="T339" t="s">
         <v>37</v>
@@ -31302,7 +31311,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -31348,7 +31357,7 @@
         <v>225</v>
       </c>
       <c r="S340" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="T340" t="s">
         <v>37</v>
@@ -31380,7 +31389,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B341" t="n">
         <v>4</v>
@@ -31408,7 +31417,7 @@
         <v>0.7</v>
       </c>
       <c r="K341" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L341" t="s">
         <v>61</v>
@@ -31432,7 +31441,7 @@
         <v>138</v>
       </c>
       <c r="S341" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="T341" t="s">
         <v>37</v>
@@ -31449,7 +31458,7 @@
         <v>37</v>
       </c>
       <c r="Z341" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AA341" t="s">
         <v>39</v>
@@ -31466,7 +31475,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B342" t="n">
         <v>4</v>
@@ -31494,7 +31503,7 @@
         <v>0.5</v>
       </c>
       <c r="K342" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L342" t="s">
         <v>34</v>
@@ -31518,7 +31527,7 @@
         <v>151</v>
       </c>
       <c r="S342" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="T342" t="s">
         <v>37</v>
@@ -31535,7 +31544,7 @@
         <v>37</v>
       </c>
       <c r="Z342" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AA342" t="s">
         <v>39</v>
@@ -31552,7 +31561,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B343" t="n">
         <v>5</v>
@@ -31580,7 +31589,7 @@
         <v>0.9</v>
       </c>
       <c r="K343" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L343" t="s">
         <v>34</v>
@@ -31604,7 +31613,7 @@
         <v>165</v>
       </c>
       <c r="S343" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T343" t="s">
         <v>37</v>
@@ -31636,7 +31645,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B344" t="n">
         <v>4</v>
@@ -31664,7 +31673,7 @@
         <v>0.8</v>
       </c>
       <c r="K344" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L344" t="s">
         <v>61</v>
@@ -31688,7 +31697,7 @@
         <v>188</v>
       </c>
       <c r="S344" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="T344" t="s">
         <v>37</v>
@@ -31720,7 +31729,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -31748,7 +31757,7 @@
         <v>0.7</v>
       </c>
       <c r="K345" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L345" t="s">
         <v>61</v>
@@ -31772,7 +31781,7 @@
         <v>203</v>
       </c>
       <c r="S345" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="T345" t="s">
         <v>37</v>
@@ -31789,7 +31798,7 @@
         <v>37</v>
       </c>
       <c r="Z345" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AA345" t="s">
         <v>39</v>
@@ -31806,7 +31815,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -31818,7 +31827,7 @@
         <v>377</v>
       </c>
       <c r="E346" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F346"/>
       <c r="G346" t="n">
@@ -31852,7 +31861,7 @@
         <v>159</v>
       </c>
       <c r="S346" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="T346" t="s">
         <v>37</v>
@@ -31886,7 +31895,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -31914,7 +31923,7 @@
         <v>1</v>
       </c>
       <c r="K347" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L347" t="s">
         <v>34</v>
@@ -31938,7 +31947,7 @@
         <v>167</v>
       </c>
       <c r="S347" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="T347" t="s">
         <v>37</v>
@@ -31970,7 +31979,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -32016,7 +32025,7 @@
         <v>299</v>
       </c>
       <c r="S348" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="T348" t="s">
         <v>37</v>
@@ -32050,7 +32059,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -32078,7 +32087,7 @@
         <v>1</v>
       </c>
       <c r="K349" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L349" t="s">
         <v>61</v>
@@ -32102,7 +32111,7 @@
         <v>186</v>
       </c>
       <c r="S349" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="T349" t="s">
         <v>37</v>
@@ -32134,7 +32143,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -32162,7 +32171,7 @@
         <v>0.8</v>
       </c>
       <c r="K350" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L350" t="s">
         <v>61</v>
@@ -32186,7 +32195,7 @@
         <v>173</v>
       </c>
       <c r="S350" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="T350" t="s">
         <v>37</v>
@@ -32218,7 +32227,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -32246,7 +32255,7 @@
         <v>0.8</v>
       </c>
       <c r="K351" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L351" t="s">
         <v>61</v>
@@ -32270,7 +32279,7 @@
         <v>246</v>
       </c>
       <c r="S351" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="T351" t="s">
         <v>37</v>
@@ -32302,7 +32311,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B352" t="n">
         <v>3</v>
@@ -32330,7 +32339,7 @@
         <v>0.8</v>
       </c>
       <c r="K352" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L352" t="s">
         <v>61</v>
@@ -32354,7 +32363,7 @@
         <v>163</v>
       </c>
       <c r="S352" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="T352" t="s">
         <v>37</v>
@@ -32386,7 +32395,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B353" t="n">
         <v>4</v>
@@ -32414,7 +32423,7 @@
         <v>1</v>
       </c>
       <c r="K353" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L353" t="s">
         <v>61</v>
@@ -32438,7 +32447,7 @@
         <v>196</v>
       </c>
       <c r="S353" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="T353" t="s">
         <v>37</v>
@@ -32470,7 +32479,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B354" t="n">
         <v>4</v>
@@ -32498,7 +32507,7 @@
         <v>1</v>
       </c>
       <c r="K354" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L354" t="s">
         <v>34</v>
@@ -32522,7 +32531,7 @@
         <v>165</v>
       </c>
       <c r="S354" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="T354" t="s">
         <v>37</v>
@@ -32556,7 +32565,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B355" t="n">
         <v>5</v>
@@ -32584,7 +32593,7 @@
         <v>0.6</v>
       </c>
       <c r="K355" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L355" t="s">
         <v>34</v>
@@ -32608,7 +32617,7 @@
         <v>160</v>
       </c>
       <c r="S355" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="T355" t="s">
         <v>37</v>
@@ -32640,7 +32649,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -32677,7 +32686,7 @@
         <v>35</v>
       </c>
       <c r="P356" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q356" t="n">
         <v>149</v>
@@ -32686,7 +32695,7 @@
         <v>167</v>
       </c>
       <c r="S356" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="T356" t="s">
         <v>37</v>
@@ -32720,7 +32729,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -32748,7 +32757,7 @@
         <v>1.2</v>
       </c>
       <c r="K357" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L357" t="s">
         <v>61</v>
@@ -32772,7 +32781,7 @@
         <v>225</v>
       </c>
       <c r="S357" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="T357" t="s">
         <v>37</v>
@@ -32804,7 +32813,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B358" t="n">
         <v>5</v>
@@ -32832,7 +32841,7 @@
         <v>0.8</v>
       </c>
       <c r="K358" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L358" t="s">
         <v>61</v>
@@ -32856,7 +32865,7 @@
         <v>162</v>
       </c>
       <c r="S358" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="T358" t="s">
         <v>37</v>
@@ -32888,7 +32897,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -32916,7 +32925,7 @@
         <v>1.3</v>
       </c>
       <c r="K359" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L359" t="s">
         <v>61</v>
@@ -32940,7 +32949,7 @@
         <v>247</v>
       </c>
       <c r="S359" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T359" t="s">
         <v>37</v>
@@ -32972,7 +32981,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -33018,7 +33027,7 @@
         <v>227</v>
       </c>
       <c r="S360" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="T360" t="s">
         <v>37</v>
@@ -33050,7 +33059,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B361" t="n">
         <v>6</v>
@@ -33078,7 +33087,7 @@
         <v>0.7</v>
       </c>
       <c r="K361" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L361" t="s">
         <v>61</v>
@@ -33102,7 +33111,7 @@
         <v>146</v>
       </c>
       <c r="S361" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="T361" t="s">
         <v>37</v>
@@ -33134,7 +33143,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B362" t="n">
         <v>6</v>
@@ -33162,7 +33171,7 @@
         <v>1.1</v>
       </c>
       <c r="K362" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L362" t="s">
         <v>61</v>
@@ -33186,7 +33195,7 @@
         <v>225</v>
       </c>
       <c r="S362" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="T362" t="s">
         <v>37</v>
@@ -33218,7 +33227,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -33246,7 +33255,7 @@
         <v>1.1</v>
       </c>
       <c r="K363" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L363" t="s">
         <v>34</v>
@@ -33270,7 +33279,7 @@
         <v>176</v>
       </c>
       <c r="S363" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="T363" t="s">
         <v>37</v>
@@ -33302,7 +33311,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B364" t="n">
         <v>5</v>
@@ -33330,7 +33339,7 @@
         <v>1.3</v>
       </c>
       <c r="K364" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L364" t="s">
         <v>61</v>
@@ -33354,7 +33363,7 @@
         <v>223</v>
       </c>
       <c r="S364" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="T364" t="s">
         <v>37</v>
@@ -33371,7 +33380,7 @@
         <v>37</v>
       </c>
       <c r="Z364" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AA364" t="s">
         <v>39</v>
@@ -33388,7 +33397,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -33416,7 +33425,7 @@
         <v>0.8</v>
       </c>
       <c r="K365" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L365" t="s">
         <v>61</v>
@@ -33440,7 +33449,7 @@
         <v>265</v>
       </c>
       <c r="S365" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="T365" t="s">
         <v>37</v>
@@ -33472,7 +33481,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -33500,7 +33509,7 @@
         <v>0.9</v>
       </c>
       <c r="K366" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L366" t="s">
         <v>61</v>
@@ -33524,7 +33533,7 @@
         <v>228</v>
       </c>
       <c r="S366" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="T366" t="s">
         <v>37</v>
@@ -33556,7 +33565,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B367" t="n">
         <v>5</v>
@@ -33584,7 +33593,7 @@
         <v>0.9</v>
       </c>
       <c r="K367" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L367" t="s">
         <v>61</v>
@@ -33608,7 +33617,7 @@
         <v>172</v>
       </c>
       <c r="S367" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="T367" t="s">
         <v>37</v>
@@ -33640,7 +33649,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -33677,7 +33686,7 @@
         <v>35</v>
       </c>
       <c r="P368" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="Q368" t="n">
         <v>259</v>
@@ -33686,7 +33695,7 @@
         <v>295</v>
       </c>
       <c r="S368" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="T368" t="s">
         <v>37</v>
@@ -33718,7 +33727,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -33746,7 +33755,7 @@
         <v>1</v>
       </c>
       <c r="K369" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L369"/>
       <c r="M369"/>
@@ -33766,7 +33775,7 @@
         <v>169</v>
       </c>
       <c r="S369" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="T369" t="s">
         <v>37</v>
@@ -33783,7 +33792,7 @@
         <v>37</v>
       </c>
       <c r="Z369" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AA369" t="s">
         <v>39</v>
@@ -33800,7 +33809,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -33846,7 +33855,7 @@
         <v>245</v>
       </c>
       <c r="S370" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="T370" t="s">
         <v>37</v>
@@ -33878,7 +33887,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -33890,7 +33899,7 @@
         <v>38</v>
       </c>
       <c r="E371" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F371"/>
       <c r="G371" t="n">
@@ -33906,7 +33915,7 @@
         <v>1.5</v>
       </c>
       <c r="K371" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L371"/>
       <c r="M371"/>
@@ -33917,7 +33926,7 @@
         <v>35</v>
       </c>
       <c r="P371" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q371" t="n">
         <v>208</v>
@@ -33926,7 +33935,7 @@
         <v>228</v>
       </c>
       <c r="S371" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="T371" t="s">
         <v>37</v>
@@ -33958,7 +33967,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B372" t="n">
         <v>4</v>
@@ -33986,7 +33995,7 @@
         <v>1.5</v>
       </c>
       <c r="K372" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L372" t="s">
         <v>61</v>
@@ -34010,7 +34019,7 @@
         <v>320</v>
       </c>
       <c r="S372" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="T372" t="s">
         <v>37</v>
@@ -34042,7 +34051,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -34070,7 +34079,7 @@
         <v>0.5</v>
       </c>
       <c r="K373" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L373" t="s">
         <v>61</v>
@@ -34094,7 +34103,7 @@
         <v>141</v>
       </c>
       <c r="S373" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T373" t="s">
         <v>37</v>
@@ -34126,7 +34135,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B374" t="n">
         <v>5</v>
@@ -34154,7 +34163,7 @@
         <v>1.8</v>
       </c>
       <c r="K374" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L374" t="s">
         <v>61</v>
@@ -34178,7 +34187,7 @@
         <v>304</v>
       </c>
       <c r="S374" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T374" t="s">
         <v>37</v>
@@ -34210,7 +34219,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B375" t="n">
         <v>3</v>
@@ -34238,7 +34247,7 @@
         <v>0.7</v>
       </c>
       <c r="K375" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L375" t="s">
         <v>34</v>
@@ -34262,7 +34271,7 @@
         <v>142</v>
       </c>
       <c r="S375" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T375" t="s">
         <v>37</v>
@@ -34294,7 +34303,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B376" t="n">
         <v>3</v>
@@ -34322,7 +34331,7 @@
         <v>0.2</v>
       </c>
       <c r="K376" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L376" t="s">
         <v>61</v>
@@ -34346,7 +34355,7 @@
         <v>172</v>
       </c>
       <c r="S376" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="T376" t="s">
         <v>37</v>
@@ -34378,7 +34387,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -34390,7 +34399,7 @@
         <v>2</v>
       </c>
       <c r="E377" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F377" t="n">
         <v>10000000</v>
@@ -34406,7 +34415,7 @@
         <v>0.9</v>
       </c>
       <c r="K377" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L377" t="s">
         <v>34</v>
@@ -34430,7 +34439,7 @@
         <v>150</v>
       </c>
       <c r="S377" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="T377" t="s">
         <v>37</v>
@@ -34462,7 +34471,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -34490,7 +34499,7 @@
         <v>1.1</v>
       </c>
       <c r="K378" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L378" t="s">
         <v>61</v>
@@ -34514,7 +34523,7 @@
         <v>207</v>
       </c>
       <c r="S378" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="T378" t="s">
         <v>37</v>
@@ -34546,7 +34555,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -34574,7 +34583,7 @@
         <v>0.8</v>
       </c>
       <c r="K379" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L379" t="s">
         <v>34</v>
@@ -34598,7 +34607,7 @@
         <v>144</v>
       </c>
       <c r="S379" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="T379" t="s">
         <v>37</v>
@@ -34615,7 +34624,7 @@
         <v>37</v>
       </c>
       <c r="Z379" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AA379" t="s">
         <v>39</v>
@@ -34632,7 +34641,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -34678,7 +34687,7 @@
         <v>277</v>
       </c>
       <c r="S380" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="T380" t="s">
         <v>37</v>
@@ -34710,7 +34719,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B381" t="n">
         <v>4</v>
@@ -34738,7 +34747,7 @@
         <v>0.8</v>
       </c>
       <c r="K381" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="L381" t="s">
         <v>34</v>
@@ -34762,7 +34771,7 @@
         <v>168</v>
       </c>
       <c r="S381" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="T381" t="s">
         <v>37</v>
@@ -34794,7 +34803,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B382" t="n">
         <v>4</v>
@@ -34822,7 +34831,7 @@
         <v>1.3</v>
       </c>
       <c r="K382" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L382" t="s">
         <v>34</v>
@@ -34846,7 +34855,7 @@
         <v>242</v>
       </c>
       <c r="S382" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="T382" t="s">
         <v>37</v>
@@ -34880,7 +34889,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B383" t="n">
         <v>5</v>
@@ -34932,7 +34941,7 @@
         <v>154</v>
       </c>
       <c r="S383" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="T383" t="s">
         <v>37</v>
@@ -34964,7 +34973,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B384" t="n">
         <v>6</v>
@@ -35016,7 +35025,7 @@
         <v>168</v>
       </c>
       <c r="S384" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="T384" t="s">
         <v>37</v>
@@ -35033,7 +35042,7 @@
         <v>37</v>
       </c>
       <c r="Z384" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AA384" t="s">
         <v>39</v>
@@ -35050,7 +35059,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -35078,7 +35087,7 @@
         <v>0.9</v>
       </c>
       <c r="K385" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L385" t="s">
         <v>61</v>
@@ -35102,7 +35111,7 @@
         <v>258</v>
       </c>
       <c r="S385" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="T385" t="s">
         <v>37</v>
@@ -35134,7 +35143,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -35180,7 +35189,7 @@
         <v>256</v>
       </c>
       <c r="S386" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="T386" t="s">
         <v>37</v>
@@ -35212,7 +35221,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -35264,7 +35273,7 @@
         <v>141</v>
       </c>
       <c r="S387" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="T387" t="s">
         <v>37</v>
@@ -35296,7 +35305,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -35308,7 +35317,7 @@
         <v>8</v>
       </c>
       <c r="E388" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F388" t="n">
         <v>5550000</v>
@@ -35348,7 +35357,7 @@
         <v>223</v>
       </c>
       <c r="S388" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="T388" t="s">
         <v>37</v>
@@ -35380,7 +35389,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -35408,7 +35417,7 @@
         <v>0.7</v>
       </c>
       <c r="K389" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L389"/>
       <c r="M389"/>
@@ -35428,7 +35437,7 @@
         <v>170</v>
       </c>
       <c r="S389" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="T389" t="s">
         <v>37</v>
@@ -35445,7 +35454,7 @@
         <v>37</v>
       </c>
       <c r="Z389" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AA389" t="s">
         <v>39</v>
@@ -35462,7 +35471,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B390" t="n">
         <v>3</v>
@@ -35514,7 +35523,7 @@
         <v>135</v>
       </c>
       <c r="S390" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T390" t="s">
         <v>37</v>
@@ -35546,7 +35555,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -35558,7 +35567,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F391" t="n">
         <v>19108800</v>
@@ -35589,7 +35598,7 @@
         <v>35</v>
       </c>
       <c r="P391" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q391" t="n">
         <v>167</v>
@@ -35598,7 +35607,7 @@
         <v>202</v>
       </c>
       <c r="S391" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="T391" t="s">
         <v>37</v>
@@ -35630,7 +35639,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B392" t="n">
         <v>4</v>
@@ -35667,7 +35676,7 @@
         <v>99.1619184599215</v>
       </c>
       <c r="N392" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O392" t="s">
         <v>35</v>
@@ -35682,7 +35691,7 @@
         <v>145</v>
       </c>
       <c r="S392" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="T392" t="s">
         <v>37</v>
@@ -35698,7 +35707,9 @@
       <c r="Y392" t="s">
         <v>37</v>
       </c>
-      <c r="Z392"/>
+      <c r="Z392" t="s">
+        <v>264</v>
+      </c>
       <c r="AA392" t="s">
         <v>39</v>
       </c>
@@ -35714,7 +35725,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B393" t="n">
         <v>3</v>
@@ -35766,7 +35777,7 @@
         <v>163</v>
       </c>
       <c r="S393" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="T393" t="s">
         <v>37</v>
@@ -35783,7 +35794,7 @@
         <v>37</v>
       </c>
       <c r="Z393" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AA393" t="s">
         <v>39</v>
@@ -35800,7 +35811,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -35852,7 +35863,7 @@
         <v>210</v>
       </c>
       <c r="S394" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="T394" t="s">
         <v>37</v>
@@ -35884,7 +35895,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -35896,7 +35907,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F395"/>
       <c r="G395" t="n">
@@ -35927,7 +35938,7 @@
         <v>35</v>
       </c>
       <c r="P395" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Q395" t="n">
         <v>157</v>
@@ -35936,7 +35947,7 @@
         <v>188</v>
       </c>
       <c r="S395" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="T395" t="s">
         <v>37</v>
@@ -35968,7 +35979,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -36020,7 +36031,7 @@
         <v>230</v>
       </c>
       <c r="S396" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="T396" t="s">
         <v>37</v>
@@ -36037,7 +36048,7 @@
         <v>37</v>
       </c>
       <c r="Z396" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AA396" t="s">
         <v>39</v>
@@ -36054,7 +36065,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -36106,7 +36117,7 @@
         <v>180</v>
       </c>
       <c r="S397" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="T397" t="s">
         <v>37</v>
@@ -36140,7 +36151,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -36168,7 +36179,7 @@
         <v>0.8</v>
       </c>
       <c r="K398" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L398"/>
       <c r="M398"/>
@@ -36188,7 +36199,7 @@
         <v>124</v>
       </c>
       <c r="S398" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="T398" t="s">
         <v>37</v>
@@ -36220,7 +36231,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -36248,7 +36259,7 @@
         <v>0.7</v>
       </c>
       <c r="K399" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L399"/>
       <c r="M399"/>
@@ -36268,7 +36279,7 @@
         <v>123</v>
       </c>
       <c r="S399" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="T399" t="s">
         <v>37</v>
